--- a/docs/우럭아왜우럭 데이터 설계.xlsx
+++ b/docs/우럭아왜우럭 데이터 설계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\바탕 화면\jinha\우럭아왜우럭\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFB4EC4-5F9B-430D-AFE1-5A0CB9ED84DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0855F4A8-92F1-4D4B-98CD-F42E473A06AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-290" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{EF12513C-7545-404A-BD8A-71B5E4507A34}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{EF12513C-7545-404A-BD8A-71B5E4507A34}"/>
   </bookViews>
   <sheets>
     <sheet name="기획데이터_스키마" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2153" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2171" uniqueCount="501">
   <si>
     <t>얕은 연안</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -856,10 +856,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>먼 지역일수록 고급 어종이 있으며, 특별장비나 부품조각의 확률이 높다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>bait_data</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1486,10 +1482,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>null</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>누군가가 빠뜨린 낚싯대</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1660,10 +1652,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2022-01-24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>15000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1677,14 +1665,6 @@
   </si>
   <si>
     <t>테이블명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-01-24-17:50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-01-28-17:50</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1969,6 +1949,49 @@
   </si>
   <si>
     <t>recv_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-01-23 22:11:11</t>
+  </si>
+  <si>
+    <t>durability</t>
+  </si>
+  <si>
+    <t>fuel</t>
+  </si>
+  <si>
+    <t>departure_time</t>
+  </si>
+  <si>
+    <t>map_id</t>
+  </si>
+  <si>
+    <t>2022-01-23 22:11:12</t>
+  </si>
+  <si>
+    <t>2022-01-23 22:11:13</t>
+  </si>
+  <si>
+    <t>2022-01-23 22:11:14</t>
+  </si>
+  <si>
+    <t>2022-01-23 22:11:15</t>
+  </si>
+  <si>
+    <t>2022-01-23 22:11:16</t>
+  </si>
+  <si>
+    <t>2022-01-23 22:11:17</t>
+  </si>
+  <si>
+    <t>2022-01-23 22:11:18</t>
+  </si>
+  <si>
+    <t>2022-01-23 22:11:19</t>
+  </si>
+  <si>
+    <t>먼 지역일수록 특별장비나 부품조각의 확률이 높다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2186,7 +2209,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2280,6 +2303,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2601,23 +2630,23 @@
   <dimension ref="A1:L151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="20.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.58203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.58203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="64.08203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.08203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.58203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.58203125" style="7"/>
+    <col min="2" max="2" width="26.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.5" thickBot="1">
+    <row r="1" spans="1:9" ht="17.25" thickBot="1">
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
     </row>
@@ -2638,18 +2667,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17.5" thickTop="1">
+    <row r="3" spans="1:9" ht="17.25" thickTop="1">
       <c r="A3" s="9" t="s">
         <v>96</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>252</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>253</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -2674,7 +2703,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>193</v>
@@ -2714,7 +2743,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>109</v>
@@ -2767,7 +2796,7 @@
         <v>56</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2782,7 +2811,7 @@
         <v>57</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2843,7 +2872,7 @@
         <v>123</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2925,7 +2954,7 @@
         <v>54</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2982,13 +3011,10 @@
       <c r="D31" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>205</v>
-      </c>
     </row>
     <row r="32" spans="1:5">
       <c r="B32" s="17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>106</v>
@@ -3055,7 +3081,7 @@
     <row r="38" spans="1:10">
       <c r="A38" s="4"/>
       <c r="B38" s="17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>108</v>
@@ -3069,7 +3095,7 @@
     <row r="39" spans="1:10">
       <c r="A39" s="4"/>
       <c r="B39" s="17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>108</v>
@@ -3090,29 +3116,29 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="B41" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="C41" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="F41" s="4"/>
       <c r="J41" s="4"/>
     </row>
     <row r="42" spans="1:10">
       <c r="B42" s="17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>106</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -3123,22 +3149,22 @@
         <v>108</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E43" s="13"/>
     </row>
     <row r="44" spans="1:10">
       <c r="B44" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="F44" s="13"/>
     </row>
@@ -3150,7 +3176,7 @@
         <v>108</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
@@ -3163,16 +3189,16 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B47" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="C47" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
@@ -3180,13 +3206,13 @@
     </row>
     <row r="48" spans="1:10">
       <c r="B48" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>106</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -3197,7 +3223,7 @@
         <v>108</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
@@ -3219,7 +3245,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="B51" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>108</v>
@@ -3239,7 +3265,7 @@
         <v>108</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
@@ -3257,13 +3283,13 @@
         <v>174</v>
       </c>
       <c r="B54" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
@@ -3271,13 +3297,13 @@
     </row>
     <row r="55" spans="1:9">
       <c r="B55" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>106</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E55" s="13"/>
       <c r="F55" s="13"/>
@@ -3292,7 +3318,7 @@
         <v>108</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -3313,7 +3339,7 @@
     <row r="58" spans="1:9">
       <c r="A58" s="4"/>
       <c r="B58" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>108</v>
@@ -3322,7 +3348,7 @@
         <v>71</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F58" s="13"/>
       <c r="G58" s="13"/>
@@ -3330,13 +3356,13 @@
     <row r="59" spans="1:9">
       <c r="A59" s="4"/>
       <c r="B59" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>219</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>220</v>
       </c>
       <c r="E59" s="25"/>
       <c r="F59" s="13"/>
@@ -3345,7 +3371,7 @@
     <row r="60" spans="1:9">
       <c r="A60" s="4"/>
       <c r="B60" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>108</v>
@@ -3354,7 +3380,7 @@
         <v>74</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="F60" s="13"/>
       <c r="G60" s="13"/>
@@ -3368,7 +3394,7 @@
         <v>108</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E61" s="13"/>
       <c r="F61" s="13"/>
@@ -3384,16 +3410,16 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B63" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="B63" s="17" t="s">
+      <c r="C63" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D63" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
@@ -3402,13 +3428,13 @@
     <row r="64" spans="1:9">
       <c r="A64" s="4"/>
       <c r="B64" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>106</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
@@ -3423,7 +3449,7 @@
         <v>108</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G65" s="13"/>
       <c r="H65" s="13"/>
@@ -3432,13 +3458,13 @@
     <row r="66" spans="1:10">
       <c r="A66" s="4"/>
       <c r="B66" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
@@ -3452,7 +3478,7 @@
         <v>108</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G67" s="13"/>
       <c r="H67" s="13"/>
@@ -3461,7 +3487,7 @@
     <row r="68" spans="1:10">
       <c r="A68" s="4"/>
       <c r="B68" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>108</v>
@@ -3476,7 +3502,7 @@
     <row r="69" spans="1:10">
       <c r="A69" s="4"/>
       <c r="B69" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>108</v>
@@ -3498,16 +3524,16 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="B71" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="B71" s="17" t="s">
+      <c r="C71" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D71" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="E71" s="13"/>
       <c r="F71" s="13"/>
@@ -3517,13 +3543,13 @@
     </row>
     <row r="72" spans="1:10">
       <c r="B72" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>106</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J72" s="4"/>
     </row>
@@ -3536,7 +3562,7 @@
         <v>108</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E73" s="13"/>
       <c r="F73" s="13"/>
@@ -3547,13 +3573,13 @@
     <row r="74" spans="1:10">
       <c r="A74" s="4"/>
       <c r="B74" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E74" s="13"/>
       <c r="F74" s="13"/>
@@ -3569,7 +3595,7 @@
         <v>108</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E75" s="13"/>
       <c r="F75" s="13"/>
@@ -3580,7 +3606,7 @@
     <row r="76" spans="1:10">
       <c r="A76" s="4"/>
       <c r="B76" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>108</v>
@@ -3596,7 +3622,7 @@
     <row r="77" spans="1:10">
       <c r="A77" s="4"/>
       <c r="B77" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>108</v>
@@ -3612,7 +3638,7 @@
     <row r="78" spans="1:10">
       <c r="A78" s="4"/>
       <c r="B78" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>108</v>
@@ -3635,27 +3661,27 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B80" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="B80" s="17" t="s">
+      <c r="C80" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D80" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="81" spans="1:12">
       <c r="B81" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>106</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3666,7 +3692,7 @@
         <v>108</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -3682,7 +3708,7 @@
     </row>
     <row r="84" spans="1:12">
       <c r="B84" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>108</v>
@@ -3693,7 +3719,7 @@
     </row>
     <row r="85" spans="1:12">
       <c r="B85" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>108</v>
@@ -3702,7 +3728,7 @@
         <v>64</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -3713,13 +3739,13 @@
         <v>108</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="4"/>
       <c r="B87" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>108</v>
@@ -3739,7 +3765,7 @@
     <row r="88" spans="1:12">
       <c r="A88" s="4"/>
       <c r="B88" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>108</v>
@@ -3759,13 +3785,13 @@
     <row r="89" spans="1:12">
       <c r="A89" s="4"/>
       <c r="B89" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D89" s="4" t="s">
         <v>219</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>220</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
@@ -3792,7 +3818,7 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B91" s="16" t="s">
         <v>109</v>
@@ -3835,7 +3861,7 @@
     <row r="93" spans="1:12">
       <c r="A93" s="4"/>
       <c r="B93" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>108</v>
@@ -3908,10 +3934,10 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B97" s="16" t="s">
         <v>250</v>
-      </c>
-      <c r="B97" s="16" t="s">
-        <v>251</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>108</v>
@@ -3951,13 +3977,13 @@
     <row r="99" spans="1:12">
       <c r="A99" s="4"/>
       <c r="B99" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D99" s="4" t="s">
         <v>219</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>220</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
@@ -3971,7 +3997,7 @@
     <row r="100" spans="1:12">
       <c r="A100" s="4"/>
       <c r="B100" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>108</v>
@@ -3980,7 +4006,7 @@
         <v>77</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
@@ -3993,7 +4019,7 @@
     <row r="101" spans="1:12">
       <c r="A101" s="4"/>
       <c r="B101" s="16" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>108</v>
@@ -4013,7 +4039,7 @@
     <row r="102" spans="1:12">
       <c r="A102" s="4"/>
       <c r="B102" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>108</v>
@@ -4022,7 +4048,7 @@
         <v>76</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
@@ -4214,7 +4240,7 @@
         <v>156</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -4261,7 +4287,7 @@
         <v>164</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -4297,7 +4323,7 @@
         <v>169</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -4317,7 +4343,7 @@
     </row>
     <row r="122" spans="1:12">
       <c r="A122" s="9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B122" s="16" t="s">
         <v>133</v>
@@ -4326,7 +4352,7 @@
         <v>108</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -4474,16 +4500,16 @@
     </row>
     <row r="133" spans="1:12">
       <c r="A133" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B133" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -4563,7 +4589,7 @@
     </row>
     <row r="142" spans="1:12">
       <c r="A142" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B142" s="17" t="s">
         <v>175</v>
@@ -4657,6 +4683,9 @@
       </c>
       <c r="D148" s="4" t="s">
         <v>158</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -4700,23 +4729,23 @@
   <dimension ref="A2:J301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.08203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.75" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.58203125" style="1"/>
+    <col min="12" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
@@ -4730,7 +4759,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>105</v>
@@ -4765,7 +4794,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -4817,10 +4846,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="4" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -4838,7 +4867,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -4867,7 +4896,7 @@
         <v>72</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -4881,7 +4910,7 @@
         <v>73</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -4892,50 +4921,50 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -4943,7 +4972,7 @@
         <v>81</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -4951,7 +4980,7 @@
         <v>42</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -5023,7 +5052,7 @@
         <v>41</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>84</v>
@@ -5093,7 +5122,7 @@
         <v>133</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>134</v>
@@ -5111,10 +5140,10 @@
         <v>140</v>
       </c>
       <c r="H41" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="I41" s="15" t="s">
         <v>353</v>
-      </c>
-      <c r="I41" s="15" t="s">
-        <v>354</v>
       </c>
       <c r="J41" s="2"/>
     </row>
@@ -5135,7 +5164,7 @@
         <v>59</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>47</v>
@@ -5164,7 +5193,7 @@
         <v>73</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>49</v>
@@ -5193,7 +5222,7 @@
         <v>66</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>49</v>
@@ -5222,7 +5251,7 @@
         <v>60</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>50</v>
@@ -5239,21 +5268,21 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>109</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E48" s="15" t="s">
         <v>170</v>
@@ -5264,7 +5293,7 @@
         <v>72</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>43</v>
@@ -5283,7 +5312,7 @@
         <v>73</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>43</v>
@@ -5302,7 +5331,7 @@
         <v>44</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>43</v>
@@ -5321,15 +5350,15 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C54" s="15" t="s">
         <v>109</v>
@@ -5338,7 +5367,7 @@
         <v>193</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F54" s="15" t="s">
         <v>170</v>
@@ -5349,7 +5378,7 @@
         <v>72</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>67</v>
@@ -5369,7 +5398,7 @@
         <v>73</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>67</v>
@@ -5389,7 +5418,7 @@
         <v>44</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>67</v>
@@ -5409,7 +5438,7 @@
         <v>66</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>67</v>
@@ -5429,7 +5458,7 @@
         <v>43</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>67</v>
@@ -5455,10 +5484,10 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>109</v>
@@ -5467,13 +5496,13 @@
         <v>193</v>
       </c>
       <c r="E62" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="F62" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="F62" s="15" t="s">
-        <v>219</v>
-      </c>
       <c r="G62" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H62" s="15" t="s">
         <v>170</v>
@@ -5502,12 +5531,12 @@
         <v>48</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>9</v>
@@ -5528,12 +5557,12 @@
         <v>49</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>9</v>
@@ -5551,15 +5580,15 @@
         <v>58</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>9</v>
@@ -5580,12 +5609,12 @@
         <v>50</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>9</v>
@@ -5600,18 +5629,18 @@
         <v>73</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>63</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>9</v>
@@ -5626,18 +5655,18 @@
         <v>44</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>91</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>9</v>
@@ -5652,18 +5681,18 @@
         <v>72</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>46</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>9</v>
@@ -5678,18 +5707,18 @@
         <v>73</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>9</v>
@@ -5710,7 +5739,7 @@
         <v>92</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -5718,16 +5747,16 @@
         <v>42</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>42</v>
@@ -5736,35 +5765,35 @@
         <v>50</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C75" s="15" t="s">
         <v>109</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E75" s="15" t="s">
         <v>170</v>
       </c>
       <c r="F75" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G75" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -5781,18 +5810,18 @@
         <v>72</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>68</v>
@@ -5804,18 +5833,18 @@
         <v>72</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>68</v>
@@ -5827,18 +5856,18 @@
         <v>72</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>68</v>
@@ -5850,18 +5879,18 @@
         <v>73</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>63</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>68</v>
@@ -5873,18 +5902,18 @@
         <v>73</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>68</v>
@@ -5896,18 +5925,18 @@
         <v>73</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>68</v>
@@ -5919,10 +5948,10 @@
         <v>44</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>91</v>
@@ -5930,7 +5959,7 @@
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>68</v>
@@ -5942,18 +5971,18 @@
         <v>44</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>68</v>
@@ -5965,13 +5994,13 @@
         <v>44</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -5979,7 +6008,7 @@
         <v>42</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>45</v>
@@ -5988,7 +6017,7 @@
         <v>44</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>91</v>
@@ -6002,33 +6031,33 @@
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C88" s="15" t="s">
         <v>109</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E88" s="15" t="s">
         <v>170</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G88" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="H88" s="15" t="s">
         <v>235</v>
-      </c>
-      <c r="H88" s="15" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -6036,7 +6065,7 @@
         <v>72</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>81</v>
@@ -6045,10 +6074,10 @@
         <v>72</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>48</v>
@@ -6062,7 +6091,7 @@
         <v>73</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>81</v>
@@ -6071,7 +6100,7 @@
         <v>73</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>63</v>
@@ -6088,7 +6117,7 @@
         <v>44</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>81</v>
@@ -6097,10 +6126,10 @@
         <v>44</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>42</v>
@@ -6114,7 +6143,7 @@
         <v>66</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>81</v>
@@ -6123,10 +6152,10 @@
         <v>44</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>42</v>
@@ -6140,15 +6169,15 @@
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C95" s="15" t="s">
         <v>109</v>
@@ -6157,22 +6186,22 @@
         <v>192</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F95" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G95" s="15" t="s">
         <v>170</v>
       </c>
       <c r="H95" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I95" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J95" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -6195,10 +6224,10 @@
         <v>44</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>48</v>
@@ -6209,7 +6238,7 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>10</v>
@@ -6227,10 +6256,10 @@
         <v>43</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>48</v>
@@ -6241,7 +6270,7 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>10</v>
@@ -6259,10 +6288,10 @@
         <v>67</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>48</v>
@@ -6273,7 +6302,7 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>10</v>
@@ -6291,7 +6320,7 @@
         <v>42</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>63</v>
@@ -6305,7 +6334,7 @@
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>10</v>
@@ -6320,13 +6349,13 @@
         <v>72</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>47</v>
@@ -6337,7 +6366,7 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>10</v>
@@ -6352,13 +6381,13 @@
         <v>73</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>47</v>
@@ -6369,7 +6398,7 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>10</v>
@@ -6390,18 +6419,18 @@
         <v>75</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>10</v>
@@ -6416,24 +6445,24 @@
         <v>72</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>86</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>10</v>
@@ -6451,16 +6480,16 @@
         <v>48</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="105" spans="1:10" s="7" customFormat="1">
@@ -6468,13 +6497,13 @@
         <v>46</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>66</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E105" s="7" t="s">
         <v>46</v>
@@ -6483,10 +6512,10 @@
         <v>42</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I105" s="7" t="s">
         <v>48</v>
@@ -6497,16 +6526,16 @@
     </row>
     <row r="106" spans="1:10" s="7" customFormat="1">
       <c r="A106" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>66</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E106" s="7" t="s">
         <v>46</v>
@@ -6515,7 +6544,7 @@
         <v>46</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H106" s="7" t="s">
         <v>46</v>
@@ -6532,7 +6561,7 @@
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -6543,7 +6572,7 @@
         <v>193</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D109" s="15" t="s">
         <v>181</v>
@@ -6555,360 +6584,360 @@
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I110" s="2"/>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="129" spans="1:10">
       <c r="A129" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="130" spans="1:10">
       <c r="A130" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -6916,7 +6945,7 @@
     </row>
     <row r="132" spans="1:10">
       <c r="A132" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -6924,22 +6953,22 @@
         <v>171</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C133" s="15" t="s">
         <v>148</v>
       </c>
       <c r="D133" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E133" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F133" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G133" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H133" s="15" t="s">
         <v>199</v>
@@ -6962,7 +6991,7 @@
         <v>46</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>51</v>
@@ -6980,7 +7009,7 @@
         <v>72</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -6991,10 +7020,10 @@
         <v>72</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>52</v>
@@ -7003,7 +7032,7 @@
         <v>42</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>73</v>
@@ -7012,7 +7041,7 @@
         <v>72</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -7023,10 +7052,10 @@
         <v>73</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>63</v>
@@ -7035,7 +7064,7 @@
         <v>47</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>44</v>
@@ -7044,7 +7073,7 @@
         <v>72</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -7058,7 +7087,7 @@
         <v>63</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>46</v>
@@ -7067,7 +7096,7 @@
         <v>48</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>66</v>
@@ -7076,7 +7105,7 @@
         <v>72</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -7090,16 +7119,16 @@
         <v>52</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>43</v>
@@ -7108,7 +7137,7 @@
         <v>72</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -7122,16 +7151,16 @@
         <v>51</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>67</v>
@@ -7176,7 +7205,7 @@
         <v>59</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E143" s="4"/>
     </row>
@@ -7191,7 +7220,7 @@
         <v>59</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E144" s="4"/>
     </row>
@@ -7206,7 +7235,7 @@
         <v>59</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E145" s="4"/>
     </row>
@@ -7261,10 +7290,10 @@
         <v>46</v>
       </c>
       <c r="E149" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="F149" s="4" t="s">
         <v>390</v>
-      </c>
-      <c r="F149" s="4" t="s">
-        <v>392</v>
       </c>
       <c r="G149" s="4" t="s">
         <v>63</v>
@@ -7272,7 +7301,7 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>20</v>
@@ -7284,10 +7313,10 @@
         <v>49</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G150" s="4" t="s">
         <v>50</v>
@@ -7295,7 +7324,7 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>21</v>
@@ -7310,7 +7339,7 @@
         <v>85</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G151" s="4" t="s">
         <v>50</v>
@@ -7318,10 +7347,10 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>60</v>
@@ -7330,10 +7359,10 @@
         <v>84</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G152" s="4" t="s">
         <v>50</v>
@@ -7341,7 +7370,7 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>22</v>
@@ -7364,7 +7393,7 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>23</v>
@@ -7379,7 +7408,7 @@
         <v>92</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G154" s="4" t="s">
         <v>52</v>
@@ -7387,7 +7416,7 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>24</v>
@@ -7410,7 +7439,7 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>25</v>
@@ -7425,7 +7454,7 @@
         <v>49</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G156" s="4" t="s">
         <v>51</v>
@@ -7433,7 +7462,7 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>26</v>
@@ -7445,10 +7474,10 @@
         <v>82</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G157" s="4" t="s">
         <v>49</v>
@@ -7456,10 +7485,10 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C158" s="1">
         <v>4</v>
@@ -7468,10 +7497,10 @@
         <v>51</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G158" s="4" t="s">
         <v>49</v>
@@ -7479,7 +7508,7 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>27</v>
@@ -7494,7 +7523,7 @@
         <v>52</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G159" s="4" t="s">
         <v>49</v>
@@ -7502,10 +7531,10 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C160" s="1">
         <v>4</v>
@@ -7517,7 +7546,7 @@
         <v>63</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G160" s="4" t="s">
         <v>49</v>
@@ -7525,7 +7554,7 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>35</v>
@@ -7540,7 +7569,7 @@
         <v>51</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>49</v>
@@ -7548,7 +7577,7 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>28</v>
@@ -7563,7 +7592,7 @@
         <v>48</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>49</v>
@@ -7571,7 +7600,7 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>29</v>
@@ -7586,7 +7615,7 @@
         <v>83</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>48</v>
@@ -7594,7 +7623,7 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>30</v>
@@ -7606,10 +7635,10 @@
         <v>91</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>48</v>
@@ -7617,7 +7646,7 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>31</v>
@@ -7632,7 +7661,7 @@
         <v>46</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G165" s="1" t="s">
         <v>48</v>
@@ -7640,10 +7669,10 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C166" s="1">
         <v>4</v>
@@ -7663,7 +7692,7 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>32</v>
@@ -7678,7 +7707,7 @@
         <v>51</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>48</v>
@@ -7686,7 +7715,7 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>33</v>
@@ -7701,7 +7730,7 @@
         <v>63</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G168" s="1" t="s">
         <v>48</v>
@@ -7709,7 +7738,7 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>34</v>
@@ -7724,7 +7753,7 @@
         <v>46</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>47</v>
@@ -7732,7 +7761,7 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>35</v>
@@ -7747,7 +7776,7 @@
         <v>51</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>47</v>
@@ -7755,7 +7784,7 @@
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>36</v>
@@ -7770,7 +7799,7 @@
         <v>51</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G171" s="1" t="s">
         <v>47</v>
@@ -7784,7 +7813,7 @@
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -7809,7 +7838,7 @@
         <v>72</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C175" s="4" t="s">
         <v>47</v>
@@ -7823,7 +7852,7 @@
         <v>72</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>47</v>
@@ -7837,7 +7866,7 @@
         <v>72</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>47</v>
@@ -7851,7 +7880,7 @@
         <v>72</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>47</v>
@@ -7865,7 +7894,7 @@
         <v>72</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>47</v>
@@ -7879,7 +7908,7 @@
         <v>72</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>42</v>
@@ -7893,7 +7922,7 @@
         <v>72</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>42</v>
@@ -7907,7 +7936,7 @@
         <v>72</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>59</v>
@@ -7921,7 +7950,7 @@
         <v>72</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>59</v>
@@ -7935,7 +7964,7 @@
         <v>72</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>59</v>
@@ -7949,7 +7978,7 @@
         <v>72</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>59</v>
@@ -7963,7 +7992,7 @@
         <v>73</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>51</v>
@@ -7977,7 +8006,7 @@
         <v>73</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C187" s="4" t="s">
         <v>51</v>
@@ -7991,7 +8020,7 @@
         <v>73</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>51</v>
@@ -8005,7 +8034,7 @@
         <v>73</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>49</v>
@@ -8019,7 +8048,7 @@
         <v>73</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>49</v>
@@ -8033,7 +8062,7 @@
         <v>73</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>48</v>
@@ -8047,7 +8076,7 @@
         <v>73</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>48</v>
@@ -8061,7 +8090,7 @@
         <v>73</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>47</v>
@@ -8075,13 +8104,13 @@
         <v>73</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -8089,7 +8118,7 @@
         <v>73</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>42</v>
@@ -8103,7 +8132,7 @@
         <v>73</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>42</v>
@@ -8117,7 +8146,7 @@
         <v>73</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>42</v>
@@ -8131,7 +8160,7 @@
         <v>73</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>59</v>
@@ -8145,7 +8174,7 @@
         <v>73</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>59</v>
@@ -8159,7 +8188,7 @@
         <v>73</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>59</v>
@@ -8173,7 +8202,7 @@
         <v>44</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>49</v>
@@ -8187,7 +8216,7 @@
         <v>44</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>49</v>
@@ -8201,7 +8230,7 @@
         <v>44</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>49</v>
@@ -8215,7 +8244,7 @@
         <v>44</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>48</v>
@@ -8229,7 +8258,7 @@
         <v>44</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>48</v>
@@ -8243,7 +8272,7 @@
         <v>44</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>48</v>
@@ -8257,7 +8286,7 @@
         <v>44</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>47</v>
@@ -8271,7 +8300,7 @@
         <v>44</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>47</v>
@@ -8285,7 +8314,7 @@
         <v>44</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>47</v>
@@ -8299,7 +8328,7 @@
         <v>44</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>47</v>
@@ -8313,7 +8342,7 @@
         <v>44</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>42</v>
@@ -8327,7 +8356,7 @@
         <v>44</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>42</v>
@@ -8342,7 +8371,7 @@
         <v>44</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>59</v>
@@ -8356,7 +8385,7 @@
         <v>44</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>59</v>
@@ -8370,7 +8399,7 @@
         <v>44</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>59</v>
@@ -8398,7 +8427,7 @@
         <v>66</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>50</v>
@@ -8412,13 +8441,13 @@
         <v>66</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -8426,7 +8455,7 @@
         <v>66</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>52</v>
@@ -8440,7 +8469,7 @@
         <v>66</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>52</v>
@@ -8454,7 +8483,7 @@
         <v>66</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>51</v>
@@ -8468,7 +8497,7 @@
         <v>66</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>51</v>
@@ -8482,7 +8511,7 @@
         <v>66</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>49</v>
@@ -8496,7 +8525,7 @@
         <v>66</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>48</v>
@@ -8510,7 +8539,7 @@
         <v>66</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>47</v>
@@ -8524,7 +8553,7 @@
         <v>66</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>42</v>
@@ -8538,7 +8567,7 @@
         <v>66</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>59</v>
@@ -8552,7 +8581,7 @@
         <v>66</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>59</v>
@@ -8566,7 +8595,7 @@
         <v>66</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>59</v>
@@ -8613,7 +8642,7 @@
         <v>63</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E233" s="4" t="s">
         <v>42</v>
@@ -8630,7 +8659,7 @@
         <v>63</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E234" s="4" t="s">
         <v>42</v>
@@ -8647,7 +8676,7 @@
         <v>63</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E235" s="4" t="s">
         <v>42</v>
@@ -8655,7 +8684,7 @@
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B236" s="4" t="s">
         <v>52</v>
@@ -8664,7 +8693,7 @@
         <v>63</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E236" s="4" t="s">
         <v>42</v>
@@ -8672,7 +8701,7 @@
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B237" s="4" t="s">
         <v>52</v>
@@ -8681,7 +8710,7 @@
         <v>63</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E237" s="4" t="s">
         <v>47</v>
@@ -8689,7 +8718,7 @@
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B238" s="4" t="s">
         <v>52</v>
@@ -8698,7 +8727,7 @@
         <v>63</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E238" s="4" t="s">
         <v>47</v>
@@ -8706,7 +8735,7 @@
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B239" s="4" t="s">
         <v>52</v>
@@ -8715,7 +8744,7 @@
         <v>50</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E239" s="4" t="s">
         <v>47</v>
@@ -8723,7 +8752,7 @@
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B240" s="4" t="s">
         <v>52</v>
@@ -8732,7 +8761,7 @@
         <v>50</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E240" s="4" t="s">
         <v>47</v>
@@ -8740,7 +8769,7 @@
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B241" s="4" t="s">
         <v>52</v>
@@ -8749,7 +8778,7 @@
         <v>50</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E241" s="4" t="s">
         <v>47</v>
@@ -8757,7 +8786,7 @@
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B242" s="4" t="s">
         <v>52</v>
@@ -8766,7 +8795,7 @@
         <v>50</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E242" s="4" t="s">
         <v>47</v>
@@ -8774,7 +8803,7 @@
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B243" s="4" t="s">
         <v>52</v>
@@ -8783,7 +8812,7 @@
         <v>50</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E243" s="4" t="s">
         <v>48</v>
@@ -8791,7 +8820,7 @@
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B244" s="4" t="s">
         <v>52</v>
@@ -8800,7 +8829,7 @@
         <v>51</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E244" s="4" t="s">
         <v>48</v>
@@ -8808,7 +8837,7 @@
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B245" s="4" t="s">
         <v>52</v>
@@ -8817,7 +8846,7 @@
         <v>51</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E245" s="4" t="s">
         <v>48</v>
@@ -8825,7 +8854,7 @@
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B246" s="4" t="s">
         <v>52</v>
@@ -8834,7 +8863,7 @@
         <v>52</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E246" s="4" t="s">
         <v>48</v>
@@ -8842,7 +8871,7 @@
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B247" s="4" t="s">
         <v>49</v>
@@ -8851,7 +8880,7 @@
         <v>52</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E247" s="4" t="s">
         <v>48</v>
@@ -8859,7 +8888,7 @@
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B248" s="4" t="s">
         <v>49</v>
@@ -8868,7 +8897,7 @@
         <v>52</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E248" s="4" t="s">
         <v>48</v>
@@ -8876,7 +8905,7 @@
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B249" s="4" t="s">
         <v>49</v>
@@ -8885,7 +8914,7 @@
         <v>52</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E249" s="4" t="s">
         <v>49</v>
@@ -8893,7 +8922,7 @@
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B250" s="4" t="s">
         <v>49</v>
@@ -8902,7 +8931,7 @@
         <v>51</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E250" s="4" t="s">
         <v>49</v>
@@ -8910,7 +8939,7 @@
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B251" s="4" t="s">
         <v>49</v>
@@ -8919,7 +8948,7 @@
         <v>51</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E251" s="4" t="s">
         <v>49</v>
@@ -8927,7 +8956,7 @@
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B252" s="4" t="s">
         <v>49</v>
@@ -8936,7 +8965,7 @@
         <v>51</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E252" s="4" t="s">
         <v>49</v>
@@ -8944,7 +8973,7 @@
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B253" s="4" t="s">
         <v>49</v>
@@ -8953,7 +8982,7 @@
         <v>51</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E253" s="4" t="s">
         <v>49</v>
@@ -8961,7 +8990,7 @@
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B254" s="4" t="s">
         <v>48</v>
@@ -8970,7 +8999,7 @@
         <v>51</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E254" s="4" t="s">
         <v>49</v>
@@ -8978,7 +9007,7 @@
     </row>
     <row r="255" spans="1:5">
       <c r="A255" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B255" s="4" t="s">
         <v>48</v>
@@ -8987,7 +9016,7 @@
         <v>51</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E255" s="4" t="s">
         <v>49</v>
@@ -9002,12 +9031,12 @@
     </row>
     <row r="257" spans="1:10">
       <c r="A257" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="258" spans="1:10">
       <c r="A258" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B258" s="15" t="s">
         <v>157</v>
@@ -9104,7 +9133,7 @@
         <v>41</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="268" spans="1:10">
@@ -9112,13 +9141,13 @@
         <v>44</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="269" spans="1:10">
@@ -9126,13 +9155,13 @@
         <v>66</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="270" spans="1:10">
@@ -9140,13 +9169,13 @@
         <v>43</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="271" spans="1:10">
@@ -9154,13 +9183,13 @@
         <v>67</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="272" spans="1:10">
@@ -9168,13 +9197,13 @@
         <v>60</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E272" s="2"/>
       <c r="H272" s="2"/>
@@ -9186,13 +9215,13 @@
         <v>45</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E273" s="2"/>
       <c r="F273" s="2"/>
@@ -9206,7 +9235,7 @@
         <v>81</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>85</v>
@@ -9226,13 +9255,13 @@
         <v>42</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E275" s="2"/>
       <c r="F275" s="2"/>
@@ -9252,7 +9281,7 @@
     </row>
     <row r="277" spans="1:10">
       <c r="A277" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C277" s="4"/>
       <c r="D277" s="7"/>
@@ -9268,7 +9297,7 @@
         <v>152</v>
       </c>
       <c r="D278" s="15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E278" s="15" t="s">
         <v>149</v>
@@ -9279,7 +9308,7 @@
         <v>66</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>72</v>
@@ -9305,7 +9334,7 @@
         <v>72</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="281" spans="1:10">
@@ -9373,7 +9402,7 @@
         <v>72</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="285" spans="1:10">
@@ -9458,7 +9487,7 @@
         <v>72</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -9492,7 +9521,7 @@
         <v>72</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -9509,7 +9538,7 @@
         <v>72</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -9609,28 +9638,27 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.58203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.58203125" style="1"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.5" thickBot="1"/>
+    <row r="1" spans="1:10" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:10" ht="18" thickTop="1" thickBot="1">
       <c r="A2" s="12" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>102</v>
@@ -9646,31 +9674,31 @@
       </c>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:10" ht="17.5" thickTop="1">
+    <row r="3" spans="1:10" ht="17.25" thickTop="1">
       <c r="A3" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10">
       <c r="B4" s="29" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>106</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="I4" s="7"/>
     </row>
@@ -9682,7 +9710,7 @@
         <v>106</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="I5" s="4"/>
     </row>
@@ -9694,7 +9722,7 @@
         <v>106</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="I6" s="7"/>
     </row>
@@ -9703,28 +9731,28 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="11" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="16" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>106</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="I9" s="4"/>
     </row>
@@ -9762,16 +9790,16 @@
     </row>
     <row r="12" spans="1:10">
       <c r="B12" s="16" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -9780,13 +9808,13 @@
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -9796,13 +9824,13 @@
     </row>
     <row r="14" spans="1:10">
       <c r="B14" s="16" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -9821,16 +9849,16 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="11" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -9838,10 +9866,10 @@
         <v>109</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -9849,10 +9877,10 @@
         <v>175</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="J18" s="4"/>
     </row>
@@ -9861,10 +9889,10 @@
         <v>152</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="J19" s="4"/>
     </row>
@@ -9874,16 +9902,16 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="J21" s="4"/>
     </row>
@@ -9892,34 +9920,34 @@
         <v>171</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10">
       <c r="B23" s="16" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10">
       <c r="B24" s="29" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>108</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="J24" s="4"/>
     </row>
@@ -9928,10 +9956,10 @@
         <v>140</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="J25" s="4"/>
     </row>
@@ -9943,7 +9971,7 @@
         <v>108</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="J26" s="4"/>
     </row>
@@ -9953,16 +9981,16 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="11" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="J28" s="4"/>
     </row>
@@ -9971,33 +9999,33 @@
         <v>144</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:10" s="6" customFormat="1">
       <c r="B30" s="16" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="6" customFormat="1">
       <c r="B31" s="16" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="6" customFormat="1">
@@ -10005,16 +10033,16 @@
     </row>
     <row r="33" spans="1:5" s="6" customFormat="1">
       <c r="A33" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="6" customFormat="1">
@@ -10023,10 +10051,10 @@
         <v>109</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="6" customFormat="1">
@@ -10034,10 +10062,10 @@
         <v>175</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="6" customFormat="1">
@@ -10045,35 +10073,35 @@
         <v>152</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="B37" s="16" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="B38" s="16" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -10081,16 +10109,16 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="11" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -10101,10 +10129,10 @@
         <v>108</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -10112,44 +10140,44 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="11" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="B44" s="16" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="20"/>
       <c r="B45" s="16" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="B46" s="16" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>108</v>
@@ -10160,16 +10188,16 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="30" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C48" s="26" t="s">
         <v>108</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -10181,7 +10209,7 @@
         <v>108</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -10193,10 +10221,10 @@
         <v>108</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -10206,88 +10234,88 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="30" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C52" s="26" t="s">
         <v>108</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="26"/>
       <c r="B53" s="31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C53" s="26" t="s">
         <v>108</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="26"/>
       <c r="B54" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C54" s="26" t="s">
         <v>108</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="26"/>
       <c r="B55" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>108</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="26"/>
       <c r="B56" s="31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C56" s="26" t="s">
         <v>108</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="26"/>
       <c r="B57" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C57" s="26" t="s">
         <v>108</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="26"/>
       <c r="B58" s="31" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C58" s="26" t="s">
         <v>108</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -10300,24 +10328,24 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94272C64-D2EF-471C-8877-7B2C51858195}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.58203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.08203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.58203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.58203125" style="1"/>
+    <col min="6" max="6" width="18.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -10325,13 +10353,13 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="27" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>114</v>
@@ -10364,16 +10392,16 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="11" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="27" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>113</v>
@@ -10382,13 +10410,13 @@
         <v>112</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -10396,7 +10424,7 @@
         <v>72</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>43</v>
@@ -10405,7 +10433,7 @@
         <v>48</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>86</v>
@@ -10416,12 +10444,12 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="11" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="27" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>109</v>
@@ -10503,7 +10531,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
         <v>72</v>
       </c>
@@ -10518,7 +10546,7 @@
       </c>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
         <v>72</v>
       </c>
@@ -10533,7 +10561,7 @@
       </c>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
         <v>72</v>
       </c>
@@ -10548,7 +10576,7 @@
       </c>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
         <v>72</v>
       </c>
@@ -10563,7 +10591,7 @@
       </c>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
         <v>72</v>
       </c>
@@ -10578,7 +10606,7 @@
       </c>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
         <v>72</v>
       </c>
@@ -10593,7 +10621,7 @@
       </c>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
         <v>72</v>
       </c>
@@ -10608,314 +10636,415 @@
       </c>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:11">
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:11">
       <c r="A26" s="27" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>171</v>
       </c>
+      <c r="C26" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>491</v>
+      </c>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>72</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
       <c r="J27" s="4"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="7"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="27" t="s">
+        <v>477</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="7"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="7"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="7"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="7"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="H34" s="7"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="7"/>
+    </row>
+    <row r="35" spans="1:11" s="6" customFormat="1">
+      <c r="H35" s="34"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="27" t="s">
+        <v>477</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J28" s="4"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="J29" s="4"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="J30" s="4"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="27" t="s">
-        <v>482</v>
-      </c>
-      <c r="B31" s="15" t="s">
+      <c r="C43" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="11" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="27" t="s">
+        <v>477</v>
+      </c>
+      <c r="B49" s="27" t="s">
         <v>144</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="J31" s="4"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="J32" s="4"/>
-    </row>
-    <row r="33" spans="1:6" s="6" customFormat="1"/>
-    <row r="34" spans="1:6">
-      <c r="A34" s="11" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="27" t="s">
-        <v>482</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>491</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="11" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="27" t="s">
-        <v>482</v>
-      </c>
-      <c r="B47" s="27" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -10923,171 +11052,188 @@
         <v>72</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="27" t="s">
-        <v>482</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>419</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>411</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>412</v>
+        <v>72</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B54" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="27" t="s">
+        <v>477</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="20"/>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="30" t="s">
-        <v>450</v>
-      </c>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-    </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="32" t="s">
-        <v>482</v>
-      </c>
-      <c r="B57" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="C57" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
+      <c r="A57" s="20"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="B58" s="26" t="s">
-        <v>415</v>
-      </c>
-      <c r="C58" s="26" t="s">
-        <v>486</v>
-      </c>
+      <c r="A58" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
       <c r="D58" s="26"/>
       <c r="E58" s="26"/>
       <c r="F58" s="26"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="B59" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C59" s="26" t="s">
-        <v>485</v>
+      <c r="A59" s="32" t="s">
+        <v>477</v>
+      </c>
+      <c r="B59" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C59" s="32" t="s">
+        <v>170</v>
       </c>
       <c r="D59" s="26"/>
       <c r="E59" s="26"/>
       <c r="F59" s="26"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="26"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
+      <c r="A60" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>481</v>
+      </c>
       <c r="D60" s="26"/>
       <c r="E60" s="26"/>
       <c r="F60" s="26"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="30" t="s">
-        <v>451</v>
-      </c>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
+      <c r="A61" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>480</v>
+      </c>
       <c r="D61" s="26"/>
       <c r="E61" s="26"/>
       <c r="F61" s="26"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="32" t="s">
-        <v>482</v>
-      </c>
-      <c r="B62" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="C62" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="D62" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="E62" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="F62" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="G62" s="32" t="s">
-        <v>244</v>
-      </c>
+      <c r="A62" s="26"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="B63" s="26" t="s">
+      <c r="A63" s="30" t="s">
+        <v>446</v>
+      </c>
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="32" t="s">
+        <v>477</v>
+      </c>
+      <c r="B64" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="C64" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="D64" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="E64" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="F64" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="G64" s="32" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C63" s="26" t="s">
+      <c r="C65" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D63" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="E63" s="26" t="s">
+      <c r="D65" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E65" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="F63" s="26" t="s">
+      <c r="F65" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="G65" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="26"/>
-      <c r="B64" s="26"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
+    <row r="66" spans="1:7">
+      <c r="A66" s="26"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/우럭아왜우럭 데이터 설계.xlsx
+++ b/docs/우럭아왜우럭 데이터 설계.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\바탕 화면\jinha\우럭아왜우럭\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0855F4A8-92F1-4D4B-98CD-F42E473A06AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECA4FDA-4EA0-49E7-BC16-5FD01B900487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{EF12513C-7545-404A-BD8A-71B5E4507A34}"/>
+    <workbookView xWindow="12340" yWindow="2000" windowWidth="25830" windowHeight="18290" activeTab="3" xr2:uid="{EF12513C-7545-404A-BD8A-71B5E4507A34}"/>
   </bookViews>
   <sheets>
     <sheet name="기획데이터_스키마" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2171" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="514">
   <si>
     <t>얕은 연안</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1924,10 +1924,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>864</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>573</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1992,6 +1988,61 @@
   </si>
   <si>
     <t>먼 지역일수록 특별장비나 부품조각의 확률이 높다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>선착장도 필요할듯?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>33</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-01-23 23:11:11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>612</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;어종이라고 같은 가격으로 묶는 것이 아니라, 크기에 따라 가격이 다르므로 구분이 필요. 잡은 물고기마다 번호를 붙이기로 결정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;같은 장비가 여러 개 일 수도 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_equipped</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;현재 장착중인지 여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;낚싯대와 릴의 내구도를 표현해야함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배의 좌표는 필요 없나?</t>
+  </si>
+  <si>
+    <t>게임데이터' 시트의 스키마가 최신 버전이며 노란색 표시한 것들을 이 시트와 DB 스키마에 업데이트할 예정.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2075,7 +2126,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2097,6 +2148,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2209,7 +2272,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2309,6 +2372,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2630,23 +2708,23 @@
   <dimension ref="A1:L151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="20.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="64.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.625" style="7"/>
+    <col min="2" max="2" width="26.58203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.58203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.08203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.08203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.58203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.58203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.25" thickBot="1">
+    <row r="1" spans="1:9" ht="17.5" thickBot="1">
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
     </row>
@@ -2667,7 +2745,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17.25" thickTop="1">
+    <row r="3" spans="1:9" ht="17.5" thickTop="1">
       <c r="A3" s="9" t="s">
         <v>96</v>
       </c>
@@ -3010,6 +3088,9 @@
       </c>
       <c r="D31" s="7" t="s">
         <v>138</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -4685,7 +4766,7 @@
         <v>158</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -4729,23 +4810,23 @@
   <dimension ref="A2:J301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.08203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.75" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.625" style="1"/>
+    <col min="12" max="16384" width="8.58203125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
@@ -6253,7 +6334,7 @@
         <v>72</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>295</v>
@@ -6285,7 +6366,7 @@
         <v>73</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>313</v>
@@ -6317,7 +6398,7 @@
         <v>59</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>292</v>
@@ -6349,7 +6430,7 @@
         <v>72</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>311</v>
+        <v>43</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>314</v>
@@ -6381,7 +6462,7 @@
         <v>73</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>309</v>
+        <v>67</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>307</v>
@@ -6413,7 +6494,7 @@
         <v>59</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>75</v>
@@ -6445,7 +6526,7 @@
         <v>72</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>310</v>
+        <v>45</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>86</v>
@@ -6477,7 +6558,7 @@
         <v>73</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>315</v>
@@ -6541,7 +6622,7 @@
         <v>46</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G106" s="7" t="s">
         <v>372</v>
@@ -9638,24 +9719,24 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.625" style="1"/>
+    <col min="5" max="5" width="34.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.58203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" thickBot="1"/>
+    <row r="1" spans="1:10" ht="17.5" thickBot="1"/>
     <row r="2" spans="1:10" ht="18" thickTop="1" thickBot="1">
       <c r="A2" s="12" t="s">
         <v>418</v>
@@ -9674,7 +9755,7 @@
       </c>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:10" ht="17.25" thickTop="1">
+    <row r="3" spans="1:10" ht="17.5" thickTop="1">
       <c r="A3" s="11" t="s">
         <v>407</v>
       </c>
@@ -9686,6 +9767,9 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>448</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>513</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -9731,7 +9815,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B8" s="28" t="s">
         <v>477</v>
@@ -9746,7 +9830,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="16" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>106</v>
@@ -9913,6 +9997,9 @@
       <c r="D21" s="1" t="s">
         <v>448</v>
       </c>
+      <c r="E21" s="1" t="s">
+        <v>512</v>
+      </c>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10">
@@ -9956,7 +10043,7 @@
         <v>140</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D25" s="26" t="s">
         <v>447</v>
@@ -10022,7 +10109,7 @@
         <v>412</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>462</v>
@@ -10081,10 +10168,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="B37" s="16" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>463</v>
@@ -10095,7 +10182,7 @@
         <v>405</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>464</v>
@@ -10328,24 +10415,24 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94272C64-D2EF-471C-8877-7B2C51858195}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:K66"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.58203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.08203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.625" style="1"/>
+    <col min="6" max="6" width="18.58203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.08203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.58203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -10392,7 +10479,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I6" s="4"/>
     </row>
@@ -10401,7 +10488,7 @@
         <v>477</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>113</v>
@@ -10448,191 +10535,317 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="35" t="s">
+        <v>501</v>
+      </c>
+      <c r="B11" s="27" t="s">
         <v>477</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="C11" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="D11" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="E11" s="15" t="s">
         <v>152</v>
       </c>
+      <c r="F11" s="35" t="s">
+        <v>441</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>507</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="35" t="s">
         <v>72</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D12" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
-        <v>72</v>
+      <c r="A13" s="35" t="s">
+        <v>294</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>72</v>
+      <c r="E13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
-        <v>72</v>
+      <c r="A14" s="35" t="s">
+        <v>253</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D14" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>510</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
-        <v>72</v>
+      <c r="A15" s="35" t="s">
+        <v>254</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>510</v>
+      </c>
+      <c r="G15" s="35" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="1" t="s">
-        <v>72</v>
+      <c r="A16" s="35" t="s">
+        <v>255</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D16" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="E16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>510</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="1" t="s">
-        <v>72</v>
+      <c r="A17" s="35" t="s">
+        <v>256</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>510</v>
+      </c>
+      <c r="G17" s="35" t="s">
         <v>72</v>
       </c>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="1" t="s">
-        <v>72</v>
+      <c r="A18" s="35" t="s">
+        <v>257</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D18" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="E18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>72</v>
+      </c>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="1" t="s">
-        <v>72</v>
+      <c r="A19" s="35" t="s">
+        <v>258</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>72</v>
+      <c r="E19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>59</v>
       </c>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="1" t="s">
-        <v>72</v>
+      <c r="A20" s="35" t="s">
+        <v>260</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D20" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="E20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>510</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>72</v>
+      </c>
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="1" t="s">
-        <v>72</v>
+      <c r="A21" s="35" t="s">
+        <v>269</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>72</v>
+      <c r="E21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>510</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>59</v>
       </c>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="1" t="s">
-        <v>72</v>
+      <c r="A22" s="35" t="s">
+        <v>275</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D22" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="E22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>510</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>72</v>
+      </c>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="1" t="s">
-        <v>72</v>
+      <c r="A23" s="35" t="s">
+        <v>279</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>72</v>
+      <c r="E23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>510</v>
+      </c>
+      <c r="G23" s="35" t="s">
+        <v>59</v>
       </c>
       <c r="J23" s="4"/>
     </row>
@@ -10653,16 +10866,16 @@
         <v>171</v>
       </c>
       <c r="C26" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="D26" s="15" t="s">
         <v>488</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="E26" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="F26" s="15" t="s">
         <v>490</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>491</v>
       </c>
       <c r="J26" s="4"/>
     </row>
@@ -10680,7 +10893,7 @@
         <v>326</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>72</v>
@@ -10706,17 +10919,23 @@
       <c r="K29" s="7"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="36" t="s">
+        <v>501</v>
+      </c>
+      <c r="B30" s="27" t="s">
         <v>477</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="C30" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="D30" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="E30" s="15" t="s">
         <v>412</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>505</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="4"/>
@@ -10724,53 +10943,54 @@
       <c r="K30" s="7"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="A31" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="35" t="s">
         <v>413</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D33" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="7"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="7"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>487</v>
+      <c r="E33" s="35" t="s">
+        <v>486</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="33"/>
@@ -10778,80 +10998,83 @@
       <c r="K33" s="7"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" s="1" t="s">
+      <c r="A34" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="35" t="s">
         <v>311</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>487</v>
+      <c r="E34" s="35" t="s">
+        <v>486</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="33"/>
       <c r="J34" s="4"/>
       <c r="K34" s="7"/>
     </row>
-    <row r="35" spans="1:11" s="6" customFormat="1">
-      <c r="H35" s="34"/>
+    <row r="35" spans="1:11">
+      <c r="A35" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="B35" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>502</v>
+      </c>
+      <c r="E35" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="H35" s="7"/>
       <c r="I35" s="33"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="11" t="s">
+      <c r="J35" s="4"/>
+      <c r="K35" s="7"/>
+    </row>
+    <row r="36" spans="1:11" s="6" customFormat="1">
+      <c r="H36" s="34"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="27" t="s">
-        <v>477</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>405</v>
-      </c>
       <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
+      <c r="I37" s="33"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>487</v>
+      <c r="A38" s="35" t="s">
+        <v>501</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>477</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>405</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
@@ -10859,23 +11082,26 @@
       <c r="K38" s="7"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="35" t="s">
         <v>72</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="E39" s="1" t="s">
-        <v>492</v>
+        <v>415</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>492</v>
+        <v>486</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>486</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -10883,23 +11109,26 @@
       <c r="K39" s="7"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="1" t="s">
-        <v>72</v>
+      <c r="A40" s="35" t="s">
+        <v>294</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>493</v>
+        <v>44</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>491</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
@@ -10907,23 +11136,26 @@
       <c r="K40" s="7"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="1" t="s">
-        <v>72</v>
+      <c r="A41" s="35" t="s">
+        <v>253</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>494</v>
+        <v>72</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>492</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
@@ -10931,23 +11163,26 @@
       <c r="K41" s="7"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="1" t="s">
-        <v>72</v>
+      <c r="A42" s="35" t="s">
+        <v>254</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>495</v>
+        <v>72</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>493</v>
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
@@ -10955,281 +11190,272 @@
       <c r="K42" s="7"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="1" t="s">
-        <v>72</v>
+      <c r="A43" s="35" t="s">
+        <v>255</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E43" s="1" t="s">
+      <c r="E44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="1" t="s">
+    <row r="46" spans="1:11">
+      <c r="A46" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="11" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="27" t="s">
+        <v>477</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="11" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="27" t="s">
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="27" t="s">
         <v>477</v>
       </c>
-      <c r="B49" s="27" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B51" s="1" t="s">
+      <c r="B56" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="27" t="s">
-        <v>477</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>409</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B56" s="1" t="s">
+      <c r="C57" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="20"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="30" t="s">
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="20"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="30" t="s">
         <v>445</v>
       </c>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="32" t="s">
-        <v>477</v>
-      </c>
-      <c r="B59" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="C59" s="32" t="s">
-        <v>170</v>
-      </c>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
       <c r="D59" s="26"/>
       <c r="E59" s="26"/>
       <c r="F59" s="26"/>
     </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="B60" s="26" t="s">
+    <row r="60" spans="1:6">
+      <c r="A60" s="35" t="s">
+        <v>501</v>
+      </c>
+      <c r="B60" s="32" t="s">
+        <v>477</v>
+      </c>
+      <c r="C60" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D60" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="F60" s="26"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="26" t="s">
         <v>413</v>
       </c>
-      <c r="C60" s="26" t="s">
-        <v>481</v>
-      </c>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="B61" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C61" s="26" t="s">
+      <c r="D61" s="26" t="s">
         <v>480</v>
       </c>
-      <c r="D61" s="26"/>
       <c r="E61" s="26"/>
       <c r="F61" s="26"/>
     </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="26"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
+    <row r="62" spans="1:6">
+      <c r="A62" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>504</v>
+      </c>
       <c r="E62" s="26"/>
       <c r="F62" s="26"/>
     </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="30" t="s">
-        <v>446</v>
-      </c>
+    <row r="63" spans="1:6">
+      <c r="A63" s="26"/>
       <c r="B63" s="26"/>
       <c r="C63" s="26"/>
       <c r="D63" s="26"/>
       <c r="E63" s="26"/>
       <c r="F63" s="26"/>
     </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="32" t="s">
-        <v>477</v>
-      </c>
-      <c r="B64" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="C64" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="D64" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="E64" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="F64" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="G64" s="32" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="B65" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C65" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="D65" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="E65" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="F65" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="26"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26"/>
+    <row r="64" spans="1:6">
+      <c r="A64" s="35" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="39"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/docs/우럭아왜우럭 데이터 설계.xlsx
+++ b/docs/우럭아왜우럭 데이터 설계.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\바탕 화면\jinha\우럭아왜우럭\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\UrukGame\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECA4FDA-4EA0-49E7-BC16-5FD01B900487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51092592-D394-4929-B49E-B34968D6C83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12340" yWindow="2000" windowWidth="25830" windowHeight="18290" activeTab="3" xr2:uid="{EF12513C-7545-404A-BD8A-71B5E4507A34}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{EF12513C-7545-404A-BD8A-71B5E4507A34}"/>
   </bookViews>
   <sheets>
     <sheet name="기획데이터_스키마" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="512">
   <si>
     <t>얕은 연안</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1775,10 +1775,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>equip_slot</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>출항시간</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1860,30 +1856,6 @@
   </si>
   <si>
     <t>시세</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>낚싯대id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>릴id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>낚시줄id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미끼id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>낚시바늘id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>추id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2042,7 +2014,27 @@
     <t>배의 좌표는 필요 없나?</t>
   </si>
   <si>
-    <t>게임데이터' 시트의 스키마가 최신 버전이며 노란색 표시한 것들을 이 시트와 DB 스키마에 업데이트할 예정.</t>
+    <t>인벤토리id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장착여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수조id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>선물함id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경매id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranking</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2164,40 +2156,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2211,43 +2175,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2272,7 +2199,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2297,9 +2224,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2309,14 +2233,11 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -2325,32 +2246,20 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -2365,7 +2274,7 @@
     <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -2377,7 +2286,7 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -2386,7 +2295,19 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2708,48 +2629,48 @@
   <dimension ref="A1:L151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="20.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.58203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.58203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="64.08203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.08203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.58203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.58203125" style="7"/>
+    <col min="2" max="2" width="26.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.5" thickBot="1">
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-    </row>
-    <row r="2" spans="1:9" ht="18" thickTop="1" thickBot="1">
-      <c r="A2" s="8" t="s">
+    <row r="1" spans="1:9">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="37" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17.5" thickTop="1">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>251</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -2762,7 +2683,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4"/>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>105</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -2780,10 +2701,10 @@
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>193</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -2798,7 +2719,7 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>194</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -2820,10 +2741,10 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>109</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -2834,7 +2755,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>110</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -2849,10 +2770,10 @@
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="14" t="s">
         <v>115</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -2864,7 +2785,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="4"/>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="14" t="s">
         <v>116</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -2879,7 +2800,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="4"/>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="14" t="s">
         <v>117</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -2894,7 +2815,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="4"/>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="14" t="s">
         <v>118</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -2907,7 +2828,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4"/>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="14" t="s">
         <v>184</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -2925,10 +2846,10 @@
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="15" t="s">
         <v>121</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -2940,7 +2861,7 @@
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="15" t="s">
         <v>122</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -2954,7 +2875,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="15" t="s">
         <v>126</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -2966,7 +2887,7 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="15" t="s">
         <v>118</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -2978,7 +2899,7 @@
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="15" t="s">
         <v>184</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -2995,10 +2916,10 @@
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="15" t="s">
         <v>129</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -3010,7 +2931,7 @@
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="15" t="s">
         <v>130</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -3022,7 +2943,7 @@
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="15" t="s">
         <v>131</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -3036,7 +2957,7 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="15" t="s">
         <v>203</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -3048,7 +2969,7 @@
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="15" t="s">
         <v>202</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -3060,7 +2981,7 @@
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="15" t="s">
         <v>184</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -3077,10 +2998,10 @@
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="15" t="s">
         <v>133</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -3090,11 +3011,11 @@
         <v>138</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="15" t="s">
         <v>351</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -3105,7 +3026,7 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="15" t="s">
         <v>134</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -3116,7 +3037,7 @@
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="15" t="s">
         <v>135</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -3127,7 +3048,7 @@
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="15" t="s">
         <v>136</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -3138,7 +3059,7 @@
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="15" t="s">
         <v>139</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -3149,7 +3070,7 @@
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="15" t="s">
         <v>140</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -3161,7 +3082,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="4"/>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="15" t="s">
         <v>352</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -3170,12 +3091,12 @@
       <c r="D38" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="4"/>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="15" t="s">
         <v>353</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -3184,22 +3105,22 @@
       <c r="D39" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="14" t="s">
         <v>243</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -3212,7 +3133,7 @@
       <c r="J41" s="4"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="15" t="s">
         <v>288</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -3223,7 +3144,7 @@
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="15" t="s">
         <v>109</v>
       </c>
       <c r="C43" s="7" t="s">
@@ -3232,10 +3153,10 @@
       <c r="D43" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="E43" s="13"/>
+      <c r="E43" s="11"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="15" t="s">
         <v>247</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -3247,10 +3168,10 @@
       <c r="E44" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="F44" s="13"/>
+      <c r="F44" s="11"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="15" t="s">
         <v>170</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -3259,20 +3180,20 @@
       <c r="D45" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
     </row>
     <row r="46" spans="1:10">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="15" t="s">
         <v>206</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -3281,12 +3202,12 @@
       <c r="D47" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="15" t="s">
         <v>208</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -3297,7 +3218,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="15" t="s">
         <v>109</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -3306,12 +3227,12 @@
       <c r="D49" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="15" t="s">
         <v>193</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -3320,12 +3241,12 @@
       <c r="D50" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="15" t="s">
         <v>211</v>
       </c>
       <c r="C51" s="4" t="s">
@@ -3334,12 +3255,12 @@
       <c r="D51" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="15" t="s">
         <v>170</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -3348,22 +3269,22 @@
       <c r="D52" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
     </row>
     <row r="53" spans="1:9">
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="15" t="s">
         <v>212</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -3372,12 +3293,12 @@
       <c r="D54" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="15" t="s">
         <v>214</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -3386,13 +3307,13 @@
       <c r="D55" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="4"/>
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="15" t="s">
         <v>109</v>
       </c>
       <c r="C56" s="7" t="s">
@@ -3404,7 +3325,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="4"/>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="15" t="s">
         <v>193</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -3413,13 +3334,13 @@
       <c r="D57" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="E57" s="25"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="4"/>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="14" t="s">
         <v>217</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -3431,12 +3352,12 @@
       <c r="E58" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="4"/>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="14" t="s">
         <v>218</v>
       </c>
       <c r="C59" s="4" t="s">
@@ -3445,13 +3366,13 @@
       <c r="D59" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="E59" s="25"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="4"/>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="15" t="s">
         <v>216</v>
       </c>
       <c r="C60" s="7" t="s">
@@ -3460,15 +3381,15 @@
       <c r="D60" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E60" s="26" t="s">
+      <c r="E60" s="20" t="s">
         <v>435</v>
       </c>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="4"/>
-      <c r="B61" s="17" t="s">
+      <c r="B61" s="15" t="s">
         <v>170</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -3477,23 +3398,23 @@
       <c r="D61" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="B63" s="17" t="s">
+      <c r="B63" s="15" t="s">
         <v>222</v>
       </c>
       <c r="C63" s="4" t="s">
@@ -3502,13 +3423,13 @@
       <c r="D63" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="4"/>
-      <c r="B64" s="17" t="s">
+      <c r="B64" s="15" t="s">
         <v>274</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -3517,13 +3438,13 @@
       <c r="D64" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="4"/>
-      <c r="B65" s="17" t="s">
+      <c r="B65" s="15" t="s">
         <v>109</v>
       </c>
       <c r="C65" s="7" t="s">
@@ -3532,13 +3453,13 @@
       <c r="D65" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="4"/>
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="14" t="s">
         <v>217</v>
       </c>
       <c r="C66" s="4" t="s">
@@ -3547,12 +3468,12 @@
       <c r="D66" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="4"/>
-      <c r="B67" s="17" t="s">
+      <c r="B67" s="15" t="s">
         <v>170</v>
       </c>
       <c r="C67" s="4" t="s">
@@ -3561,13 +3482,13 @@
       <c r="D67" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="13"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="4"/>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="14" t="s">
         <v>225</v>
       </c>
       <c r="C68" s="4" t="s">
@@ -3576,13 +3497,13 @@
       <c r="D68" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="13"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="4"/>
-      <c r="B69" s="17" t="s">
+      <c r="B69" s="15" t="s">
         <v>226</v>
       </c>
       <c r="C69" s="7" t="s">
@@ -3591,23 +3512,23 @@
       <c r="D69" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="B71" s="17" t="s">
+      <c r="B71" s="15" t="s">
         <v>228</v>
       </c>
       <c r="C71" s="4" t="s">
@@ -3616,14 +3537,14 @@
       <c r="D71" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
     </row>
     <row r="72" spans="1:10">
-      <c r="B72" s="17" t="s">
+      <c r="B72" s="15" t="s">
         <v>231</v>
       </c>
       <c r="C72" s="4" t="s">
@@ -3636,7 +3557,7 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="4"/>
-      <c r="B73" s="17" t="s">
+      <c r="B73" s="15" t="s">
         <v>109</v>
       </c>
       <c r="C73" s="7" t="s">
@@ -3645,15 +3566,15 @@
       <c r="D73" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="4"/>
-      <c r="B74" s="16" t="s">
+      <c r="B74" s="14" t="s">
         <v>217</v>
       </c>
       <c r="C74" s="4" t="s">
@@ -3662,14 +3583,14 @@
       <c r="D74" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
       <c r="J74" s="4"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="4"/>
-      <c r="B75" s="17" t="s">
+      <c r="B75" s="15" t="s">
         <v>170</v>
       </c>
       <c r="C75" s="4" t="s">
@@ -3678,15 +3599,15 @@
       <c r="D75" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="4"/>
-      <c r="B76" s="16" t="s">
+      <c r="B76" s="14" t="s">
         <v>225</v>
       </c>
       <c r="C76" s="4" t="s">
@@ -3695,14 +3616,14 @@
       <c r="D76" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
       <c r="I76" s="4"/>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="4"/>
-      <c r="B77" s="17" t="s">
+      <c r="B77" s="15" t="s">
         <v>234</v>
       </c>
       <c r="C77" s="4" t="s">
@@ -3711,14 +3632,14 @@
       <c r="D77" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
       <c r="I77" s="4"/>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="4"/>
-      <c r="B78" s="17" t="s">
+      <c r="B78" s="15" t="s">
         <v>235</v>
       </c>
       <c r="C78" s="4" t="s">
@@ -3727,24 +3648,24 @@
       <c r="D78" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
       <c r="I78" s="4"/>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="13"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="11" t="s">
+      <c r="A80" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="B80" s="17" t="s">
+      <c r="B80" s="15" t="s">
         <v>237</v>
       </c>
       <c r="C80" s="4" t="s">
@@ -3755,7 +3676,7 @@
       </c>
     </row>
     <row r="81" spans="1:12">
-      <c r="B81" s="17" t="s">
+      <c r="B81" s="15" t="s">
         <v>240</v>
       </c>
       <c r="C81" s="4" t="s">
@@ -3766,7 +3687,7 @@
       </c>
     </row>
     <row r="82" spans="1:12">
-      <c r="B82" s="17" t="s">
+      <c r="B82" s="15" t="s">
         <v>109</v>
       </c>
       <c r="C82" s="7" t="s">
@@ -3777,7 +3698,7 @@
       </c>
     </row>
     <row r="83" spans="1:12">
-      <c r="B83" s="16" t="s">
+      <c r="B83" s="14" t="s">
         <v>192</v>
       </c>
       <c r="C83" s="4" t="s">
@@ -3788,7 +3709,7 @@
       </c>
     </row>
     <row r="84" spans="1:12">
-      <c r="B84" s="16" t="s">
+      <c r="B84" s="14" t="s">
         <v>250</v>
       </c>
       <c r="C84" s="4" t="s">
@@ -3799,7 +3720,7 @@
       </c>
     </row>
     <row r="85" spans="1:12">
-      <c r="B85" s="16" t="s">
+      <c r="B85" s="14" t="s">
         <v>241</v>
       </c>
       <c r="C85" s="4" t="s">
@@ -3813,7 +3734,7 @@
       </c>
     </row>
     <row r="86" spans="1:12">
-      <c r="B86" s="17" t="s">
+      <c r="B86" s="15" t="s">
         <v>170</v>
       </c>
       <c r="C86" s="4" t="s">
@@ -3825,7 +3746,7 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="4"/>
-      <c r="B87" s="16" t="s">
+      <c r="B87" s="14" t="s">
         <v>225</v>
       </c>
       <c r="C87" s="4" t="s">
@@ -3845,7 +3766,7 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="4"/>
-      <c r="B88" s="16" t="s">
+      <c r="B88" s="14" t="s">
         <v>234</v>
       </c>
       <c r="C88" s="4" t="s">
@@ -3865,7 +3786,7 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="4"/>
-      <c r="B89" s="16" t="s">
+      <c r="B89" s="14" t="s">
         <v>218</v>
       </c>
       <c r="C89" s="4" t="s">
@@ -3898,10 +3819,10 @@
       <c r="L90" s="4"/>
     </row>
     <row r="91" spans="1:12">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="B91" s="16" t="s">
+      <c r="B91" s="14" t="s">
         <v>109</v>
       </c>
       <c r="C91" s="4" t="s">
@@ -3921,7 +3842,7 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="4"/>
-      <c r="B92" s="17" t="s">
+      <c r="B92" s="15" t="s">
         <v>192</v>
       </c>
       <c r="C92" s="4" t="s">
@@ -3941,7 +3862,7 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="4"/>
-      <c r="B93" s="16" t="s">
+      <c r="B93" s="14" t="s">
         <v>250</v>
       </c>
       <c r="C93" s="4" t="s">
@@ -3950,7 +3871,7 @@
       <c r="D93" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E93" s="14"/>
+      <c r="E93" s="12"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
@@ -3961,7 +3882,7 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="4"/>
-      <c r="B94" s="16" t="s">
+      <c r="B94" s="14" t="s">
         <v>181</v>
       </c>
       <c r="C94" s="4" t="s">
@@ -3981,7 +3902,7 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="4"/>
-      <c r="B95" s="16" t="s">
+      <c r="B95" s="14" t="s">
         <v>149</v>
       </c>
       <c r="C95" s="4" t="s">
@@ -4014,10 +3935,10 @@
       <c r="L96" s="4"/>
     </row>
     <row r="97" spans="1:12">
-      <c r="A97" s="9" t="s">
+      <c r="A97" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B97" s="16" t="s">
+      <c r="B97" s="14" t="s">
         <v>250</v>
       </c>
       <c r="C97" s="4" t="s">
@@ -4037,7 +3958,7 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="4"/>
-      <c r="B98" s="16" t="s">
+      <c r="B98" s="14" t="s">
         <v>148</v>
       </c>
       <c r="C98" s="4" t="s">
@@ -4057,7 +3978,7 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="4"/>
-      <c r="B99" s="16" t="s">
+      <c r="B99" s="14" t="s">
         <v>218</v>
       </c>
       <c r="C99" s="4" t="s">
@@ -4077,7 +3998,7 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="4"/>
-      <c r="B100" s="16" t="s">
+      <c r="B100" s="14" t="s">
         <v>276</v>
       </c>
       <c r="C100" s="4" t="s">
@@ -4087,7 +4008,7 @@
         <v>77</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
@@ -4099,7 +4020,7 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="4"/>
-      <c r="B101" s="16" t="s">
+      <c r="B101" s="14" t="s">
         <v>340</v>
       </c>
       <c r="C101" s="4" t="s">
@@ -4119,7 +4040,7 @@
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="4"/>
-      <c r="B102" s="16" t="s">
+      <c r="B102" s="14" t="s">
         <v>354</v>
       </c>
       <c r="C102" s="4" t="s">
@@ -4141,7 +4062,7 @@
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="4"/>
-      <c r="B103" s="16" t="s">
+      <c r="B103" s="14" t="s">
         <v>199</v>
       </c>
       <c r="C103" s="4" t="s">
@@ -4174,10 +4095,10 @@
       <c r="L104" s="4"/>
     </row>
     <row r="105" spans="1:12">
-      <c r="A105" s="9" t="s">
+      <c r="A105" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B105" s="16" t="s">
+      <c r="B105" s="14" t="s">
         <v>109</v>
       </c>
       <c r="C105" s="4" t="s">
@@ -4197,7 +4118,7 @@
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="4"/>
-      <c r="B106" s="16" t="s">
+      <c r="B106" s="14" t="s">
         <v>151</v>
       </c>
       <c r="C106" s="4" t="s">
@@ -4217,7 +4138,7 @@
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="4"/>
-      <c r="B107" s="16" t="s">
+      <c r="B107" s="14" t="s">
         <v>181</v>
       </c>
       <c r="C107" s="4" t="s">
@@ -4237,7 +4158,7 @@
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="4"/>
-      <c r="B108" s="16" t="s">
+      <c r="B108" s="14" t="s">
         <v>149</v>
       </c>
       <c r="C108" s="4" t="s">
@@ -4270,10 +4191,10 @@
       <c r="L109" s="4"/>
     </row>
     <row r="110" spans="1:12">
-      <c r="A110" s="9" t="s">
+      <c r="A110" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B110" s="16" t="s">
+      <c r="B110" s="14" t="s">
         <v>144</v>
       </c>
       <c r="C110" s="4" t="s">
@@ -4292,7 +4213,7 @@
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="4"/>
-      <c r="B111" s="16" t="s">
+      <c r="B111" s="14" t="s">
         <v>145</v>
       </c>
       <c r="C111" s="4" t="s">
@@ -4311,7 +4232,7 @@
       <c r="L111" s="4"/>
     </row>
     <row r="112" spans="1:12">
-      <c r="B112" s="16" t="s">
+      <c r="B112" s="14" t="s">
         <v>163</v>
       </c>
       <c r="C112" s="4" t="s">
@@ -4325,7 +4246,7 @@
       </c>
     </row>
     <row r="113" spans="1:12">
-      <c r="B113" s="16" t="s">
+      <c r="B113" s="14" t="s">
         <v>134</v>
       </c>
       <c r="C113" s="4" t="s">
@@ -4336,7 +4257,7 @@
       </c>
     </row>
     <row r="114" spans="1:12">
-      <c r="B114" s="16" t="s">
+      <c r="B114" s="14" t="s">
         <v>146</v>
       </c>
       <c r="C114" s="4" t="s">
@@ -4347,7 +4268,7 @@
       </c>
     </row>
     <row r="115" spans="1:12">
-      <c r="B115" s="16" t="s">
+      <c r="B115" s="14" t="s">
         <v>133</v>
       </c>
       <c r="C115" s="4" t="s">
@@ -4358,7 +4279,7 @@
       </c>
     </row>
     <row r="116" spans="1:12">
-      <c r="B116" s="16" t="s">
+      <c r="B116" s="14" t="s">
         <v>165</v>
       </c>
       <c r="C116" s="4" t="s">
@@ -4372,7 +4293,7 @@
       </c>
     </row>
     <row r="117" spans="1:12">
-      <c r="B117" s="16" t="s">
+      <c r="B117" s="14" t="s">
         <v>166</v>
       </c>
       <c r="C117" s="4" t="s">
@@ -4383,7 +4304,7 @@
       </c>
     </row>
     <row r="118" spans="1:12">
-      <c r="B118" s="16" t="s">
+      <c r="B118" s="14" t="s">
         <v>168</v>
       </c>
       <c r="C118" s="4" t="s">
@@ -4394,7 +4315,7 @@
       </c>
     </row>
     <row r="119" spans="1:12">
-      <c r="B119" s="16" t="s">
+      <c r="B119" s="14" t="s">
         <v>170</v>
       </c>
       <c r="C119" s="4" t="s">
@@ -4408,7 +4329,7 @@
       </c>
     </row>
     <row r="120" spans="1:12">
-      <c r="B120" s="16" t="s">
+      <c r="B120" s="14" t="s">
         <v>112</v>
       </c>
       <c r="C120" s="4" t="s">
@@ -4423,10 +4344,10 @@
       <c r="C121" s="4"/>
     </row>
     <row r="122" spans="1:12">
-      <c r="A122" s="9" t="s">
+      <c r="A122" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="B122" s="16" t="s">
+      <c r="B122" s="14" t="s">
         <v>133</v>
       </c>
       <c r="C122" s="4" t="s">
@@ -4437,7 +4358,7 @@
       </c>
     </row>
     <row r="123" spans="1:12">
-      <c r="B123" s="16" t="s">
+      <c r="B123" s="14" t="s">
         <v>144</v>
       </c>
       <c r="C123" s="4" t="s">
@@ -4448,7 +4369,7 @@
       </c>
     </row>
     <row r="124" spans="1:12">
-      <c r="B124" s="16" t="s">
+      <c r="B124" s="14" t="s">
         <v>163</v>
       </c>
       <c r="C124" s="4" t="s">
@@ -4459,7 +4380,7 @@
       </c>
     </row>
     <row r="125" spans="1:12">
-      <c r="B125" s="16" t="s">
+      <c r="B125" s="14" t="s">
         <v>134</v>
       </c>
       <c r="C125" s="4" t="s">
@@ -4474,10 +4395,10 @@
       <c r="C126" s="4"/>
     </row>
     <row r="127" spans="1:12">
-      <c r="A127" s="9" t="s">
+      <c r="A127" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B127" s="16" t="s">
+      <c r="B127" s="14" t="s">
         <v>144</v>
       </c>
       <c r="C127" s="4" t="s">
@@ -4497,7 +4418,7 @@
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="4"/>
-      <c r="B128" s="16" t="s">
+      <c r="B128" s="14" t="s">
         <v>118</v>
       </c>
       <c r="C128" s="4" t="s">
@@ -4517,7 +4438,7 @@
     </row>
     <row r="129" spans="1:12">
       <c r="A129" s="4"/>
-      <c r="B129" s="16" t="s">
+      <c r="B129" s="14" t="s">
         <v>188</v>
       </c>
       <c r="C129" s="4" t="s">
@@ -4537,7 +4458,7 @@
     </row>
     <row r="130" spans="1:12">
       <c r="A130" s="4"/>
-      <c r="B130" s="16" t="s">
+      <c r="B130" s="14" t="s">
         <v>189</v>
       </c>
       <c r="C130" s="4" t="s">
@@ -4557,7 +4478,7 @@
     </row>
     <row r="131" spans="1:12">
       <c r="A131" s="4"/>
-      <c r="B131" s="16" t="s">
+      <c r="B131" s="14" t="s">
         <v>184</v>
       </c>
       <c r="C131" s="4" t="s">
@@ -4580,10 +4501,10 @@
       <c r="C132" s="4"/>
     </row>
     <row r="133" spans="1:12">
-      <c r="A133" s="11" t="s">
+      <c r="A133" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="B133" s="17" t="s">
+      <c r="B133" s="15" t="s">
         <v>277</v>
       </c>
       <c r="C133" s="4" t="s">
@@ -4595,7 +4516,7 @@
     </row>
     <row r="134" spans="1:12">
       <c r="A134" s="4"/>
-      <c r="B134" s="17" t="s">
+      <c r="B134" s="15" t="s">
         <v>157</v>
       </c>
       <c r="C134" s="4" t="s">
@@ -4607,7 +4528,7 @@
     </row>
     <row r="135" spans="1:12">
       <c r="A135" s="4"/>
-      <c r="B135" s="17" t="s">
+      <c r="B135" s="15" t="s">
         <v>159</v>
       </c>
       <c r="C135" s="4" t="s">
@@ -4622,10 +4543,10 @@
       <c r="C136" s="4"/>
     </row>
     <row r="137" spans="1:12">
-      <c r="A137" s="11" t="s">
+      <c r="A137" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="B137" s="17" t="s">
+      <c r="B137" s="15" t="s">
         <v>113</v>
       </c>
       <c r="C137" s="4" t="s">
@@ -4636,7 +4557,7 @@
       </c>
     </row>
     <row r="138" spans="1:12">
-      <c r="B138" s="17" t="s">
+      <c r="B138" s="15" t="s">
         <v>186</v>
       </c>
       <c r="C138" s="4" t="s">
@@ -4647,7 +4568,7 @@
       </c>
     </row>
     <row r="139" spans="1:12">
-      <c r="B139" s="17" t="s">
+      <c r="B139" s="15" t="s">
         <v>191</v>
       </c>
       <c r="C139" s="4" t="s">
@@ -4658,7 +4579,7 @@
       </c>
     </row>
     <row r="140" spans="1:12">
-      <c r="B140" s="17" t="s">
+      <c r="B140" s="15" t="s">
         <v>190</v>
       </c>
       <c r="C140" s="4" t="s">
@@ -4669,10 +4590,10 @@
       </c>
     </row>
     <row r="142" spans="1:12">
-      <c r="A142" s="11" t="s">
+      <c r="A142" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="B142" s="17" t="s">
+      <c r="B142" s="15" t="s">
         <v>175</v>
       </c>
       <c r="C142" s="7" t="s">
@@ -4683,7 +4604,7 @@
       </c>
     </row>
     <row r="143" spans="1:12">
-      <c r="B143" s="16" t="s">
+      <c r="B143" s="14" t="s">
         <v>109</v>
       </c>
       <c r="C143" s="4" t="s">
@@ -4696,7 +4617,7 @@
       <c r="I143" s="4"/>
     </row>
     <row r="144" spans="1:12">
-      <c r="B144" s="17" t="s">
+      <c r="B144" s="15" t="s">
         <v>152</v>
       </c>
       <c r="C144" s="7" t="s">
@@ -4712,7 +4633,7 @@
       <c r="I144" s="4"/>
     </row>
     <row r="145" spans="1:9">
-      <c r="B145" s="16" t="s">
+      <c r="B145" s="14" t="s">
         <v>181</v>
       </c>
       <c r="C145" s="4" t="s">
@@ -4728,7 +4649,7 @@
       <c r="I145" s="4"/>
     </row>
     <row r="146" spans="1:9">
-      <c r="B146" s="17" t="s">
+      <c r="B146" s="15" t="s">
         <v>149</v>
       </c>
       <c r="C146" s="4" t="s">
@@ -4753,10 +4674,10 @@
       <c r="I147" s="4"/>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="9" t="s">
+      <c r="A148" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B148" s="16" t="s">
+      <c r="B148" s="14" t="s">
         <v>109</v>
       </c>
       <c r="C148" s="4" t="s">
@@ -4766,12 +4687,12 @@
         <v>158</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="4"/>
-      <c r="B149" s="17" t="s">
+      <c r="B149" s="15" t="s">
         <v>175</v>
       </c>
       <c r="C149" s="7" t="s">
@@ -4783,7 +4704,7 @@
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="4"/>
-      <c r="B150" s="17" t="s">
+      <c r="B150" s="15" t="s">
         <v>152</v>
       </c>
       <c r="C150" s="4" t="s">
@@ -4810,27 +4731,27 @@
   <dimension ref="A2:J301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.08203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.75" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.58203125" style="1"/>
+    <col min="12" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>96</v>
       </c>
       <c r="C2" s="4"/>
@@ -4839,10 +4760,10 @@
       <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>105</v>
       </c>
       <c r="D3" s="4"/>
@@ -4874,7 +4795,7 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>349</v>
       </c>
       <c r="D8" s="4"/>
@@ -4882,10 +4803,10 @@
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>194</v>
       </c>
       <c r="D9" s="4"/>
@@ -4947,7 +4868,7 @@
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>350</v>
       </c>
       <c r="B15" s="4"/>
@@ -4959,10 +4880,10 @@
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="13" t="s">
         <v>110</v>
       </c>
       <c r="C16" s="4"/>
@@ -4991,7 +4912,7 @@
         <v>73</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -5068,24 +4989,24 @@
       <c r="A27" s="4"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="10" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="13" t="s">
         <v>184</v>
       </c>
     </row>
@@ -5107,24 +5028,24 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="13" t="s">
         <v>184</v>
       </c>
     </row>
@@ -5146,27 +5067,27 @@
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="8" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="E37" s="15" t="s">
+      <c r="E37" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="F37" s="15" t="s">
+      <c r="F37" s="13" t="s">
         <v>184</v>
       </c>
     </row>
@@ -5194,36 +5115,36 @@
       <c r="A39" s="7"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="10" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E41" s="15" t="s">
+      <c r="E41" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="F41" s="15" t="s">
+      <c r="F41" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="G41" s="15" t="s">
+      <c r="G41" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="H41" s="15" t="s">
+      <c r="H41" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="I41" s="15" t="s">
+      <c r="I41" s="13" t="s">
         <v>353</v>
       </c>
       <c r="J41" s="2"/>
@@ -5348,24 +5269,24 @@
       <c r="A46" s="7"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="10" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D48" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="E48" s="15" t="s">
+      <c r="E48" s="13" t="s">
         <v>170</v>
       </c>
     </row>
@@ -5430,27 +5351,27 @@
       <c r="A52" s="7"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="10" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C54" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="D54" s="15" t="s">
+      <c r="D54" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="E54" s="15" t="s">
+      <c r="E54" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="F54" s="15" t="s">
+      <c r="F54" s="13" t="s">
         <v>170</v>
       </c>
     </row>
@@ -5558,34 +5479,34 @@
       <c r="A60" s="7"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="10" t="s">
         <v>174</v>
       </c>
       <c r="G61" s="3"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C62" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="D62" s="15" t="s">
+      <c r="D62" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="E62" s="15" t="s">
+      <c r="E62" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="F62" s="15" t="s">
+      <c r="F62" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="G62" s="15" t="s">
+      <c r="G62" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="H62" s="15" t="s">
+      <c r="H62" s="13" t="s">
         <v>170</v>
       </c>
     </row>
@@ -5850,30 +5771,30 @@
       </c>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="9" t="s">
+      <c r="A74" s="8" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="15" t="s">
+      <c r="A75" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="B75" s="15" t="s">
+      <c r="B75" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C75" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="D75" s="15" t="s">
+      <c r="D75" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="E75" s="15" t="s">
+      <c r="E75" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="F75" s="15" t="s">
+      <c r="F75" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="G75" s="15" t="s">
+      <c r="G75" s="13" t="s">
         <v>317</v>
       </c>
     </row>
@@ -6111,33 +6032,33 @@
       <c r="A86" s="4"/>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="11" t="s">
+      <c r="A87" s="10" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="15" t="s">
+      <c r="A88" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="B88" s="15" t="s">
+      <c r="B88" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="C88" s="15" t="s">
+      <c r="C88" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="D88" s="15" t="s">
+      <c r="D88" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="E88" s="15" t="s">
+      <c r="E88" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="F88" s="15" t="s">
+      <c r="F88" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="G88" s="15" t="s">
+      <c r="G88" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="H88" s="15" t="s">
+      <c r="H88" s="13" t="s">
         <v>235</v>
       </c>
     </row>
@@ -6249,39 +6170,39 @@
       <c r="A93" s="4"/>
     </row>
     <row r="94" spans="1:10">
-      <c r="A94" s="11" t="s">
+      <c r="A94" s="10" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="95" spans="1:10">
-      <c r="A95" s="15" t="s">
+      <c r="A95" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="B95" s="15" t="s">
+      <c r="B95" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="C95" s="15" t="s">
+      <c r="C95" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="D95" s="15" t="s">
+      <c r="D95" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="E95" s="15" t="s">
+      <c r="E95" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="F95" s="15" t="s">
+      <c r="F95" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="G95" s="15" t="s">
+      <c r="G95" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="H95" s="15" t="s">
+      <c r="H95" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="I95" s="15" t="s">
+      <c r="I95" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="J95" s="15" t="s">
+      <c r="J95" s="13" t="s">
         <v>218</v>
       </c>
     </row>
@@ -6641,24 +6562,24 @@
       <c r="A107" s="4"/>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="9" t="s">
+      <c r="A108" s="8" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="109" spans="1:10">
-      <c r="A109" s="15" t="s">
+      <c r="A109" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B109" s="15" t="s">
+      <c r="B109" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="C109" s="15" t="s">
+      <c r="C109" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="D109" s="15" t="s">
+      <c r="D109" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="E109" s="15" t="s">
+      <c r="E109" s="13" t="s">
         <v>149</v>
       </c>
       <c r="I109" s="2"/>
@@ -7025,39 +6946,39 @@
       <c r="A131" s="4"/>
     </row>
     <row r="132" spans="1:10">
-      <c r="A132" s="9" t="s">
+      <c r="A132" s="8" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="133" spans="1:10">
-      <c r="A133" s="15" t="s">
+      <c r="A133" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B133" s="15" t="s">
+      <c r="B133" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="C133" s="15" t="s">
+      <c r="C133" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="D133" s="15" t="s">
+      <c r="D133" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="E133" s="15" t="s">
+      <c r="E133" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="F133" s="15" t="s">
+      <c r="F133" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="G133" s="15" t="s">
+      <c r="G133" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="H133" s="15" t="s">
+      <c r="H133" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="I133" s="15" t="s">
+      <c r="I133" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="J133" s="15" t="s">
+      <c r="J133" s="13" t="s">
         <v>149</v>
       </c>
     </row>
@@ -7257,21 +7178,21 @@
       <c r="A140" s="4"/>
     </row>
     <row r="141" spans="1:10">
-      <c r="A141" s="9" t="s">
+      <c r="A141" s="8" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="142" spans="1:10">
-      <c r="A142" s="15" t="s">
+      <c r="A142" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B142" s="15" t="s">
+      <c r="B142" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C142" s="15" t="s">
+      <c r="C142" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="D142" s="15" t="s">
+      <c r="D142" s="13" t="s">
         <v>149</v>
       </c>
     </row>
@@ -7328,32 +7249,32 @@
       <c r="E146" s="4"/>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="9" t="s">
+      <c r="A147" s="8" t="s">
         <v>154</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="15" t="s">
+      <c r="A148" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="B148" s="15" t="s">
+      <c r="B148" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C148" s="15" t="s">
+      <c r="C148" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="D148" s="15" t="s">
+      <c r="D148" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="E148" s="15" t="s">
+      <c r="E148" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="F148" s="15" t="s">
+      <c r="F148" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="G148" s="15" t="s">
+      <c r="G148" s="13" t="s">
         <v>112</v>
       </c>
     </row>
@@ -7893,7 +7814,7 @@
       <c r="D172" s="7"/>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="9" t="s">
+      <c r="A173" s="8" t="s">
         <v>383</v>
       </c>
       <c r="B173" s="4"/>
@@ -7901,16 +7822,16 @@
       <c r="D173" s="7"/>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="15" t="s">
+      <c r="A174" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="B174" s="15" t="s">
+      <c r="B174" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="C174" s="15" t="s">
+      <c r="C174" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="D174" s="15" t="s">
+      <c r="D174" s="13" t="s">
         <v>134</v>
       </c>
     </row>
@@ -8691,24 +8612,24 @@
       <c r="D230" s="4"/>
     </row>
     <row r="231" spans="1:5">
-      <c r="A231" s="9" t="s">
+      <c r="A231" s="8" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="232" spans="1:5">
-      <c r="A232" s="15" t="s">
+      <c r="A232" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="B232" s="15" t="s">
+      <c r="B232" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C232" s="15" t="s">
+      <c r="C232" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="D232" s="15" t="s">
+      <c r="D232" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="E232" s="15" t="s">
+      <c r="E232" s="13" t="s">
         <v>184</v>
       </c>
     </row>
@@ -9111,18 +9032,18 @@
       <c r="E256" s="4"/>
     </row>
     <row r="257" spans="1:10">
-      <c r="A257" s="11" t="s">
+      <c r="A257" s="10" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="258" spans="1:10">
-      <c r="A258" s="15" t="s">
+      <c r="A258" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="B258" s="15" t="s">
+      <c r="B258" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C258" s="15" t="s">
+      <c r="C258" s="13" t="s">
         <v>159</v>
       </c>
     </row>
@@ -9171,21 +9092,21 @@
       </c>
     </row>
     <row r="264" spans="1:10">
-      <c r="A264" s="11" t="s">
+      <c r="A264" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="265" spans="1:10">
-      <c r="A265" s="15" t="s">
+      <c r="A265" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B265" s="15" t="s">
+      <c r="B265" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="C265" s="15" t="s">
+      <c r="C265" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="D265" s="15" t="s">
+      <c r="D265" s="13" t="s">
         <v>190</v>
       </c>
     </row>
@@ -9361,26 +9282,26 @@
       <c r="J276" s="2"/>
     </row>
     <row r="277" spans="1:10">
-      <c r="A277" s="11" t="s">
+      <c r="A277" s="10" t="s">
         <v>293</v>
       </c>
       <c r="C277" s="4"/>
       <c r="D277" s="7"/>
     </row>
     <row r="278" spans="1:10">
-      <c r="A278" s="15" t="s">
+      <c r="A278" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B278" s="15" t="s">
+      <c r="B278" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="C278" s="15" t="s">
+      <c r="C278" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="D278" s="15" t="s">
+      <c r="D278" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="E278" s="15" t="s">
+      <c r="E278" s="13" t="s">
         <v>149</v>
       </c>
     </row>
@@ -9626,18 +9547,18 @@
       <c r="B293" s="7"/>
     </row>
     <row r="294" spans="1:5">
-      <c r="A294" s="9" t="s">
+      <c r="A294" s="8" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="295" spans="1:5">
-      <c r="A295" s="15" t="s">
+      <c r="A295" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B295" s="15" t="s">
+      <c r="B295" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="C295" s="15" t="s">
+      <c r="C295" s="13" t="s">
         <v>152</v>
       </c>
     </row>
@@ -9717,96 +9638,93 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938946F6-BDA6-473C-A293-30E2F737EEDB}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:J58"/>
+  <dimension ref="A2:J61"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.58203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.58203125" style="1"/>
+    <col min="5" max="5" width="34.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.5" thickBot="1"/>
-    <row r="2" spans="1:10" ht="18" thickTop="1" thickBot="1">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="36" t="s">
         <v>418</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="37" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:10" ht="17.5" thickTop="1">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>477</v>
+      <c r="B3" s="22" t="s">
+        <v>470</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>513</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="F3" s="32"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="23" t="s">
         <v>403</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>106</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>204</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>106</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>143</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>106</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I6" s="7"/>
     </row>
@@ -9814,34 +9732,34 @@
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>477</v>
+      <c r="A8" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>470</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="B9" s="16" t="s">
-        <v>482</v>
+      <c r="B9" s="14" t="s">
+        <v>475</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>106</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>113</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -9857,7 +9775,7 @@
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
         <v>112</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -9873,14 +9791,14 @@
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="14" t="s">
         <v>404</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>439</v>
@@ -9891,14 +9809,14 @@
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="14" t="s">
         <v>262</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -9907,14 +9825,14 @@
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="B14" s="16" t="s">
-        <v>475</v>
+      <c r="B14" s="14" t="s">
+        <v>468</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -9932,477 +9850,471 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="B16" s="28" t="s">
-        <v>477</v>
+      <c r="B16" s="15" t="s">
+        <v>494</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>419</v>
+        <v>108</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>448</v>
+        <v>506</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="B17" s="16" t="s">
-        <v>109</v>
+      <c r="B17" s="22" t="s">
+        <v>470</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>419</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="B18" s="16" t="s">
-        <v>175</v>
+      <c r="B18" s="14" t="s">
+        <v>109</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>419</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="J18" s="4"/>
+        <v>455</v>
+      </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="B19" s="16" t="s">
-        <v>152</v>
+      <c r="B19" s="14" t="s">
+        <v>175</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>419</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="B20" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="B21" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="B22" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="B23" s="2"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="B25" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="B20" s="2"/>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="B21" s="28" t="s">
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="B26" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="B27" s="23" t="s">
+        <v>442</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>443</v>
+      </c>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="B28" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="20" t="s">
         <v>477</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D28" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="B29" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>467</v>
+      </c>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="B30" s="2"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="B32" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="B22" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="B23" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="B24" s="29" t="s">
-        <v>442</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>443</v>
-      </c>
-      <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="B25" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>484</v>
-      </c>
-      <c r="D25" s="26" t="s">
+      <c r="D32" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="J25" s="4"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="B26" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>474</v>
-      </c>
-      <c r="J26" s="4"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="B27" s="2"/>
-      <c r="J27" s="4"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>477</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="J28" s="4"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="B29" s="16" t="s">
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="B33" s="14" t="s">
         <v>144</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="J29" s="4"/>
-    </row>
-    <row r="30" spans="1:10" s="6" customFormat="1">
-      <c r="B30" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="6" customFormat="1">
-      <c r="B31" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>484</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="6" customFormat="1">
-      <c r="B32" s="22"/>
-    </row>
-    <row r="33" spans="1:5" s="6" customFormat="1">
-      <c r="A33" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>477</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>419</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="6" customFormat="1">
-      <c r="A34" s="1"/>
-      <c r="B34" s="16" t="s">
-        <v>109</v>
+        <v>459</v>
+      </c>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:10" s="6" customFormat="1">
+      <c r="B34" s="14" t="s">
+        <v>414</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="6" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="6" customFormat="1">
+      <c r="B35" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="6" customFormat="1">
+      <c r="B36" s="18"/>
+    </row>
+    <row r="37" spans="1:10" s="6" customFormat="1">
+      <c r="A37" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="B37" s="35" t="s">
+        <v>494</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="6" customFormat="1">
+      <c r="B38" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="6" customFormat="1">
+      <c r="A39" s="1"/>
+      <c r="B39" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="6" customFormat="1">
+      <c r="B40" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="6" customFormat="1">
-      <c r="B35" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="C35" s="1" t="s">
+    <row r="41" spans="1:10" s="6" customFormat="1">
+      <c r="B41" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="6" customFormat="1">
-      <c r="B36" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="B37" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>484</v>
-      </c>
-      <c r="D37" s="1" t="s">
+    <row r="42" spans="1:10">
+      <c r="B42" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="B43" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="B38" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>484</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="E43" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="B46" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="B49" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="B40" s="28" t="s">
-        <v>477</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="B41" s="28" t="s">
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="16"/>
+      <c r="B50" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="B51" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="20"/>
+      <c r="B54" s="23" t="s">
+        <v>470</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="20"/>
+      <c r="B55" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="B43" s="28" t="s">
-        <v>477</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="B44" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="20"/>
-      <c r="B45" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="C55" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="20"/>
+      <c r="B56" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="B46" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="30" t="s">
-        <v>445</v>
-      </c>
-      <c r="B48" s="29" t="s">
-        <v>477</v>
-      </c>
-      <c r="C48" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="26"/>
-      <c r="B49" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="C49" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="26"/>
-      <c r="B50" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="C50" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="26"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="30" t="s">
-        <v>446</v>
-      </c>
-      <c r="B52" s="29" t="s">
-        <v>477</v>
-      </c>
-      <c r="C52" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="26"/>
-      <c r="B53" s="31" t="s">
-        <v>237</v>
-      </c>
-      <c r="C53" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="26"/>
-      <c r="B54" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="C54" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="26"/>
-      <c r="B55" s="31" t="s">
-        <v>228</v>
-      </c>
-      <c r="C55" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="26"/>
-      <c r="B56" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="C56" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>471</v>
+      <c r="E56" s="1" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="26"/>
-      <c r="B57" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="C57" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>472</v>
-      </c>
+      <c r="A57" s="20"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="26"/>
-      <c r="B58" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="C58" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>473</v>
+      <c r="A58" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="10" t="s">
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -10415,46 +10327,46 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94272C64-D2EF-471C-8877-7B2C51858195}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.58203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.08203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.58203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.08203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.58203125" style="1"/>
+    <col min="6" max="6" width="18.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>407</v>
       </c>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="27" t="s">
-        <v>477</v>
-      </c>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="13" t="s">
         <v>143</v>
       </c>
       <c r="I3" s="4"/>
@@ -10478,32 +10390,32 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="11" t="s">
-        <v>481</v>
+      <c r="A6" s="10" t="s">
+        <v>474</v>
       </c>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="27" t="s">
-        <v>477</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>483</v>
-      </c>
-      <c r="C7" s="21" t="s">
+      <c r="A7" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>475</v>
+      <c r="G7" s="13" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -10530,38 +10442,38 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="35" t="s">
-        <v>501</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>477</v>
-      </c>
-      <c r="C11" s="15" t="s">
+      <c r="A11" s="34" t="s">
+        <v>494</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="34" t="s">
         <v>441</v>
       </c>
-      <c r="G11" s="35" t="s">
-        <v>507</v>
+      <c r="G11" s="34" t="s">
+        <v>500</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="29" t="s">
         <v>72</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -10576,18 +10488,18 @@
       <c r="E12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="35" t="s">
+      <c r="G12" s="29" t="s">
         <v>72</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="29" t="s">
         <v>294</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -10602,18 +10514,18 @@
       <c r="E13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F13" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="35" t="s">
+      <c r="G13" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="26" t="s">
-        <v>509</v>
+      <c r="H13" s="20" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="29" t="s">
         <v>253</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -10628,15 +10540,15 @@
       <c r="E14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="35" t="s">
-        <v>510</v>
-      </c>
-      <c r="G14" s="35" t="s">
+      <c r="F14" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="G14" s="29" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="29" t="s">
         <v>254</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -10651,15 +10563,15 @@
       <c r="E15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="35" t="s">
-        <v>510</v>
-      </c>
-      <c r="G15" s="35" t="s">
+      <c r="F15" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="G15" s="29" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="29" t="s">
         <v>255</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -10674,15 +10586,15 @@
       <c r="E16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="35" t="s">
-        <v>510</v>
-      </c>
-      <c r="G16" s="35" t="s">
+      <c r="F16" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="G16" s="29" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="29" t="s">
         <v>256</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -10697,16 +10609,16 @@
       <c r="E17" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="35" t="s">
-        <v>510</v>
-      </c>
-      <c r="G17" s="35" t="s">
+      <c r="F17" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="G17" s="29" t="s">
         <v>72</v>
       </c>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="29" t="s">
         <v>257</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -10721,16 +10633,16 @@
       <c r="E18" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="35" t="s">
+      <c r="F18" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="35" t="s">
+      <c r="G18" s="29" t="s">
         <v>72</v>
       </c>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="29" t="s">
         <v>258</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -10745,16 +10657,16 @@
       <c r="E19" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="35" t="s">
+      <c r="F19" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="35" t="s">
+      <c r="G19" s="29" t="s">
         <v>59</v>
       </c>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="29" t="s">
         <v>260</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -10769,16 +10681,16 @@
       <c r="E20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="35" t="s">
-        <v>510</v>
-      </c>
-      <c r="G20" s="35" t="s">
+      <c r="F20" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="G20" s="29" t="s">
         <v>72</v>
       </c>
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="29" t="s">
         <v>269</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -10793,16 +10705,16 @@
       <c r="E21" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F21" s="35" t="s">
-        <v>510</v>
-      </c>
-      <c r="G21" s="35" t="s">
+      <c r="F21" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="G21" s="29" t="s">
         <v>59</v>
       </c>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="29" t="s">
         <v>275</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -10817,16 +10729,16 @@
       <c r="E22" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="35" t="s">
-        <v>510</v>
-      </c>
-      <c r="G22" s="35" t="s">
+      <c r="F22" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="G22" s="29" t="s">
         <v>72</v>
       </c>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="29" t="s">
         <v>279</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -10841,10 +10753,10 @@
       <c r="E23" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F23" s="35" t="s">
-        <v>510</v>
-      </c>
-      <c r="G23" s="35" t="s">
+      <c r="F23" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="G23" s="29" t="s">
         <v>59</v>
       </c>
       <c r="J23" s="4"/>
@@ -10859,23 +10771,23 @@
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="27" t="s">
-        <v>477</v>
-      </c>
-      <c r="B26" s="15" t="s">
+      <c r="A26" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>488</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>489</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>490</v>
+      <c r="C26" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>483</v>
       </c>
       <c r="J26" s="4"/>
     </row>
@@ -10893,7 +10805,7 @@
         <v>326</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>72</v>
@@ -10919,23 +10831,23 @@
       <c r="K29" s="7"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="36" t="s">
-        <v>501</v>
-      </c>
-      <c r="B30" s="27" t="s">
-        <v>477</v>
-      </c>
-      <c r="C30" s="15" t="s">
+      <c r="A30" s="30" t="s">
+        <v>494</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="13" t="s">
         <v>414</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="F30" s="26" t="s">
-        <v>505</v>
+      <c r="F30" s="20" t="s">
+        <v>498</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="4"/>
@@ -10943,137 +10855,137 @@
       <c r="K30" s="7"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="35" t="s">
+      <c r="A31" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="D31" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="35" t="s">
-        <v>486</v>
+      <c r="E31" s="29" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="29" t="s">
         <v>294</v>
       </c>
-      <c r="B32" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="35" t="s">
+      <c r="B32" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="D32" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="35" t="s">
-        <v>486</v>
+      <c r="E32" s="29" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="B33" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="35" t="s">
+      <c r="B33" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="29" t="s">
         <v>413</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="D33" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="E33" s="35" t="s">
-        <v>486</v>
+      <c r="E33" s="29" t="s">
+        <v>479</v>
       </c>
       <c r="H33" s="7"/>
-      <c r="I33" s="33"/>
+      <c r="I33" s="27"/>
       <c r="J33" s="4"/>
       <c r="K33" s="7"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="B34" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" s="35" t="s">
+      <c r="B34" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="D34" s="35" t="s">
+      <c r="D34" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="35" t="s">
-        <v>486</v>
+      <c r="E34" s="29" t="s">
+        <v>479</v>
       </c>
       <c r="H34" s="7"/>
-      <c r="I34" s="33"/>
+      <c r="I34" s="27"/>
       <c r="J34" s="4"/>
       <c r="K34" s="7"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="B35" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="35" t="s">
+      <c r="B35" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="29" t="s">
         <v>413</v>
       </c>
-      <c r="D35" s="35" t="s">
-        <v>502</v>
-      </c>
-      <c r="E35" s="35" t="s">
-        <v>503</v>
+      <c r="D35" s="29" t="s">
+        <v>495</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>496</v>
       </c>
       <c r="H35" s="7"/>
-      <c r="I35" s="33"/>
+      <c r="I35" s="27"/>
       <c r="J35" s="4"/>
       <c r="K35" s="7"/>
     </row>
     <row r="36" spans="1:11" s="6" customFormat="1">
-      <c r="H36" s="34"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="10" t="s">
         <v>408</v>
       </c>
       <c r="H37" s="7"/>
-      <c r="I37" s="33"/>
+      <c r="I37" s="27"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="35" t="s">
-        <v>501</v>
-      </c>
-      <c r="B38" s="27" t="s">
-        <v>477</v>
-      </c>
-      <c r="C38" s="15" t="s">
+      <c r="A38" s="29" t="s">
+        <v>494</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="E38" s="15" t="s">
+      <c r="E38" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="F38" s="15" t="s">
-        <v>485</v>
-      </c>
-      <c r="G38" s="15" t="s">
+      <c r="F38" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="G38" s="13" t="s">
         <v>405</v>
       </c>
       <c r="H38" s="7"/>
@@ -11082,7 +10994,7 @@
       <c r="K38" s="7"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="35" t="s">
+      <c r="A39" s="29" t="s">
         <v>72</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -11098,10 +11010,10 @@
         <v>415</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -11109,7 +11021,7 @@
       <c r="K39" s="7"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="35" t="s">
+      <c r="A40" s="29" t="s">
         <v>294</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -11125,10 +11037,10 @@
         <v>44</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
@@ -11136,7 +11048,7 @@
       <c r="K40" s="7"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="29" t="s">
         <v>253</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -11152,10 +11064,10 @@
         <v>72</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
@@ -11163,7 +11075,7 @@
       <c r="K41" s="7"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="35" t="s">
+      <c r="A42" s="29" t="s">
         <v>254</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -11179,10 +11091,10 @@
         <v>72</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
@@ -11190,7 +11102,7 @@
       <c r="K42" s="7"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="35" t="s">
+      <c r="A43" s="29" t="s">
         <v>255</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -11206,10 +11118,10 @@
         <v>72</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
@@ -11217,7 +11129,7 @@
       <c r="K43" s="7"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="35" t="s">
+      <c r="A44" s="29" t="s">
         <v>256</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -11233,14 +11145,14 @@
         <v>72</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="35" t="s">
+      <c r="A45" s="29" t="s">
         <v>257</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -11256,14 +11168,14 @@
         <v>72</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="35" t="s">
+      <c r="A46" s="29" t="s">
         <v>258</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -11279,14 +11191,14 @@
         <v>72</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="35" t="s">
+      <c r="A47" s="29" t="s">
         <v>260</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -11302,22 +11214,22 @@
         <v>72</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="10" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="27" t="s">
-        <v>477</v>
-      </c>
-      <c r="B50" s="27" t="s">
+      <c r="A50" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="B50" s="21" t="s">
         <v>144</v>
       </c>
     </row>
@@ -11351,16 +11263,16 @@
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="27" t="s">
-        <v>477</v>
-      </c>
-      <c r="B56" s="15" t="s">
+      <c r="A56" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="B56" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="13" t="s">
         <v>409</v>
       </c>
-      <c r="D56" s="15" t="s">
+      <c r="D56" s="13" t="s">
         <v>410</v>
       </c>
     </row>
@@ -11379,83 +11291,94 @@
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="20"/>
+      <c r="A58" s="16"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="30" t="s">
+      <c r="A59" s="24" t="s">
         <v>445</v>
       </c>
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="35" t="s">
-        <v>501</v>
-      </c>
-      <c r="B60" s="32" t="s">
-        <v>477</v>
-      </c>
-      <c r="C60" s="32" t="s">
+      <c r="A60" s="34" t="s">
+        <v>494</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="C60" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="D60" s="32" t="s">
+      <c r="D60" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="F60" s="26"/>
+      <c r="F60" s="20"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="37" t="s">
+      <c r="A61" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B61" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="C61" s="26" t="s">
+      <c r="B61" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="20" t="s">
         <v>413</v>
       </c>
-      <c r="D61" s="26" t="s">
-        <v>480</v>
-      </c>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
+      <c r="D61" s="20" t="s">
+        <v>473</v>
+      </c>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="37" t="s">
+      <c r="A62" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B62" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="C62" s="26" t="s">
+      <c r="B62" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="20" t="s">
         <v>413</v>
       </c>
-      <c r="D62" s="26" t="s">
+      <c r="D62" s="20" t="s">
+        <v>497</v>
+      </c>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="20"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="29" t="s">
         <v>504</v>
       </c>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="26"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26"/>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="35" t="s">
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="33"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="29" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="39"/>
-      <c r="B65" s="39"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
+    <row r="68" spans="1:4">
+      <c r="A68" s="33"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/docs/우럭아왜우럭 데이터 설계.xlsx
+++ b/docs/우럭아왜우럭 데이터 설계.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\UrukGame\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51092592-D394-4929-B49E-B34968D6C83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B91ADA-0520-4691-8372-5F36BDBEF182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{EF12513C-7545-404A-BD8A-71B5E4507A34}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2275" uniqueCount="522">
   <si>
     <t>얕은 연안</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1983,10 +1983,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;&lt;어종이라고 같은 가격으로 묶는 것이 아니라, 크기에 따라 가격이 다르므로 구분이 필요. 잡은 물고기마다 번호를 붙이기로 결정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;&lt;같은 장비가 여러 개 일 수도 있다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2035,6 +2031,49 @@
   </si>
   <si>
     <t>ranking</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>week_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold_sum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매 총액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex) 20220403 &lt;&lt; 22년 4월 3주차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수조에 있는 물고기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish_num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물고기num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20220403</t>
+  </si>
+  <si>
+    <t>1300</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2199,7 +2238,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2295,9 +2334,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2308,6 +2344,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2629,7 +2671,7 @@
   <dimension ref="A1:L151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -2650,19 +2692,19 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="36" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4730,7 +4772,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A2:J301"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -9638,10 +9680,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938946F6-BDA6-473C-A293-30E2F737EEDB}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A2:J61"/>
+  <dimension ref="A2:J66"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -9658,19 +9700,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="35" t="s">
         <v>418</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="36" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="7"/>
@@ -9860,7 +9902,7 @@
         <v>108</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -9923,13 +9965,13 @@
     </row>
     <row r="22" spans="1:10">
       <c r="B22" s="14" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J22" s="4"/>
     </row>
@@ -9951,7 +9993,7 @@
         <v>447</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J24" s="4"/>
     </row>
@@ -10030,7 +10072,7 @@
         <v>108</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J31" s="4"/>
     </row>
@@ -10087,14 +10129,14 @@
       <c r="A37" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="34" t="s">
         <v>494</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>108</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="6" customFormat="1">
@@ -10260,7 +10302,7 @@
         <v>108</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -10277,14 +10319,17 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="20"/>
-      <c r="B55" s="25" t="s">
-        <v>144</v>
+      <c r="B55" s="37" t="s">
+        <v>518</v>
       </c>
       <c r="C55" s="20" t="s">
         <v>108</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>459</v>
+        <v>519</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -10309,12 +10354,99 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="10" t="s">
-        <v>504</v>
+        <v>503</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="B59" s="23" t="s">
+        <v>470</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="B60" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="10" t="s">
+      <c r="B61" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="B62" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="B64" s="15" t="s">
         <v>511</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4">
+      <c r="B65" s="23" t="s">
+        <v>470</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="B66" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -10327,10 +10459,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94272C64-D2EF-471C-8877-7B2C51858195}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:K68"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -10338,10 +10470,9 @@
     <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.25" style="1" customWidth="1"/>
+    <col min="4" max="5" width="19.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.25" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.625" style="1"/>
@@ -10447,7 +10578,7 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="33" t="s">
         <v>494</v>
       </c>
       <c r="B11" s="21" t="s">
@@ -10462,14 +10593,14 @@
       <c r="E11" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="33" t="s">
         <v>441</v>
       </c>
-      <c r="G11" s="34" t="s">
-        <v>500</v>
+      <c r="G11" s="33" t="s">
+        <v>499</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -10495,7 +10626,7 @@
         <v>72</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -10521,7 +10652,7 @@
         <v>59</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -10541,7 +10672,7 @@
         <v>72</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G14" s="29" t="s">
         <v>59</v>
@@ -10564,7 +10695,7 @@
         <v>72</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G15" s="29" t="s">
         <v>72</v>
@@ -10587,7 +10718,7 @@
         <v>72</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G16" s="29" t="s">
         <v>59</v>
@@ -10610,7 +10741,7 @@
         <v>72</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G17" s="29" t="s">
         <v>72</v>
@@ -10682,7 +10813,7 @@
         <v>72</v>
       </c>
       <c r="F20" s="29" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G20" s="29" t="s">
         <v>72</v>
@@ -10706,7 +10837,7 @@
         <v>72</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G21" s="29" t="s">
         <v>59</v>
@@ -10730,7 +10861,7 @@
         <v>72</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G22" s="29" t="s">
         <v>72</v>
@@ -10754,7 +10885,7 @@
         <v>72</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G23" s="29" t="s">
         <v>59</v>
@@ -10846,9 +10977,7 @@
       <c r="E30" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="F30" s="20" t="s">
-        <v>498</v>
-      </c>
+      <c r="F30" s="20"/>
       <c r="H30" s="7"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -11304,14 +11433,14 @@
       <c r="F59" s="20"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="34" t="s">
+      <c r="A60" s="33" t="s">
         <v>494</v>
       </c>
       <c r="B60" s="26" t="s">
         <v>470</v>
       </c>
-      <c r="C60" s="26" t="s">
-        <v>144</v>
+      <c r="C60" s="38" t="s">
+        <v>518</v>
       </c>
       <c r="D60" s="26" t="s">
         <v>170</v>
@@ -11360,25 +11489,103 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="29" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="33"/>
-      <c r="B65" s="33"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="33"/>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="29" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="B65" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="29" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="13" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="33"/>
-      <c r="B68" s="33"/>
-      <c r="C68" s="33"/>
-      <c r="D68" s="33"/>
+      <c r="B71" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>521</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/docs/우럭아왜우럭 데이터 설계.xlsx
+++ b/docs/우럭아왜우럭 데이터 설계.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\UrukGame\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B91ADA-0520-4691-8372-5F36BDBEF182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F54D78-8D85-48E2-BE3F-B19A24FC9B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{EF12513C-7545-404A-BD8A-71B5E4507A34}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{EF12513C-7545-404A-BD8A-71B5E4507A34}"/>
   </bookViews>
   <sheets>
     <sheet name="기획데이터_스키마" sheetId="6" r:id="rId1"/>
     <sheet name="기획데이터" sheetId="3" r:id="rId2"/>
     <sheet name="게임데이터_스키마" sheetId="7" r:id="rId3"/>
-    <sheet name="게임데이터" sheetId="8" r:id="rId4"/>
+    <sheet name="게임데이터(예시)" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2275" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2286" uniqueCount="528">
   <si>
     <t>얕은 연안</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1867,23 +1868,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">내구도나 연료 둥 중에 한가지가 0이 되면 강제로 입항된다. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>골드로 구매가 가능하다.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>user_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1963,10 +1947,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>선착장도 필요할듯?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>num</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1983,22 +1963,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;&lt;같은 장비가 여러 개 일 수도 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>is_equipped</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;&lt;현재 장착중인지 여부</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;&lt;낚싯대와 릴의 내구도를 표현해야함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>null</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2007,9 +1975,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>배의 좌표는 필요 없나?</t>
-  </si>
-  <si>
     <t>인벤토리id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2074,6 +2039,53 @@
   </si>
   <si>
     <t>1300</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실시간 배의 좌표를 표현할 position을 넣을까</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_inventory_space</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">int </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 인벤토리 공간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내구도나 연료 둥 중에 한가지가 0이 되면 강제로 입항된다. 골드로 구매가 가능하다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>auc_num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail_num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tank_num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inv_num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt; 여기에 있는게 맞나?.?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2157,7 +2169,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2179,18 +2191,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2238,7 +2238,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2322,19 +2322,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -2346,10 +2334,7 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2668,23 +2653,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C65EAE9-73A4-4A3E-8CE4-D533E6E7E9AC}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:L151"/>
+  <dimension ref="A1:L152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="20.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="64.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.625" style="7"/>
+    <col min="2" max="2" width="26.58203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.58203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.08203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.08203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.58203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.58203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2692,19 +2677,19 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="32" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3051,9 +3036,6 @@
       </c>
       <c r="D31" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -4049,8 +4031,8 @@
       <c r="D100" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>469</v>
+      <c r="E100" s="20" t="s">
+        <v>520</v>
       </c>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
@@ -4631,58 +4613,53 @@
         <v>187</v>
       </c>
     </row>
-    <row r="142" spans="1:12">
-      <c r="A142" s="10" t="s">
+    <row r="141" spans="1:12">
+      <c r="B141" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="B142" s="15" t="s">
+      <c r="B143" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="C142" s="7" t="s">
+      <c r="C143" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D142" s="4" t="s">
+      <c r="D143" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="143" spans="1:12">
-      <c r="B143" s="14" t="s">
+    <row r="144" spans="1:12">
+      <c r="B144" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C143" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D143" s="4" t="s">
+      <c r="C144" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D144" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="H143" s="4"/>
-      <c r="I143" s="4"/>
-    </row>
-    <row r="144" spans="1:12">
-      <c r="B144" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="C144" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E144" s="4"/>
-      <c r="F144" s="4"/>
-      <c r="G144" s="4"/>
       <c r="H144" s="4"/>
       <c r="I144" s="4"/>
     </row>
     <row r="145" spans="1:9">
-      <c r="B145" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="C145" s="4" t="s">
+      <c r="B145" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C145" s="7" t="s">
         <v>108</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
@@ -4691,14 +4668,14 @@
       <c r="I145" s="4"/>
     </row>
     <row r="146" spans="1:9">
-      <c r="B146" s="15" t="s">
-        <v>149</v>
+      <c r="B146" s="14" t="s">
+        <v>181</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D146" s="7" t="s">
-        <v>95</v>
+      <c r="D146" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
@@ -4707,8 +4684,15 @@
       <c r="I146" s="4"/>
     </row>
     <row r="147" spans="1:9">
-      <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
+      <c r="B147" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>95</v>
+      </c>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
@@ -4716,49 +4700,58 @@
       <c r="I147" s="4"/>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="8" t="s">
+      <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="4"/>
+      <c r="H148" s="4"/>
+      <c r="I148" s="4"/>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B148" s="14" t="s">
+      <c r="B149" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C148" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D148" s="4" t="s">
+      <c r="C149" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D149" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E148" s="7" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
-      <c r="A149" s="4"/>
-      <c r="B149" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="C149" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D149" s="4" t="s">
-        <v>180</v>
+      <c r="E149" s="7" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="4"/>
       <c r="B150" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D150" s="7" t="s">
-        <v>153</v>
+        <v>175</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="4"/>
-      <c r="C151" s="4"/>
+      <c r="B151" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="4"/>
+      <c r="C152" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4772,24 +4765,24 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A2:J301"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.08203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.75" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.625" style="1"/>
+    <col min="12" max="16384" width="8.58203125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
@@ -9149,6 +9142,9 @@
         <v>191</v>
       </c>
       <c r="D265" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="E265" s="13" t="s">
         <v>190</v>
       </c>
     </row>
@@ -9163,6 +9159,9 @@
         <v>42</v>
       </c>
       <c r="D266" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E266" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -9177,6 +9176,9 @@
         <v>41</v>
       </c>
       <c r="D267" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E267" s="1" t="s">
         <v>359</v>
       </c>
     </row>
@@ -9191,6 +9193,9 @@
         <v>82</v>
       </c>
       <c r="D268" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E268" s="1" t="s">
         <v>363</v>
       </c>
     </row>
@@ -9205,6 +9210,9 @@
         <v>47</v>
       </c>
       <c r="D269" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E269" s="1" t="s">
         <v>364</v>
       </c>
     </row>
@@ -9219,6 +9227,9 @@
         <v>83</v>
       </c>
       <c r="D270" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E270" s="1" t="s">
         <v>305</v>
       </c>
     </row>
@@ -9233,6 +9244,9 @@
         <v>48</v>
       </c>
       <c r="D271" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E271" s="1" t="s">
         <v>365</v>
       </c>
     </row>
@@ -9246,10 +9260,12 @@
       <c r="C272" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D272" s="2" t="s">
+      <c r="D272" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E272" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="E272" s="2"/>
       <c r="H272" s="2"/>
       <c r="I272" s="2"/>
       <c r="J272" s="2"/>
@@ -9264,10 +9280,12 @@
       <c r="C273" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D273" s="2" t="s">
+      <c r="D273" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E273" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="E273" s="2"/>
       <c r="F273" s="2"/>
       <c r="G273" s="2"/>
       <c r="H273" s="2"/>
@@ -9284,10 +9302,12 @@
       <c r="C274" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D274" s="2" t="s">
+      <c r="D274" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E274" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E274" s="2"/>
       <c r="F274" s="2"/>
       <c r="G274" s="2"/>
       <c r="H274" s="2"/>
@@ -9304,10 +9324,12 @@
       <c r="C275" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D275" s="2" t="s">
+      <c r="D275" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E275" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="E275" s="2"/>
       <c r="F275" s="2"/>
       <c r="G275" s="2"/>
       <c r="H275" s="2"/>
@@ -9457,7 +9479,7 @@
         <v>72</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>72</v>
@@ -9474,7 +9496,7 @@
         <v>73</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>72</v>
@@ -9491,7 +9513,7 @@
         <v>44</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>72</v>
@@ -9683,36 +9705,36 @@
   <dimension ref="A2:J66"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.625" style="1"/>
+    <col min="5" max="5" width="34.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.58203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.58203125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="31" t="s">
         <v>418</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="7"/>
@@ -9722,7 +9744,7 @@
         <v>407</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>108</v>
@@ -9730,7 +9752,7 @@
       <c r="D3" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="F3" s="32"/>
+      <c r="F3" s="29"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
@@ -9775,10 +9797,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>108</v>
@@ -9790,7 +9812,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="14" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>106</v>
@@ -9896,18 +9918,18 @@
         <v>406</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>494</v>
+        <v>526</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="B17" s="22" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>419</v>
@@ -9961,17 +9983,20 @@
       <c r="D21" s="1" t="s">
         <v>444</v>
       </c>
+      <c r="E21" s="1" t="s">
+        <v>527</v>
+      </c>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10">
       <c r="B22" s="14" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="J22" s="4"/>
     </row>
@@ -9984,7 +10009,7 @@
         <v>289</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>419</v>
@@ -9992,8 +10017,8 @@
       <c r="D24" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>504</v>
+      <c r="E24" t="s">
+        <v>516</v>
       </c>
       <c r="J24" s="4"/>
     </row>
@@ -10038,7 +10063,7 @@
         <v>140</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D28" s="20" t="s">
         <v>446</v>
@@ -10066,19 +10091,19 @@
         <v>411</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>494</v>
+        <v>525</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:10">
       <c r="B32" s="22" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>419</v>
@@ -10116,7 +10141,7 @@
         <v>412</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>461</v>
@@ -10129,19 +10154,19 @@
       <c r="A37" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="B37" s="34" t="s">
-        <v>494</v>
+      <c r="B37" s="30" t="s">
+        <v>524</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>108</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="6" customFormat="1">
       <c r="B38" s="22" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>419</v>
@@ -10186,10 +10211,10 @@
     </row>
     <row r="42" spans="1:10">
       <c r="B42" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>462</v>
@@ -10200,7 +10225,7 @@
         <v>405</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>463</v>
@@ -10217,7 +10242,7 @@
         <v>417</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>108</v>
@@ -10237,7 +10262,7 @@
         <v>459</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -10248,7 +10273,7 @@
         <v>422</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>108</v>
@@ -10296,19 +10321,19 @@
         <v>445</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>494</v>
+        <v>522</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="20"/>
       <c r="B54" s="23" t="s">
-        <v>470</v>
+        <v>521</v>
       </c>
       <c r="C54" s="20" t="s">
         <v>108</v>
@@ -10319,17 +10344,17 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="20"/>
-      <c r="B55" s="37" t="s">
-        <v>518</v>
+      <c r="B55" s="25" t="s">
+        <v>512</v>
       </c>
       <c r="C55" s="20" t="s">
         <v>108</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -10344,7 +10369,7 @@
         <v>466</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -10354,21 +10379,21 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="10" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>494</v>
+        <v>523</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="B59" s="23" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>108</v>
@@ -10412,41 +10437,41 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="10" t="s">
-        <v>510</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>511</v>
+        <v>504</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>469</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4">
-      <c r="B65" s="23" t="s">
-        <v>470</v>
+        <v>447</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" s="15" t="s">
+        <v>506</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5">
       <c r="B66" s="15" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>513</v>
+        <v>508</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -10461,21 +10486,21 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.58203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.08203125" style="1" customWidth="1"/>
     <col min="4" max="5" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.58203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.625" style="1"/>
+    <col min="8" max="8" width="11.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.58203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -10489,7 +10514,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="21" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>114</v>
@@ -10522,16 +10547,16 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="21" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>113</v>
@@ -10578,11 +10603,11 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="33" t="s">
-        <v>494</v>
+      <c r="A11" s="13" t="s">
+        <v>492</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>109</v>
@@ -10593,301 +10618,293 @@
       <c r="E11" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="13" t="s">
         <v>441</v>
       </c>
-      <c r="G11" s="33" t="s">
-        <v>499</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>498</v>
+      <c r="G11" s="13" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="A12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="29" t="s">
+      <c r="D12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>500</v>
+      <c r="G12" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="29" t="s">
+      <c r="E13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="20" t="s">
-        <v>501</v>
-      </c>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>502</v>
-      </c>
-      <c r="G14" s="29" t="s">
+      <c r="D14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>502</v>
-      </c>
-      <c r="G15" s="29" t="s">
+      <c r="E15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>502</v>
-      </c>
-      <c r="G16" s="29" t="s">
+      <c r="D16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>502</v>
-      </c>
-      <c r="G17" s="29" t="s">
+      <c r="E17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>72</v>
       </c>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="29" t="s">
+      <c r="D18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="7" t="s">
         <v>72</v>
       </c>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="29" t="s">
+      <c r="E19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="7" t="s">
         <v>59</v>
       </c>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>502</v>
-      </c>
-      <c r="G20" s="29" t="s">
+      <c r="D20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>72</v>
       </c>
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>502</v>
-      </c>
-      <c r="G21" s="29" t="s">
+      <c r="E21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>59</v>
       </c>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>502</v>
-      </c>
-      <c r="G22" s="29" t="s">
+      <c r="D22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>72</v>
       </c>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>502</v>
-      </c>
-      <c r="G23" s="29" t="s">
+      <c r="E23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>59</v>
       </c>
       <c r="J23" s="4"/>
@@ -10903,22 +10920,22 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="21" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>171</v>
       </c>
       <c r="C26" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="E26" s="13" t="s">
         <v>481</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="F26" s="13" t="s">
         <v>482</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>483</v>
       </c>
       <c r="J26" s="4"/>
     </row>
@@ -10936,7 +10953,7 @@
         <v>326</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>72</v>
@@ -10962,11 +10979,11 @@
       <c r="K29" s="7"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="30" t="s">
-        <v>494</v>
+      <c r="A30" s="21" t="s">
+        <v>525</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>144</v>
@@ -10984,97 +11001,107 @@
       <c r="K30" s="7"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="29" t="s">
+      <c r="A31" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="29" t="s">
-        <v>479</v>
-      </c>
+      <c r="E31" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B32" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="29" t="s">
+      <c r="B32" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="D32" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="29" t="s">
-        <v>479</v>
-      </c>
+      <c r="E32" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B33" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="29" t="s">
+      <c r="B33" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="D33" s="29" t="s">
+      <c r="D33" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E33" s="29" t="s">
-        <v>479</v>
-      </c>
+      <c r="E33" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="27"/>
       <c r="J33" s="4"/>
       <c r="K33" s="7"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B34" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" s="29" t="s">
+      <c r="B34" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="D34" s="29" t="s">
+      <c r="D34" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="29" t="s">
-        <v>479</v>
-      </c>
+      <c r="E34" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="27"/>
       <c r="J34" s="4"/>
       <c r="K34" s="7"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B35" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="29" t="s">
+      <c r="B35" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="D35" s="29" t="s">
-        <v>495</v>
-      </c>
-      <c r="E35" s="29" t="s">
-        <v>496</v>
-      </c>
+      <c r="D35" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="27"/>
       <c r="J35" s="4"/>
@@ -11096,11 +11123,11 @@
       <c r="K37" s="7"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="29" t="s">
-        <v>494</v>
+      <c r="A38" s="13" t="s">
+        <v>524</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>109</v>
@@ -11112,7 +11139,7 @@
         <v>152</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G38" s="13" t="s">
         <v>405</v>
@@ -11123,10 +11150,10 @@
       <c r="K38" s="7"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39" s="1" t="s">
+      <c r="A39" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -11139,10 +11166,10 @@
         <v>415</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -11150,10 +11177,10 @@
       <c r="K39" s="7"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -11166,10 +11193,10 @@
         <v>44</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
@@ -11177,10 +11204,10 @@
       <c r="K40" s="7"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -11193,10 +11220,10 @@
         <v>72</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
@@ -11204,10 +11231,10 @@
       <c r="K41" s="7"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -11220,10 +11247,10 @@
         <v>72</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
@@ -11231,10 +11258,10 @@
       <c r="K42" s="7"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -11247,10 +11274,10 @@
         <v>72</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
@@ -11258,10 +11285,10 @@
       <c r="K43" s="7"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -11274,17 +11301,17 @@
         <v>72</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -11297,17 +11324,17 @@
         <v>72</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -11320,17 +11347,17 @@
         <v>72</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -11343,11 +11370,15 @@
         <v>72</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>491</v>
-      </c>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="10" t="s">
@@ -11356,7 +11387,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="21" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B50" s="21" t="s">
         <v>144</v>
@@ -11387,13 +11418,13 @@
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="10" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="21" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B56" s="13" t="s">
         <v>416</v>
@@ -11433,14 +11464,14 @@
       <c r="F59" s="20"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="33" t="s">
-        <v>494</v>
+      <c r="A60" s="13" t="s">
+        <v>492</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>470</v>
-      </c>
-      <c r="C60" s="38" t="s">
-        <v>518</v>
+        <v>469</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>512</v>
       </c>
       <c r="D60" s="26" t="s">
         <v>170</v>
@@ -11448,7 +11479,7 @@
       <c r="F60" s="20"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="31" t="s">
+      <c r="A61" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B61" s="20" t="s">
@@ -11458,13 +11489,13 @@
         <v>413</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E61" s="20"/>
       <c r="F61" s="20"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="31" t="s">
+      <c r="A62" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B62" s="20" t="s">
@@ -11474,13 +11505,13 @@
         <v>413</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E62" s="20"/>
       <c r="F62" s="20"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="20"/>
+      <c r="A63" s="33"/>
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
       <c r="D63" s="20"/>
@@ -11488,16 +11519,16 @@
       <c r="F63" s="20"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="29" t="s">
-        <v>503</v>
+      <c r="A64" s="10" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="13" t="s">
-        <v>494</v>
+        <v>523</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>109</v>
@@ -11561,30 +11592,30 @@
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="29" t="s">
-        <v>510</v>
+      <c r="A70" s="10" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="13" t="s">
-        <v>511</v>
+        <v>469</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>470</v>
+        <v>505</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1" t="s">
-        <v>520</v>
+        <v>72</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>72</v>
+        <v>514</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>

--- a/docs/우럭아왜우럭 데이터 설계.xlsx
+++ b/docs/우럭아왜우럭 데이터 설계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\UrukGame\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F54D78-8D85-48E2-BE3F-B19A24FC9B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB0AA1C-C8FA-4E47-A1BC-76D938921B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{EF12513C-7545-404A-BD8A-71B5E4507A34}"/>
+    <workbookView xWindow="3120" yWindow="1350" windowWidth="21600" windowHeight="11265" activeTab="2" xr2:uid="{EF12513C-7545-404A-BD8A-71B5E4507A34}"/>
   </bookViews>
   <sheets>
     <sheet name="기획데이터_스키마" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="게임데이터(예시)" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2286" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2286" uniqueCount="530">
   <si>
     <t>얕은 연안</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1947,10 +1946,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>num</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>33</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2027,14 +2022,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fish_num</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>물고기num</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>20220403</t>
   </si>
   <si>
@@ -2065,27 +2052,42 @@
     <t>user_id</t>
   </si>
   <si>
-    <t>auc_num</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_num</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mail_num</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tank_num</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>inv_num</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt; 여기에 있는게 맞나?.?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>auc_id</t>
+  </si>
+  <si>
+    <t>auc_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_id</t>
+  </si>
+  <si>
+    <t>shop_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tank_id</t>
+  </si>
+  <si>
+    <t>tank_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail_id</t>
+  </si>
+  <si>
+    <t>mail_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inv_id</t>
+  </si>
+  <si>
+    <t>inv_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2655,21 +2657,21 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="20.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.58203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.58203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="64.08203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.08203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.58203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.58203125" style="7"/>
+    <col min="2" max="2" width="26.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -4032,7 +4034,7 @@
         <v>77</v>
       </c>
       <c r="E100" s="20" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
@@ -4615,13 +4617,13 @@
     </row>
     <row r="141" spans="1:12">
       <c r="B141" s="15" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -4769,20 +4771,20 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.08203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.75" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.58203125" style="1"/>
+    <col min="12" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
@@ -9142,7 +9144,7 @@
         <v>191</v>
       </c>
       <c r="D265" s="13" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E265" s="13" t="s">
         <v>190</v>
@@ -9704,21 +9706,21 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A2:J66"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.58203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.58203125" style="1"/>
+    <col min="5" max="5" width="34.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
@@ -9918,13 +9920,13 @@
         <v>406</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -9984,19 +9986,19 @@
         <v>444</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10">
       <c r="B22" s="14" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J22" s="4"/>
     </row>
@@ -10018,7 +10020,7 @@
         <v>447</v>
       </c>
       <c r="E24" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="J24" s="4"/>
     </row>
@@ -10091,13 +10093,13 @@
         <v>411</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J31" s="4"/>
     </row>
@@ -10155,13 +10157,13 @@
         <v>408</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>108</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="6" customFormat="1">
@@ -10321,19 +10323,19 @@
         <v>445</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="20"/>
       <c r="B54" s="23" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C54" s="20" t="s">
         <v>108</v>
@@ -10345,16 +10347,16 @@
     <row r="55" spans="1:5">
       <c r="A55" s="20"/>
       <c r="B55" s="25" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="C55" s="20" t="s">
         <v>108</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -10379,16 +10381,16 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -10437,7 +10439,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B64" s="23" t="s">
         <v>469</v>
@@ -10451,27 +10453,27 @@
     </row>
     <row r="65" spans="2:5">
       <c r="B65" s="15" t="s">
+        <v>505</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>506</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="66" spans="2:5">
       <c r="B66" s="15" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D66" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -10486,21 +10488,21 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.58203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.08203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
     <col min="4" max="5" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.58203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.58203125" style="1"/>
+    <col min="8" max="8" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -10604,7 +10606,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="13" t="s">
-        <v>492</v>
+        <v>529</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>469</v>
@@ -10622,7 +10624,7 @@
         <v>441</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -10689,7 +10691,7 @@
         <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>59</v>
@@ -10712,7 +10714,7 @@
         <v>72</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>72</v>
@@ -10735,7 +10737,7 @@
         <v>72</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>59</v>
@@ -10758,7 +10760,7 @@
         <v>72</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>72</v>
@@ -10830,7 +10832,7 @@
         <v>72</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>72</v>
@@ -10854,7 +10856,7 @@
         <v>72</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>59</v>
@@ -10878,7 +10880,7 @@
         <v>72</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>72</v>
@@ -10902,7 +10904,7 @@
         <v>72</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>59</v>
@@ -11095,10 +11097,10 @@
         <v>413</v>
       </c>
       <c r="D35" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>493</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>494</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
@@ -11124,7 +11126,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="13" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B38" s="21" t="s">
         <v>469</v>
@@ -11465,13 +11467,13 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="13" t="s">
-        <v>492</v>
+        <v>521</v>
       </c>
       <c r="B60" s="26" t="s">
         <v>469</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="D60" s="26" t="s">
         <v>170</v>
@@ -11480,13 +11482,13 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="20" t="s">
         <v>44</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>413</v>
       </c>
       <c r="D61" s="20" t="s">
         <v>472</v>
@@ -11496,16 +11498,16 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B62" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>413</v>
-      </c>
       <c r="D62" s="20" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E62" s="20"/>
       <c r="F62" s="20"/>
@@ -11520,7 +11522,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -11593,7 +11595,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -11601,10 +11603,10 @@
         <v>469</v>
       </c>
       <c r="B71" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="C71" s="13" t="s">
         <v>505</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -11612,10 +11614,10 @@
         <v>72</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>

--- a/docs/우럭아왜우럭 데이터 설계.xlsx
+++ b/docs/우럭아왜우럭 데이터 설계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\바탕 화면\jinha\우럭아왜우럭\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B576B8-4684-41FF-AADB-6901E67341F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8CAB18-1700-4C6B-BED9-C518A0D0F132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{EF12513C-7545-404A-BD8A-71B5E4507A34}"/>
+    <workbookView xWindow="30" yWindow="210" windowWidth="28770" windowHeight="15300" activeTab="3" xr2:uid="{EF12513C-7545-404A-BD8A-71B5E4507A34}"/>
   </bookViews>
   <sheets>
     <sheet name="기획데이터_스키마" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2321" uniqueCount="539">
   <si>
     <t>얕은 연안</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1471,10 +1471,6 @@
   </si>
   <si>
     <t>125</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>need_item_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2134,7 +2130,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2712,24 +2708,24 @@
       <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="20.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.58203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.58203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="64.08203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.08203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.58203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.58203125" style="7"/>
+    <col min="2" max="2" width="26.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9">
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9">
       <c r="A2" s="31" t="s">
         <v>101</v>
       </c>
@@ -2746,7 +2742,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9">
       <c r="A3" s="8" t="s">
         <v>96</v>
       </c>
@@ -2761,7 +2757,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9">
       <c r="A4" s="4"/>
       <c r="B4" s="14" t="s">
         <v>105</v>
@@ -2774,13 +2770,13 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9">
       <c r="A6" s="10" t="s">
         <v>348</v>
       </c>
@@ -2798,7 +2794,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9">
       <c r="B7" s="14" t="s">
         <v>193</v>
       </c>
@@ -2814,13 +2810,13 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9">
       <c r="A9" s="9" t="s">
         <v>349</v>
       </c>
@@ -2834,7 +2830,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9">
       <c r="B10" s="14" t="s">
         <v>110</v>
       </c>
@@ -2845,11 +2841,11 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9">
       <c r="B11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9">
       <c r="A12" s="10" t="s">
         <v>97</v>
       </c>
@@ -2863,7 +2859,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9">
       <c r="A13" s="4"/>
       <c r="B13" s="14" t="s">
         <v>116</v>
@@ -2875,10 +2871,10 @@
         <v>56</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="4"/>
       <c r="B14" s="14" t="s">
         <v>117</v>
@@ -2890,10 +2886,10 @@
         <v>57</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="4"/>
       <c r="B15" s="14" t="s">
         <v>118</v>
@@ -2906,7 +2902,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9">
       <c r="A16" s="4"/>
       <c r="B16" s="14" t="s">
         <v>183</v>
@@ -2919,13 +2915,13 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5">
       <c r="A18" s="10" t="s">
         <v>98</v>
       </c>
@@ -2940,7 +2936,7 @@
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5">
       <c r="B19" s="15" t="s">
         <v>122</v>
       </c>
@@ -2951,10 +2947,10 @@
         <v>123</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="B20" s="15" t="s">
         <v>126</v>
       </c>
@@ -2966,7 +2962,7 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5">
       <c r="B21" s="15" t="s">
         <v>118</v>
       </c>
@@ -2978,7 +2974,7 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5">
       <c r="B22" s="15" t="s">
         <v>183</v>
       </c>
@@ -2990,12 +2986,12 @@
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5">
       <c r="A24" s="8" t="s">
         <v>99</v>
       </c>
@@ -3010,7 +3006,7 @@
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5">
       <c r="B25" s="15" t="s">
         <v>130</v>
       </c>
@@ -3022,7 +3018,7 @@
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5">
       <c r="B26" s="15" t="s">
         <v>131</v>
       </c>
@@ -3033,10 +3029,10 @@
         <v>54</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="B27" s="15" t="s">
         <v>202</v>
       </c>
@@ -3048,7 +3044,7 @@
       </c>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5">
       <c r="B28" s="15" t="s">
         <v>201</v>
       </c>
@@ -3060,7 +3056,7 @@
       </c>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5">
       <c r="B29" s="15" t="s">
         <v>183</v>
       </c>
@@ -3072,12 +3068,12 @@
       </c>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5">
       <c r="A31" s="10" t="s">
         <v>100</v>
       </c>
@@ -3091,7 +3087,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5">
       <c r="B32" s="15" t="s">
         <v>350</v>
       </c>
@@ -3102,7 +3098,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10">
       <c r="B33" s="15" t="s">
         <v>134</v>
       </c>
@@ -3113,7 +3109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:10">
       <c r="B34" s="15" t="s">
         <v>135</v>
       </c>
@@ -3124,7 +3120,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:10">
       <c r="B35" s="15" t="s">
         <v>136</v>
       </c>
@@ -3135,7 +3131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:10">
       <c r="B36" s="15" t="s">
         <v>139</v>
       </c>
@@ -3146,7 +3142,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:10">
       <c r="B37" s="15" t="s">
         <v>140</v>
       </c>
@@ -3157,7 +3153,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10">
       <c r="A38" s="4"/>
       <c r="B38" s="15" t="s">
         <v>351</v>
@@ -3171,7 +3167,7 @@
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10">
       <c r="A39" s="4"/>
       <c r="B39" s="15" t="s">
         <v>352</v>
@@ -3185,7 +3181,7 @@
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -3193,7 +3189,7 @@
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:10">
       <c r="A41" s="10" t="s">
         <v>241</v>
       </c>
@@ -3209,7 +3205,7 @@
       <c r="F41" s="4"/>
       <c r="J41" s="4"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:10">
       <c r="B42" s="15" t="s">
         <v>287</v>
       </c>
@@ -3220,7 +3216,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10">
       <c r="B43" s="15" t="s">
         <v>109</v>
       </c>
@@ -3232,7 +3228,7 @@
       </c>
       <c r="E43" s="11"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10">
       <c r="B44" s="15" t="s">
         <v>246</v>
       </c>
@@ -3243,11 +3239,11 @@
         <v>245</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F44" s="11"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10">
       <c r="B45" s="15" t="s">
         <v>170</v>
       </c>
@@ -3260,13 +3256,13 @@
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10">
       <c r="A47" s="10" t="s">
         <v>204</v>
       </c>
@@ -3283,7 +3279,7 @@
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:10">
       <c r="B48" s="15" t="s">
         <v>207</v>
       </c>
@@ -3294,7 +3290,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="B49" s="15" t="s">
         <v>109</v>
       </c>
@@ -3308,7 +3304,7 @@
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="B50" s="15" t="s">
         <v>192</v>
       </c>
@@ -3322,7 +3318,7 @@
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="B51" s="15" t="s">
         <v>210</v>
       </c>
@@ -3336,7 +3332,7 @@
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="B52" s="15" t="s">
         <v>170</v>
       </c>
@@ -3350,14 +3346,14 @@
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="10" t="s">
         <v>173</v>
       </c>
@@ -3374,7 +3370,7 @@
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="B55" s="15" t="s">
         <v>213</v>
       </c>
@@ -3388,7 +3384,7 @@
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:9">
       <c r="A56" s="4"/>
       <c r="B56" s="15" t="s">
         <v>109</v>
@@ -3400,7 +3396,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" s="4"/>
       <c r="B57" s="15" t="s">
         <v>192</v>
@@ -3415,7 +3411,7 @@
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" s="4"/>
       <c r="B58" s="14" t="s">
         <v>216</v>
@@ -3427,12 +3423,12 @@
         <v>71</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" s="4"/>
       <c r="B59" s="14" t="s">
         <v>217</v>
@@ -3447,7 +3443,7 @@
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" s="4"/>
       <c r="B60" s="15" t="s">
         <v>215</v>
@@ -3459,12 +3455,12 @@
         <v>74</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" s="4"/>
       <c r="B61" s="15" t="s">
         <v>170</v>
@@ -3479,7 +3475,7 @@
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -3487,7 +3483,7 @@
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" s="8" t="s">
         <v>220</v>
       </c>
@@ -3504,7 +3500,7 @@
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" s="4"/>
       <c r="B64" s="15" t="s">
         <v>273</v>
@@ -3519,7 +3515,7 @@
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10">
       <c r="A65" s="4"/>
       <c r="B65" s="15" t="s">
         <v>109</v>
@@ -3534,7 +3530,7 @@
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10">
       <c r="A66" s="4"/>
       <c r="B66" s="14" t="s">
         <v>216</v>
@@ -3548,7 +3544,7 @@
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10">
       <c r="A67" s="4"/>
       <c r="B67" s="15" t="s">
         <v>170</v>
@@ -3563,7 +3559,7 @@
       <c r="H67" s="11"/>
       <c r="I67" s="11"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10">
       <c r="A68" s="4"/>
       <c r="B68" s="14" t="s">
         <v>224</v>
@@ -3578,7 +3574,7 @@
       <c r="H68" s="11"/>
       <c r="I68" s="11"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10">
       <c r="A69" s="4"/>
       <c r="B69" s="15" t="s">
         <v>225</v>
@@ -3593,7 +3589,7 @@
       <c r="H69" s="11"/>
       <c r="I69" s="11"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -3601,7 +3597,7 @@
       <c r="H70" s="11"/>
       <c r="I70" s="11"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10">
       <c r="A71" s="10" t="s">
         <v>226</v>
       </c>
@@ -3620,7 +3616,7 @@
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:10">
       <c r="B72" s="15" t="s">
         <v>230</v>
       </c>
@@ -3632,7 +3628,7 @@
       </c>
       <c r="J72" s="4"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10">
       <c r="A73" s="4"/>
       <c r="B73" s="15" t="s">
         <v>109</v>
@@ -3649,7 +3645,7 @@
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10">
       <c r="A74" s="4"/>
       <c r="B74" s="14" t="s">
         <v>216</v>
@@ -3665,7 +3661,7 @@
       <c r="G74" s="11"/>
       <c r="J74" s="4"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10">
       <c r="A75" s="4"/>
       <c r="B75" s="15" t="s">
         <v>170</v>
@@ -3682,7 +3678,7 @@
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10">
       <c r="A76" s="4"/>
       <c r="B76" s="14" t="s">
         <v>224</v>
@@ -3698,7 +3694,7 @@
       <c r="G76" s="11"/>
       <c r="I76" s="4"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10">
       <c r="A77" s="4"/>
       <c r="B77" s="15" t="s">
         <v>233</v>
@@ -3714,7 +3710,7 @@
       <c r="G77" s="11"/>
       <c r="I77" s="4"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10">
       <c r="A78" s="4"/>
       <c r="B78" s="15" t="s">
         <v>234</v>
@@ -3730,7 +3726,7 @@
       <c r="G78" s="11"/>
       <c r="I78" s="4"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -3738,7 +3734,7 @@
       <c r="F79" s="11"/>
       <c r="G79" s="11"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:10">
       <c r="A80" s="10" t="s">
         <v>235</v>
       </c>
@@ -3752,7 +3748,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:12">
       <c r="B81" s="15" t="s">
         <v>239</v>
       </c>
@@ -3763,7 +3759,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:12">
       <c r="B82" s="15" t="s">
         <v>109</v>
       </c>
@@ -3774,7 +3770,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:12">
       <c r="B83" s="14" t="s">
         <v>191</v>
       </c>
@@ -3785,7 +3781,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:12">
       <c r="B84" s="14" t="s">
         <v>249</v>
       </c>
@@ -3796,7 +3792,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:12">
       <c r="B85" s="14" t="s">
         <v>240</v>
       </c>
@@ -3807,10 +3803,10 @@
         <v>64</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="B86" s="15" t="s">
         <v>170</v>
       </c>
@@ -3821,7 +3817,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:12">
       <c r="A87" s="4"/>
       <c r="B87" s="14" t="s">
         <v>224</v>
@@ -3841,7 +3837,7 @@
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:12">
       <c r="A88" s="4"/>
       <c r="B88" s="14" t="s">
         <v>233</v>
@@ -3861,7 +3857,7 @@
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:12">
       <c r="A89" s="4"/>
       <c r="B89" s="14" t="s">
         <v>217</v>
@@ -3881,7 +3877,7 @@
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:12">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -3895,7 +3891,7 @@
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:12">
       <c r="A91" s="8" t="s">
         <v>247</v>
       </c>
@@ -3917,7 +3913,7 @@
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:12">
       <c r="A92" s="4"/>
       <c r="B92" s="15" t="s">
         <v>191</v>
@@ -3937,7 +3933,7 @@
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:12">
       <c r="A93" s="4"/>
       <c r="B93" s="14" t="s">
         <v>249</v>
@@ -3957,7 +3953,7 @@
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:12">
       <c r="A94" s="4"/>
       <c r="B94" s="14" t="s">
         <v>180</v>
@@ -3977,7 +3973,7 @@
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:12">
       <c r="A95" s="4"/>
       <c r="B95" s="14" t="s">
         <v>149</v>
@@ -3997,7 +3993,7 @@
       <c r="K95" s="4"/>
       <c r="L95" s="4"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:12">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -4011,7 +4007,7 @@
       <c r="K96" s="4"/>
       <c r="L96" s="4"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:12">
       <c r="A97" s="8" t="s">
         <v>248</v>
       </c>
@@ -4033,7 +4029,7 @@
       <c r="K97" s="4"/>
       <c r="L97" s="4"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:12">
       <c r="A98" s="4"/>
       <c r="B98" s="14" t="s">
         <v>148</v>
@@ -4053,7 +4049,7 @@
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:12">
       <c r="A99" s="4"/>
       <c r="B99" s="14" t="s">
         <v>217</v>
@@ -4073,7 +4069,7 @@
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:12">
       <c r="A100" s="4"/>
       <c r="B100" s="14" t="s">
         <v>275</v>
@@ -4085,7 +4081,7 @@
         <v>77</v>
       </c>
       <c r="E100" s="20" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
@@ -4095,7 +4091,7 @@
       <c r="K100" s="4"/>
       <c r="L100" s="4"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:12">
       <c r="A101" s="4"/>
       <c r="B101" s="14" t="s">
         <v>339</v>
@@ -4115,7 +4111,7 @@
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:12">
       <c r="A102" s="4"/>
       <c r="B102" s="14" t="s">
         <v>353</v>
@@ -4137,7 +4133,7 @@
       <c r="K102" s="4"/>
       <c r="L102" s="4"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:12">
       <c r="A103" s="4"/>
       <c r="B103" s="14" t="s">
         <v>198</v>
@@ -4157,7 +4153,7 @@
       <c r="K103" s="4"/>
       <c r="L103" s="4"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:12">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -4171,7 +4167,7 @@
       <c r="K104" s="4"/>
       <c r="L104" s="4"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:12">
       <c r="A105" s="8" t="s">
         <v>150</v>
       </c>
@@ -4193,7 +4189,7 @@
       <c r="K105" s="4"/>
       <c r="L105" s="4"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:12">
       <c r="A106" s="4"/>
       <c r="B106" s="14" t="s">
         <v>151</v>
@@ -4213,7 +4209,7 @@
       <c r="K106" s="4"/>
       <c r="L106" s="4"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:12">
       <c r="A107" s="4"/>
       <c r="B107" s="14" t="s">
         <v>180</v>
@@ -4233,7 +4229,7 @@
       <c r="K107" s="4"/>
       <c r="L107" s="4"/>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:12">
       <c r="A108" s="4"/>
       <c r="B108" s="14" t="s">
         <v>149</v>
@@ -4253,7 +4249,7 @@
       <c r="K108" s="4"/>
       <c r="L108" s="4"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:12">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -4267,7 +4263,7 @@
       <c r="K109" s="4"/>
       <c r="L109" s="4"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:12">
       <c r="A110" s="8" t="s">
         <v>154</v>
       </c>
@@ -4288,7 +4284,7 @@
       <c r="K110" s="4"/>
       <c r="L110" s="4"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:12">
       <c r="A111" s="4"/>
       <c r="B111" s="14" t="s">
         <v>145</v>
@@ -4308,7 +4304,7 @@
       <c r="K111" s="4"/>
       <c r="L111" s="4"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:12">
       <c r="B112" s="14" t="s">
         <v>163</v>
       </c>
@@ -4319,10 +4315,10 @@
         <v>156</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
       <c r="B113" s="14" t="s">
         <v>134</v>
       </c>
@@ -4333,7 +4329,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:12">
       <c r="B114" s="14" t="s">
         <v>146</v>
       </c>
@@ -4344,7 +4340,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:12">
       <c r="B115" s="14" t="s">
         <v>133</v>
       </c>
@@ -4355,7 +4351,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:12">
       <c r="B116" s="14" t="s">
         <v>165</v>
       </c>
@@ -4366,10 +4362,10 @@
         <v>164</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
       <c r="B117" s="14" t="s">
         <v>166</v>
       </c>
@@ -4380,7 +4376,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:12">
       <c r="B118" s="14" t="s">
         <v>168</v>
       </c>
@@ -4391,7 +4387,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:12">
       <c r="B119" s="14" t="s">
         <v>170</v>
       </c>
@@ -4402,10 +4398,10 @@
         <v>169</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
       <c r="B120" s="14" t="s">
         <v>112</v>
       </c>
@@ -4416,13 +4412,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:12">
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:12">
       <c r="A122" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B122" s="14" t="s">
         <v>133</v>
@@ -4431,10 +4427,10 @@
         <v>108</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.45">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
       <c r="B123" s="14" t="s">
         <v>144</v>
       </c>
@@ -4445,7 +4441,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:12">
       <c r="B124" s="14" t="s">
         <v>163</v>
       </c>
@@ -4456,7 +4452,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:12">
       <c r="B125" s="14" t="s">
         <v>134</v>
       </c>
@@ -4467,11 +4463,11 @@
         <v>162</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:12">
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:12">
       <c r="A127" s="8" t="s">
         <v>177</v>
       </c>
@@ -4493,7 +4489,7 @@
       <c r="K127" s="4"/>
       <c r="L127" s="4"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:12">
       <c r="A128" s="4"/>
       <c r="B128" s="14" t="s">
         <v>118</v>
@@ -4513,7 +4509,7 @@
       <c r="K128" s="4"/>
       <c r="L128" s="4"/>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:12">
       <c r="A129" s="4"/>
       <c r="B129" s="14" t="s">
         <v>187</v>
@@ -4533,7 +4529,7 @@
       <c r="K129" s="4"/>
       <c r="L129" s="4"/>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:12">
       <c r="A130" s="4"/>
       <c r="B130" s="14" t="s">
         <v>188</v>
@@ -4553,7 +4549,7 @@
       <c r="K130" s="4"/>
       <c r="L130" s="4"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:12">
       <c r="A131" s="4"/>
       <c r="B131" s="14" t="s">
         <v>183</v>
@@ -4573,11 +4569,11 @@
       <c r="K131" s="4"/>
       <c r="L131" s="4"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:12">
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:12">
       <c r="A133" s="10" t="s">
         <v>277</v>
       </c>
@@ -4591,7 +4587,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:12">
       <c r="A134" s="4"/>
       <c r="B134" s="15" t="s">
         <v>157</v>
@@ -4603,7 +4599,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:12">
       <c r="A135" s="4"/>
       <c r="B135" s="15" t="s">
         <v>159</v>
@@ -4615,11 +4611,11 @@
         <v>161</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:12">
       <c r="A136" s="4"/>
       <c r="C136" s="4"/>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:12">
       <c r="A137" s="10" t="s">
         <v>184</v>
       </c>
@@ -4633,7 +4629,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:12">
       <c r="B138" s="15" t="s">
         <v>185</v>
       </c>
@@ -4644,7 +4640,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:12">
       <c r="B139" s="15" t="s">
         <v>190</v>
       </c>
@@ -4655,7 +4651,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:12">
       <c r="B140" s="15" t="s">
         <v>189</v>
       </c>
@@ -4666,18 +4662,18 @@
         <v>186</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:12">
       <c r="B141" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="C141" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="D141" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="D141" s="4" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="143" spans="1:12">
       <c r="A143" s="10" t="s">
         <v>292</v>
       </c>
@@ -4691,7 +4687,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:12">
       <c r="B144" s="14" t="s">
         <v>109</v>
       </c>
@@ -4704,7 +4700,7 @@
       <c r="H144" s="4"/>
       <c r="I144" s="4"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:9">
       <c r="B145" s="15" t="s">
         <v>152</v>
       </c>
@@ -4720,7 +4716,7 @@
       <c r="H145" s="4"/>
       <c r="I145" s="4"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:9">
       <c r="B146" s="14" t="s">
         <v>180</v>
       </c>
@@ -4736,7 +4732,7 @@
       <c r="H146" s="4"/>
       <c r="I146" s="4"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:9">
       <c r="B147" s="15" t="s">
         <v>149</v>
       </c>
@@ -4752,7 +4748,7 @@
       <c r="H147" s="4"/>
       <c r="I147" s="4"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:9">
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
@@ -4761,9 +4757,9 @@
       <c r="H148" s="4"/>
       <c r="I148" s="4"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:9">
       <c r="A149" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B149" s="14" t="s">
         <v>109</v>
@@ -4775,10 +4771,10 @@
         <v>158</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.45">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="4"/>
       <c r="B150" s="15" t="s">
         <v>174</v>
@@ -4790,7 +4786,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:9">
       <c r="A151" s="4"/>
       <c r="B151" s="15" t="s">
         <v>152</v>
@@ -4802,7 +4798,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:9">
       <c r="A152" s="4"/>
       <c r="C152" s="4"/>
     </row>
@@ -4818,27 +4814,27 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A2:J310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="C154" sqref="C154"/>
+    <sheetView topLeftCell="A277" workbookViewId="0">
+      <selection activeCell="D287" sqref="D287"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.08203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.75" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.58203125" style="1"/>
+    <col min="12" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8">
       <c r="A2" s="8" t="s">
         <v>96</v>
       </c>
@@ -4847,7 +4843,7 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8">
       <c r="A3" s="13" t="s">
         <v>250</v>
       </c>
@@ -4858,7 +4854,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
@@ -4866,7 +4862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>73</v>
       </c>
@@ -4874,7 +4870,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -4882,7 +4878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8">
       <c r="A8" s="10" t="s">
         <v>348</v>
       </c>
@@ -4890,7 +4886,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8">
       <c r="A9" s="13" t="s">
         <v>192</v>
       </c>
@@ -4901,7 +4897,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
         <v>59</v>
       </c>
@@ -4912,7 +4908,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8">
       <c r="A11" s="4" t="s">
         <v>72</v>
       </c>
@@ -4923,7 +4919,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
         <v>73</v>
       </c>
@@ -4934,18 +4930,18 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8">
       <c r="A13" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -4955,7 +4951,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8">
       <c r="A15" s="9" t="s">
         <v>349</v>
       </c>
@@ -4967,7 +4963,7 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8">
       <c r="A16" s="13" t="s">
         <v>109</v>
       </c>
@@ -4981,7 +4977,7 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8">
       <c r="A17" s="7" t="s">
         <v>72</v>
       </c>
@@ -4995,12 +4991,12 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8">
       <c r="A18" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -5009,7 +5005,7 @@
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8">
       <c r="A19" s="7" t="s">
         <v>252</v>
       </c>
@@ -5017,7 +5013,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8">
       <c r="A20" s="4" t="s">
         <v>253</v>
       </c>
@@ -5025,7 +5021,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8">
       <c r="A21" s="7" t="s">
         <v>254</v>
       </c>
@@ -5033,7 +5029,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8">
       <c r="A22" s="4" t="s">
         <v>255</v>
       </c>
@@ -5041,7 +5037,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
         <v>256</v>
       </c>
@@ -5049,7 +5045,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8">
       <c r="A24" s="4" t="s">
         <v>257</v>
       </c>
@@ -5057,7 +5053,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8">
       <c r="A25" s="4" t="s">
         <v>81</v>
       </c>
@@ -5065,7 +5061,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8">
       <c r="A26" s="4" t="s">
         <v>42</v>
       </c>
@@ -5073,15 +5069,15 @@
         <v>288</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8">
       <c r="A27" s="4"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8">
       <c r="A28" s="10" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8">
       <c r="A29" s="13" t="s">
         <v>115</v>
       </c>
@@ -5098,7 +5094,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
         <v>43</v>
       </c>
@@ -5115,12 +5111,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8">
       <c r="A32" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10">
       <c r="A33" s="13" t="s">
         <v>121</v>
       </c>
@@ -5137,7 +5133,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
         <v>41</v>
       </c>
@@ -5154,12 +5150,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:10">
       <c r="A36" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:10">
       <c r="A37" s="13" t="s">
         <v>129</v>
       </c>
@@ -5179,7 +5175,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -5199,15 +5195,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:10">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:10">
       <c r="A40" s="10" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:10">
       <c r="A41" s="13" t="s">
         <v>133</v>
       </c>
@@ -5237,7 +5233,7 @@
       </c>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
         <v>72</v>
       </c>
@@ -5266,7 +5262,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
         <v>73</v>
       </c>
@@ -5295,7 +5291,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:10">
       <c r="A44" s="7" t="s">
         <v>44</v>
       </c>
@@ -5324,7 +5320,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:10">
       <c r="A45" s="7" t="s">
         <v>66</v>
       </c>
@@ -5353,15 +5349,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:10">
       <c r="A46" s="7"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:10">
       <c r="A47" s="10" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:10">
       <c r="A48" s="13" t="s">
         <v>242</v>
       </c>
@@ -5378,7 +5374,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8">
       <c r="A49" s="4" t="s">
         <v>72</v>
       </c>
@@ -5397,7 +5393,7 @@
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8">
       <c r="A50" s="4" t="s">
         <v>73</v>
       </c>
@@ -5416,7 +5412,7 @@
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8">
       <c r="A51" s="4" t="s">
         <v>44</v>
       </c>
@@ -5435,15 +5431,15 @@
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8">
       <c r="A53" s="10" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8">
       <c r="A54" s="13" t="s">
         <v>205</v>
       </c>
@@ -5463,7 +5459,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8">
       <c r="A55" s="7" t="s">
         <v>72</v>
       </c>
@@ -5483,7 +5479,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8">
       <c r="A56" s="7" t="s">
         <v>73</v>
       </c>
@@ -5503,7 +5499,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8">
       <c r="A57" s="7" t="s">
         <v>44</v>
       </c>
@@ -5523,12 +5519,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8">
       <c r="A58" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>67</v>
@@ -5543,12 +5539,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8">
       <c r="A59" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>67</v>
@@ -5563,16 +5559,16 @@
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8">
       <c r="A60" s="7"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8">
       <c r="A61" s="10" t="s">
         <v>173</v>
       </c>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8">
       <c r="A62" s="13" t="s">
         <v>211</v>
       </c>
@@ -5598,7 +5594,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8">
       <c r="A63" s="4" t="s">
         <v>72</v>
       </c>
@@ -5624,7 +5620,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8">
       <c r="A64" s="4" t="s">
         <v>293</v>
       </c>
@@ -5650,7 +5646,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:8">
       <c r="A65" s="4" t="s">
         <v>252</v>
       </c>
@@ -5676,7 +5672,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:8">
       <c r="A66" s="4" t="s">
         <v>253</v>
       </c>
@@ -5702,7 +5698,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8">
       <c r="A67" s="4" t="s">
         <v>254</v>
       </c>
@@ -5728,7 +5724,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8">
       <c r="A68" s="4" t="s">
         <v>255</v>
       </c>
@@ -5754,7 +5750,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8">
       <c r="A69" s="4" t="s">
         <v>256</v>
       </c>
@@ -5780,7 +5776,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8">
       <c r="A70" s="4" t="s">
         <v>257</v>
       </c>
@@ -5806,7 +5802,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8">
       <c r="A71" s="4" t="s">
         <v>259</v>
       </c>
@@ -5832,21 +5828,21 @@
         <v>291</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8">
       <c r="A72" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>60</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>42</v>
@@ -5858,15 +5854,15 @@
         <v>289</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8">
       <c r="C73" s="7"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8">
       <c r="A74" s="8" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8">
       <c r="A75" s="13" t="s">
         <v>221</v>
       </c>
@@ -5889,7 +5885,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8">
       <c r="A76" s="4" t="s">
         <v>72</v>
       </c>
@@ -5912,7 +5908,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8">
       <c r="A77" s="4" t="s">
         <v>293</v>
       </c>
@@ -5935,7 +5931,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8">
       <c r="A78" s="4" t="s">
         <v>252</v>
       </c>
@@ -5958,7 +5954,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8">
       <c r="A79" s="4" t="s">
         <v>253</v>
       </c>
@@ -5981,7 +5977,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8">
       <c r="A80" s="4" t="s">
         <v>254</v>
       </c>
@@ -6004,7 +6000,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:10">
       <c r="A81" s="4" t="s">
         <v>255</v>
       </c>
@@ -6027,7 +6023,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:10">
       <c r="A82" s="4" t="s">
         <v>256</v>
       </c>
@@ -6050,7 +6046,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:10">
       <c r="A83" s="4" t="s">
         <v>257</v>
       </c>
@@ -6073,7 +6069,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:10">
       <c r="A84" s="4" t="s">
         <v>259</v>
       </c>
@@ -6096,12 +6092,12 @@
         <v>326</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:10">
       <c r="A85" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>45</v>
@@ -6110,7 +6106,7 @@
         <v>44</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>91</v>
@@ -6119,15 +6115,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:10">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:10">
       <c r="A87" s="10" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:10">
       <c r="A88" s="13" t="s">
         <v>227</v>
       </c>
@@ -6153,7 +6149,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:10">
       <c r="A89" s="4" t="s">
         <v>72</v>
       </c>
@@ -6179,7 +6175,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:10">
       <c r="A90" s="4" t="s">
         <v>73</v>
       </c>
@@ -6205,7 +6201,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:10">
       <c r="A91" s="4" t="s">
         <v>44</v>
       </c>
@@ -6231,12 +6227,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:10">
       <c r="A92" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>81</v>
@@ -6245,7 +6241,7 @@
         <v>44</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>327</v>
@@ -6257,16 +6253,16 @@
         <v>48</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:10">
       <c r="A93" s="4"/>
       <c r="C93" s="7"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:10">
       <c r="A94" s="10" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:10">
       <c r="A95" s="13" t="s">
         <v>236</v>
       </c>
@@ -6298,7 +6294,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:10">
       <c r="A96" s="7" t="s">
         <v>72</v>
       </c>
@@ -6330,7 +6326,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:10">
       <c r="A97" s="7" t="s">
         <v>293</v>
       </c>
@@ -6362,7 +6358,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:10">
       <c r="A98" s="7" t="s">
         <v>252</v>
       </c>
@@ -6394,7 +6390,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:10">
       <c r="A99" s="7" t="s">
         <v>253</v>
       </c>
@@ -6426,7 +6422,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:10">
       <c r="A100" s="7" t="s">
         <v>254</v>
       </c>
@@ -6458,7 +6454,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:10">
       <c r="A101" s="7" t="s">
         <v>255</v>
       </c>
@@ -6490,7 +6486,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:10">
       <c r="A102" s="7" t="s">
         <v>256</v>
       </c>
@@ -6522,7 +6518,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:10">
       <c r="A103" s="7" t="s">
         <v>257</v>
       </c>
@@ -6554,7 +6550,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:10">
       <c r="A104" s="7" t="s">
         <v>259</v>
       </c>
@@ -6586,18 +6582,18 @@
         <v>290</v>
       </c>
     </row>
-    <row r="105" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:10" s="7" customFormat="1">
       <c r="A105" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>66</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E105" s="7" t="s">
         <v>46</v>
@@ -6618,18 +6614,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="106" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:10" s="7" customFormat="1">
       <c r="A106" s="7" t="s">
         <v>290</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>66</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E106" s="7" t="s">
         <v>46</v>
@@ -6638,7 +6634,7 @@
         <v>42</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H106" s="7" t="s">
         <v>46</v>
@@ -6650,15 +6646,15 @@
         <v>72</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:10">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:10">
       <c r="A108" s="8" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:10">
       <c r="A109" s="13" t="s">
         <v>109</v>
       </c>
@@ -6676,7 +6672,7 @@
       </c>
       <c r="I109" s="2"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="s">
         <v>253</v>
       </c>
@@ -6694,7 +6690,7 @@
       </c>
       <c r="I110" s="2"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="s">
         <v>253</v>
       </c>
@@ -6711,7 +6707,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="s">
         <v>253</v>
       </c>
@@ -6725,10 +6721,10 @@
         <v>72</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" s="1" t="s">
         <v>253</v>
       </c>
@@ -6742,10 +6738,10 @@
         <v>72</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" s="1" t="s">
         <v>253</v>
       </c>
@@ -6759,10 +6755,10 @@
         <v>72</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" s="1" t="s">
         <v>253</v>
       </c>
@@ -6776,10 +6772,10 @@
         <v>72</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" s="1" t="s">
         <v>253</v>
       </c>
@@ -6793,10 +6789,10 @@
         <v>72</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117" s="1" t="s">
         <v>253</v>
       </c>
@@ -6810,10 +6806,10 @@
         <v>72</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" s="1" t="s">
         <v>253</v>
       </c>
@@ -6827,10 +6823,10 @@
         <v>72</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119" s="1" t="s">
         <v>256</v>
       </c>
@@ -6847,7 +6843,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:5">
       <c r="A120" s="1" t="s">
         <v>256</v>
       </c>
@@ -6864,7 +6860,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:5">
       <c r="A121" s="1" t="s">
         <v>256</v>
       </c>
@@ -6878,10 +6874,10 @@
         <v>72</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122" s="1" t="s">
         <v>256</v>
       </c>
@@ -6898,7 +6894,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:5">
       <c r="A123" s="1" t="s">
         <v>256</v>
       </c>
@@ -6915,7 +6911,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:5">
       <c r="A124" s="1" t="s">
         <v>256</v>
       </c>
@@ -6929,10 +6925,10 @@
         <v>72</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" s="1" t="s">
         <v>256</v>
       </c>
@@ -6949,7 +6945,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:5">
       <c r="A126" s="1" t="s">
         <v>256</v>
       </c>
@@ -6963,10 +6959,10 @@
         <v>72</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127" s="1" t="s">
         <v>256</v>
       </c>
@@ -6980,15 +6976,15 @@
         <v>72</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128" s="1" t="s">
         <v>259</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>341</v>
@@ -7000,12 +6996,12 @@
         <v>356</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:6">
       <c r="A129" s="1" t="s">
         <v>259</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>293</v>
@@ -7014,15 +7010,15 @@
         <v>72</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" s="1" t="s">
         <v>259</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>252</v>
@@ -7031,20 +7027,20 @@
         <v>72</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:6">
       <c r="A132" s="8" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:6">
       <c r="A133" s="13" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B133" s="13" t="s">
         <v>148</v>
@@ -7059,7 +7055,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:6">
       <c r="A134" s="1" t="s">
         <v>72</v>
       </c>
@@ -7070,13 +7066,13 @@
         <v>72</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:6">
       <c r="A135" s="1" t="s">
         <v>73</v>
       </c>
@@ -7087,13 +7083,13 @@
         <v>72</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:6">
       <c r="A136" s="1" t="s">
         <v>44</v>
       </c>
@@ -7104,13 +7100,13 @@
         <v>72</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:6">
       <c r="A137" s="1" t="s">
         <v>66</v>
       </c>
@@ -7121,13 +7117,13 @@
         <v>72</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:6">
       <c r="A138" s="1" t="s">
         <v>43</v>
       </c>
@@ -7138,13 +7134,13 @@
         <v>72</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:6">
       <c r="A139" s="1" t="s">
         <v>67</v>
       </c>
@@ -7161,16 +7157,16 @@
         <v>51</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:6">
       <c r="B140" s="4"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:6">
       <c r="A141" s="34" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B141" s="4"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:6">
       <c r="A142" s="13" t="s">
         <v>171</v>
       </c>
@@ -7187,10 +7183,10 @@
         <v>354</v>
       </c>
       <c r="F142" s="13" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143" s="1" t="s">
         <v>72</v>
       </c>
@@ -7210,7 +7206,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:6">
       <c r="A144" s="1" t="s">
         <v>73</v>
       </c>
@@ -7230,7 +7226,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:7">
       <c r="A145" s="1" t="s">
         <v>44</v>
       </c>
@@ -7250,7 +7246,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:7">
       <c r="A146" s="1" t="s">
         <v>66</v>
       </c>
@@ -7270,7 +7266,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:7">
       <c r="A147" s="1" t="s">
         <v>43</v>
       </c>
@@ -7290,7 +7286,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:7">
       <c r="A148" s="1" t="s">
         <v>67</v>
       </c>
@@ -7310,15 +7306,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:7">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:7">
       <c r="A150" s="8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:7">
       <c r="A151" s="13" t="s">
         <v>109</v>
       </c>
@@ -7332,7 +7328,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:7">
       <c r="A152" s="4" t="s">
         <v>66</v>
       </c>
@@ -7347,7 +7343,7 @@
       </c>
       <c r="E152" s="4"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:7">
       <c r="A153" s="4" t="s">
         <v>60</v>
       </c>
@@ -7362,7 +7358,7 @@
       </c>
       <c r="E153" s="4"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:7">
       <c r="A154" s="4" t="s">
         <v>42</v>
       </c>
@@ -7377,21 +7373,21 @@
       </c>
       <c r="E154" s="4"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:7">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:7">
       <c r="A156" s="8" t="s">
         <v>154</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:7">
       <c r="A157" s="13" t="s">
         <v>144</v>
       </c>
@@ -7414,7 +7410,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:7">
       <c r="A158" s="4" t="s">
         <v>72</v>
       </c>
@@ -7428,16 +7424,16 @@
         <v>46</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G158" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:7">
       <c r="A159" s="4" t="s">
         <v>293</v>
       </c>
@@ -7454,13 +7450,13 @@
         <v>305</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G159" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:7">
       <c r="A160" s="4" t="s">
         <v>252</v>
       </c>
@@ -7477,18 +7473,18 @@
         <v>85</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G160" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:7">
       <c r="A161" s="4" t="s">
         <v>253</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>60</v>
@@ -7500,13 +7496,13 @@
         <v>305</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G161" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:7">
       <c r="A162" s="4" t="s">
         <v>254</v>
       </c>
@@ -7529,7 +7525,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:7">
       <c r="A163" s="4" t="s">
         <v>255</v>
       </c>
@@ -7552,7 +7548,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:7">
       <c r="A164" s="4" t="s">
         <v>256</v>
       </c>
@@ -7575,7 +7571,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:7">
       <c r="A165" s="4" t="s">
         <v>257</v>
       </c>
@@ -7598,7 +7594,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:7">
       <c r="A166" s="4" t="s">
         <v>259</v>
       </c>
@@ -7621,12 +7617,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:7">
       <c r="A167" s="4" t="s">
         <v>268</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C167" s="1">
         <v>4</v>
@@ -7644,7 +7640,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:7">
       <c r="A168" s="4" t="s">
         <v>274</v>
       </c>
@@ -7661,18 +7657,18 @@
         <v>52</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G168" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:7">
       <c r="A169" s="4" t="s">
         <v>278</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C169" s="1">
         <v>4</v>
@@ -7690,7 +7686,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:7">
       <c r="A170" s="4" t="s">
         <v>270</v>
       </c>
@@ -7713,7 +7709,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:7">
       <c r="A171" s="4" t="s">
         <v>279</v>
       </c>
@@ -7730,13 +7726,13 @@
         <v>48</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G171" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:7">
       <c r="A172" s="4" t="s">
         <v>280</v>
       </c>
@@ -7759,7 +7755,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:7">
       <c r="A173" s="4" t="s">
         <v>281</v>
       </c>
@@ -7782,7 +7778,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:7">
       <c r="A174" s="4" t="s">
         <v>282</v>
       </c>
@@ -7805,12 +7801,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:7">
       <c r="A175" s="4" t="s">
         <v>283</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C175" s="1">
         <v>4</v>
@@ -7828,7 +7824,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:7">
       <c r="A176" s="4" t="s">
         <v>284</v>
       </c>
@@ -7851,7 +7847,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:7">
       <c r="A177" s="4" t="s">
         <v>269</v>
       </c>
@@ -7874,7 +7870,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:7">
       <c r="A178" s="4" t="s">
         <v>285</v>
       </c>
@@ -7897,7 +7893,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:7">
       <c r="A179" s="4" t="s">
         <v>286</v>
       </c>
@@ -7920,7 +7916,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:7">
       <c r="A180" s="4" t="s">
         <v>271</v>
       </c>
@@ -7943,21 +7939,21 @@
         <v>47</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:7">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
       <c r="D181" s="7"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:7">
       <c r="A182" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
       <c r="D182" s="7"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:7">
       <c r="A183" s="13" t="s">
         <v>133</v>
       </c>
@@ -7971,7 +7967,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:7">
       <c r="A184" s="4" t="s">
         <v>72</v>
       </c>
@@ -7985,7 +7981,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:7">
       <c r="A185" s="4" t="s">
         <v>72</v>
       </c>
@@ -7999,7 +7995,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:7">
       <c r="A186" s="4" t="s">
         <v>72</v>
       </c>
@@ -8013,7 +8009,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:7">
       <c r="A187" s="4" t="s">
         <v>72</v>
       </c>
@@ -8027,7 +8023,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:7">
       <c r="A188" s="4" t="s">
         <v>72</v>
       </c>
@@ -8041,7 +8037,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:7">
       <c r="A189" s="4" t="s">
         <v>72</v>
       </c>
@@ -8055,7 +8051,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:7">
       <c r="A190" s="4" t="s">
         <v>72</v>
       </c>
@@ -8069,7 +8065,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:7">
       <c r="A191" s="4" t="s">
         <v>72</v>
       </c>
@@ -8083,7 +8079,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:7">
       <c r="A192" s="4" t="s">
         <v>72</v>
       </c>
@@ -8097,7 +8093,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:4">
       <c r="A193" s="4" t="s">
         <v>72</v>
       </c>
@@ -8111,7 +8107,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:4">
       <c r="A194" s="4" t="s">
         <v>72</v>
       </c>
@@ -8125,7 +8121,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:4">
       <c r="A195" s="4" t="s">
         <v>73</v>
       </c>
@@ -8139,7 +8135,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:4">
       <c r="A196" s="4" t="s">
         <v>73</v>
       </c>
@@ -8153,7 +8149,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:4">
       <c r="A197" s="4" t="s">
         <v>73</v>
       </c>
@@ -8167,7 +8163,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:4">
       <c r="A198" s="4" t="s">
         <v>73</v>
       </c>
@@ -8181,7 +8177,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:4">
       <c r="A199" s="4" t="s">
         <v>73</v>
       </c>
@@ -8195,7 +8191,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:4">
       <c r="A200" s="4" t="s">
         <v>73</v>
       </c>
@@ -8209,7 +8205,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:4">
       <c r="A201" s="4" t="s">
         <v>73</v>
       </c>
@@ -8223,7 +8219,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:4">
       <c r="A202" s="4" t="s">
         <v>73</v>
       </c>
@@ -8237,7 +8233,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:4">
       <c r="A203" s="4" t="s">
         <v>73</v>
       </c>
@@ -8248,10 +8244,10 @@
         <v>47</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
       <c r="A204" s="4" t="s">
         <v>73</v>
       </c>
@@ -8265,7 +8261,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:4">
       <c r="A205" s="4" t="s">
         <v>73</v>
       </c>
@@ -8279,7 +8275,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:4">
       <c r="A206" s="4" t="s">
         <v>73</v>
       </c>
@@ -8293,7 +8289,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:4">
       <c r="A207" s="4" t="s">
         <v>73</v>
       </c>
@@ -8307,7 +8303,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:4">
       <c r="A208" s="4" t="s">
         <v>73</v>
       </c>
@@ -8321,7 +8317,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:7">
       <c r="A209" s="4" t="s">
         <v>73</v>
       </c>
@@ -8335,7 +8331,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:7">
       <c r="A210" s="4" t="s">
         <v>44</v>
       </c>
@@ -8349,7 +8345,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:7">
       <c r="A211" s="4" t="s">
         <v>44</v>
       </c>
@@ -8363,7 +8359,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:7">
       <c r="A212" s="4" t="s">
         <v>44</v>
       </c>
@@ -8377,7 +8373,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:7">
       <c r="A213" s="4" t="s">
         <v>44</v>
       </c>
@@ -8391,7 +8387,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:7">
       <c r="A214" s="4" t="s">
         <v>44</v>
       </c>
@@ -8405,7 +8401,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:7">
       <c r="A215" s="4" t="s">
         <v>44</v>
       </c>
@@ -8419,7 +8415,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:7">
       <c r="A216" s="4" t="s">
         <v>44</v>
       </c>
@@ -8433,7 +8429,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:7">
       <c r="A217" s="4" t="s">
         <v>44</v>
       </c>
@@ -8447,7 +8443,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:7">
       <c r="A218" s="4" t="s">
         <v>44</v>
       </c>
@@ -8461,7 +8457,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:7">
       <c r="A219" s="4" t="s">
         <v>44</v>
       </c>
@@ -8475,7 +8471,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:7">
       <c r="A220" s="4" t="s">
         <v>44</v>
       </c>
@@ -8489,7 +8485,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:7">
       <c r="A221" s="4" t="s">
         <v>44</v>
       </c>
@@ -8504,7 +8500,7 @@
       </c>
       <c r="G221" s="4"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:7">
       <c r="A222" s="4" t="s">
         <v>44</v>
       </c>
@@ -8518,7 +8514,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:7">
       <c r="A223" s="4" t="s">
         <v>44</v>
       </c>
@@ -8532,7 +8528,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:7">
       <c r="A224" s="4" t="s">
         <v>44</v>
       </c>
@@ -8546,7 +8542,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:4">
       <c r="A225" s="4" t="s">
         <v>66</v>
       </c>
@@ -8560,7 +8556,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:4">
       <c r="A226" s="4" t="s">
         <v>66</v>
       </c>
@@ -8574,7 +8570,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:4">
       <c r="A227" s="4" t="s">
         <v>66</v>
       </c>
@@ -8588,7 +8584,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:4">
       <c r="A228" s="4" t="s">
         <v>66</v>
       </c>
@@ -8602,7 +8598,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:4">
       <c r="A229" s="4" t="s">
         <v>66</v>
       </c>
@@ -8616,7 +8612,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:4">
       <c r="A230" s="4" t="s">
         <v>66</v>
       </c>
@@ -8630,7 +8626,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:4">
       <c r="A231" s="4" t="s">
         <v>66</v>
       </c>
@@ -8644,7 +8640,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:4">
       <c r="A232" s="4" t="s">
         <v>66</v>
       </c>
@@ -8658,7 +8654,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:4">
       <c r="A233" s="4" t="s">
         <v>66</v>
       </c>
@@ -8672,7 +8668,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:4">
       <c r="A234" s="4" t="s">
         <v>66</v>
       </c>
@@ -8686,7 +8682,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:4">
       <c r="A235" s="4" t="s">
         <v>66</v>
       </c>
@@ -8700,7 +8696,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:4">
       <c r="A236" s="4" t="s">
         <v>66</v>
       </c>
@@ -8714,7 +8710,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:4">
       <c r="A237" s="4" t="s">
         <v>66</v>
       </c>
@@ -8728,7 +8724,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:4">
       <c r="A238" s="4" t="s">
         <v>66</v>
       </c>
@@ -8742,17 +8738,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:4">
       <c r="A239" s="7"/>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:4">
       <c r="A240" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:5">
       <c r="A241" s="13" t="s">
         <v>144</v>
       </c>
@@ -8769,7 +8765,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:5">
       <c r="A242" s="4" t="s">
         <v>72</v>
       </c>
@@ -8780,13 +8776,13 @@
         <v>63</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E242" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:5">
       <c r="A243" s="4" t="s">
         <v>73</v>
       </c>
@@ -8797,13 +8793,13 @@
         <v>63</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E243" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:5">
       <c r="A244" s="4" t="s">
         <v>44</v>
       </c>
@@ -8814,13 +8810,13 @@
         <v>63</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E244" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:5">
       <c r="A245" s="4" t="s">
         <v>253</v>
       </c>
@@ -8831,13 +8827,13 @@
         <v>63</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E245" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:5">
       <c r="A246" s="4" t="s">
         <v>254</v>
       </c>
@@ -8848,13 +8844,13 @@
         <v>63</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E246" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:5">
       <c r="A247" s="4" t="s">
         <v>255</v>
       </c>
@@ -8865,13 +8861,13 @@
         <v>63</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E247" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:5">
       <c r="A248" s="4" t="s">
         <v>256</v>
       </c>
@@ -8882,13 +8878,13 @@
         <v>50</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E248" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:5">
       <c r="A249" s="4" t="s">
         <v>257</v>
       </c>
@@ -8905,7 +8901,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:5">
       <c r="A250" s="4" t="s">
         <v>259</v>
       </c>
@@ -8922,7 +8918,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:5">
       <c r="A251" s="4" t="s">
         <v>268</v>
       </c>
@@ -8939,7 +8935,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:5">
       <c r="A252" s="4" t="s">
         <v>274</v>
       </c>
@@ -8956,7 +8952,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:5">
       <c r="A253" s="4" t="s">
         <v>278</v>
       </c>
@@ -8973,7 +8969,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:5">
       <c r="A254" s="4" t="s">
         <v>270</v>
       </c>
@@ -8990,7 +8986,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:5">
       <c r="A255" s="4" t="s">
         <v>279</v>
       </c>
@@ -9007,7 +9003,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:5">
       <c r="A256" s="4" t="s">
         <v>280</v>
       </c>
@@ -9024,7 +9020,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:5">
       <c r="A257" s="4" t="s">
         <v>281</v>
       </c>
@@ -9041,7 +9037,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:5">
       <c r="A258" s="4" t="s">
         <v>282</v>
       </c>
@@ -9058,7 +9054,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:5">
       <c r="A259" s="4" t="s">
         <v>283</v>
       </c>
@@ -9075,7 +9071,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:5">
       <c r="A260" s="4" t="s">
         <v>284</v>
       </c>
@@ -9092,7 +9088,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:5">
       <c r="A261" s="4" t="s">
         <v>269</v>
       </c>
@@ -9109,7 +9105,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:5">
       <c r="A262" s="4" t="s">
         <v>285</v>
       </c>
@@ -9126,7 +9122,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:5">
       <c r="A263" s="4" t="s">
         <v>286</v>
       </c>
@@ -9143,7 +9139,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:5">
       <c r="A264" s="4" t="s">
         <v>271</v>
       </c>
@@ -9160,19 +9156,19 @@
         <v>49</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:5">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
       <c r="E265" s="4"/>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:5">
       <c r="A266" s="10" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:5">
       <c r="A267" s="13" t="s">
         <v>276</v>
       </c>
@@ -9183,7 +9179,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:5">
       <c r="A268" s="2" t="s">
         <v>43</v>
       </c>
@@ -9194,7 +9190,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:5">
       <c r="A269" s="1" t="s">
         <v>42</v>
       </c>
@@ -9205,7 +9201,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:5">
       <c r="A270" s="1" t="s">
         <v>47</v>
       </c>
@@ -9216,7 +9212,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:5">
       <c r="A271" s="1" t="s">
         <v>83</v>
       </c>
@@ -9227,12 +9223,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:10">
       <c r="A273" s="10" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.45">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10">
       <c r="A274" s="13" t="s">
         <v>113</v>
       </c>
@@ -9243,13 +9239,13 @@
         <v>190</v>
       </c>
       <c r="D274" s="13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E274" s="35" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:10">
       <c r="A275" s="1" t="s">
         <v>72</v>
       </c>
@@ -9266,7 +9262,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:10">
       <c r="A276" s="1" t="s">
         <v>73</v>
       </c>
@@ -9283,7 +9279,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:10">
       <c r="A277" s="1" t="s">
         <v>44</v>
       </c>
@@ -9300,7 +9296,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:10">
       <c r="A278" s="1" t="s">
         <v>66</v>
       </c>
@@ -9317,12 +9313,12 @@
         <v>363</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:10">
       <c r="A279" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>83</v>
@@ -9334,7 +9330,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:10">
       <c r="A280" s="1" t="s">
         <v>67</v>
       </c>
@@ -9351,12 +9347,12 @@
         <v>364</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:10">
       <c r="A281" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>84</v>
@@ -9371,7 +9367,7 @@
       <c r="I281" s="2"/>
       <c r="J281" s="2"/>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:10">
       <c r="A282" s="1" t="s">
         <v>45</v>
       </c>
@@ -9393,12 +9389,12 @@
       <c r="I282" s="2"/>
       <c r="J282" s="2"/>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:10">
       <c r="A283" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>85</v>
@@ -9415,7 +9411,7 @@
       <c r="I283" s="2"/>
       <c r="J283" s="2"/>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:10">
       <c r="A284" s="1" t="s">
         <v>42</v>
       </c>
@@ -9437,7 +9433,7 @@
       <c r="I284" s="2"/>
       <c r="J284" s="2"/>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:10">
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
       <c r="F285" s="2"/>
@@ -9446,14 +9442,14 @@
       <c r="I285" s="2"/>
       <c r="J285" s="2"/>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:10">
       <c r="A286" s="10" t="s">
         <v>292</v>
       </c>
       <c r="C286" s="4"/>
       <c r="D286" s="7"/>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:10">
       <c r="A287" s="13" t="s">
         <v>109</v>
       </c>
@@ -9464,13 +9460,13 @@
         <v>152</v>
       </c>
       <c r="D287" s="13" t="s">
-        <v>368</v>
+        <v>180</v>
       </c>
       <c r="E287" s="13" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:10">
       <c r="A288" s="7" t="s">
         <v>66</v>
       </c>
@@ -9487,7 +9483,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:5">
       <c r="A289" s="7" t="s">
         <v>66</v>
       </c>
@@ -9504,7 +9500,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:5">
       <c r="A290" s="7" t="s">
         <v>66</v>
       </c>
@@ -9521,7 +9517,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:5">
       <c r="A291" s="7" t="s">
         <v>43</v>
       </c>
@@ -9538,7 +9534,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:5">
       <c r="A292" s="7" t="s">
         <v>43</v>
       </c>
@@ -9555,7 +9551,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:5">
       <c r="A293" s="7" t="s">
         <v>43</v>
       </c>
@@ -9572,7 +9568,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:5">
       <c r="A294" s="7" t="s">
         <v>67</v>
       </c>
@@ -9589,7 +9585,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:5">
       <c r="A295" s="7" t="s">
         <v>67</v>
       </c>
@@ -9606,7 +9602,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:5">
       <c r="A296" s="7" t="s">
         <v>67</v>
       </c>
@@ -9623,7 +9619,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:5">
       <c r="A297" s="7" t="s">
         <v>60</v>
       </c>
@@ -9640,7 +9636,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:5">
       <c r="A298" s="7" t="s">
         <v>60</v>
       </c>
@@ -9657,7 +9653,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:5">
       <c r="A299" s="7" t="s">
         <v>45</v>
       </c>
@@ -9674,7 +9670,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:5">
       <c r="A300" s="7" t="s">
         <v>45</v>
       </c>
@@ -9691,7 +9687,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:5">
       <c r="A301" s="7" t="s">
         <v>81</v>
       </c>
@@ -9708,15 +9704,15 @@
         <v>333</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:5">
       <c r="B302" s="7"/>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:5">
       <c r="A303" s="8" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.45">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
       <c r="A304" s="13" t="s">
         <v>133</v>
       </c>
@@ -9730,7 +9726,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:4">
       <c r="A305" s="4" t="s">
         <v>72</v>
       </c>
@@ -9744,7 +9740,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:4">
       <c r="A306" s="4" t="s">
         <v>72</v>
       </c>
@@ -9758,7 +9754,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:4">
       <c r="A307" s="4" t="s">
         <v>72</v>
       </c>
@@ -9772,7 +9768,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:4">
       <c r="A308" s="4" t="s">
         <v>72</v>
       </c>
@@ -9786,7 +9782,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:4">
       <c r="A309" s="4" t="s">
         <v>72</v>
       </c>
@@ -9800,7 +9796,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:4">
       <c r="A310" s="4" t="s">
         <v>72</v>
       </c>
@@ -9830,22 +9826,22 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.58203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.58203125" style="1"/>
+    <col min="5" max="5" width="34.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10">
       <c r="A2" s="31" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>102</v>
@@ -9861,48 +9857,48 @@
       </c>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10">
       <c r="A3" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F3" s="29"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10">
       <c r="B4" s="23" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>106</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10">
       <c r="B5" s="14" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>106</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10">
       <c r="B6" s="14" t="s">
         <v>203</v>
       </c>
@@ -9910,11 +9906,11 @@
         <v>106</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10">
       <c r="B7" s="14" t="s">
         <v>143</v>
       </c>
@@ -9922,41 +9918,41 @@
         <v>106</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10">
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10">
       <c r="A9" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="14" t="s">
         <v>472</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>468</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B10" s="14" t="s">
-        <v>473</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>106</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10">
       <c r="B11" s="14" t="s">
         <v>113</v>
       </c>
@@ -9972,7 +9968,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10">
       <c r="B12" s="14" t="s">
         <v>112</v>
       </c>
@@ -9988,25 +9984,25 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10">
       <c r="B13" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10">
       <c r="B14" s="14" t="s">
         <v>261</v>
       </c>
@@ -10014,7 +10010,7 @@
         <v>108</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -10022,15 +10018,15 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10">
       <c r="B15" s="14" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -10038,7 +10034,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10">
       <c r="B16" s="2"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -10047,164 +10043,164 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10">
       <c r="A17" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="B18" s="22" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="B19" s="14" t="s">
         <v>109</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="B20" s="14" t="s">
         <v>174</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10">
       <c r="B21" s="14" t="s">
         <v>152</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10">
       <c r="B22" s="14" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10">
       <c r="B23" s="14" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10">
       <c r="B24" s="2"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10">
       <c r="A25" s="10" t="s">
         <v>288</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E25" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10">
       <c r="B26" s="14" t="s">
         <v>171</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10">
       <c r="B27" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="B28" s="23" t="s">
         <v>440</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="J27" s="4"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B28" s="23" t="s">
+      <c r="C28" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="20" t="s">
         <v>441</v>
       </c>
-      <c r="C28" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>442</v>
-      </c>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10">
       <c r="B29" s="23" t="s">
         <v>140</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10">
       <c r="B30" s="23" t="s">
         <v>133</v>
       </c>
@@ -10212,180 +10208,180 @@
         <v>108</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10">
       <c r="B31" s="2"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10">
       <c r="A32" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10">
       <c r="B33" s="22" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:10">
       <c r="B34" s="14" t="s">
         <v>144</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" s="6" customFormat="1">
+      <c r="B35" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="J34" s="4"/>
-    </row>
-    <row r="35" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D35" s="6" t="s">
+    </row>
+    <row r="36" spans="1:10" s="6" customFormat="1">
+      <c r="B36" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>475</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:10" s="6" customFormat="1">
       <c r="B37" s="18"/>
     </row>
-    <row r="38" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:10" s="6" customFormat="1">
       <c r="A38" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>108</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="6" customFormat="1">
       <c r="B39" s="22" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="6" customFormat="1">
       <c r="A40" s="1"/>
       <c r="B40" s="14" t="s">
         <v>109</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="6" customFormat="1">
       <c r="B41" s="14" t="s">
         <v>174</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="6" customFormat="1">
       <c r="B42" s="14" t="s">
         <v>152</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="B43" s="14" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="B44" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B44" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>475</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>462</v>
-      </c>
       <c r="E44" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:10">
       <c r="A46" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="B47" s="22" t="s">
         <v>144</v>
       </c>
@@ -10393,55 +10389,55 @@
         <v>108</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5">
       <c r="A49" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="B50" s="14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="16"/>
       <c r="B51" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="B52" s="14" t="s">
         <v>408</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B52" s="14" t="s">
-        <v>409</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>108</v>
@@ -10450,48 +10446,48 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5">
       <c r="A54" s="24" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="20"/>
       <c r="B55" s="23" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C55" s="20" t="s">
         <v>108</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="20"/>
       <c r="B56" s="25" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C56" s="20" t="s">
         <v>108</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="20"/>
       <c r="B57" s="25" t="s">
         <v>170</v>
@@ -10500,43 +10496,43 @@
         <v>108</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="20"/>
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5">
       <c r="A59" s="10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="B60" s="23" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="B61" s="14" t="s">
         <v>109</v>
       </c>
@@ -10547,7 +10543,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5">
       <c r="B62" s="15" t="s">
         <v>174</v>
       </c>
@@ -10555,10 +10551,10 @@
         <v>108</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="B63" s="15" t="s">
         <v>152</v>
       </c>
@@ -10566,46 +10562,46 @@
         <v>108</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="B66" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="B67" s="15" t="s">
         <v>502</v>
       </c>
-      <c r="B65" s="23" t="s">
-        <v>468</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B66" s="15" t="s">
-        <v>504</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D66" s="1" t="s">
+      <c r="C67" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B67" s="15" t="s">
-        <v>503</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D67" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>506</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -10620,41 +10616,41 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.58203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.08203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
     <col min="4" max="5" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.58203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.58203125" style="1"/>
+    <col min="8" max="8" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9">
       <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9">
       <c r="A2" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9">
       <c r="A3" s="21" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>114</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>203</v>
@@ -10664,7 +10660,7 @@
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
@@ -10672,7 +10668,7 @@
         <v>87</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>88</v>
@@ -10682,21 +10678,21 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9">
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9">
       <c r="A6" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9">
       <c r="A7" s="21" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>113</v>
@@ -10705,21 +10701,21 @@
         <v>112</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>261</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>43</v>
@@ -10737,17 +10733,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9">
       <c r="A10" s="10" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="13" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>109</v>
@@ -10759,13 +10755,13 @@
         <v>152</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="7" t="s">
         <v>72</v>
       </c>
@@ -10788,7 +10784,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9">
       <c r="A13" s="7" t="s">
         <v>293</v>
       </c>
@@ -10812,7 +10808,7 @@
       </c>
       <c r="H13" s="20"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9">
       <c r="A14" s="7" t="s">
         <v>252</v>
       </c>
@@ -10829,13 +10825,13 @@
         <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9">
       <c r="A15" s="7" t="s">
         <v>253</v>
       </c>
@@ -10852,13 +10848,13 @@
         <v>72</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9">
       <c r="A16" s="7" t="s">
         <v>254</v>
       </c>
@@ -10875,13 +10871,13 @@
         <v>72</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11">
       <c r="A17" s="7" t="s">
         <v>255</v>
       </c>
@@ -10898,14 +10894,14 @@
         <v>72</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>72</v>
       </c>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11">
       <c r="A18" s="7" t="s">
         <v>256</v>
       </c>
@@ -10929,7 +10925,7 @@
       </c>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11">
       <c r="A19" s="7" t="s">
         <v>257</v>
       </c>
@@ -10953,7 +10949,7 @@
       </c>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11">
       <c r="A20" s="7" t="s">
         <v>259</v>
       </c>
@@ -10970,14 +10966,14 @@
         <v>72</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>72</v>
       </c>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11">
       <c r="A21" s="7" t="s">
         <v>268</v>
       </c>
@@ -10994,14 +10990,14 @@
         <v>72</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>59</v>
       </c>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11">
       <c r="A22" s="7" t="s">
         <v>274</v>
       </c>
@@ -11018,14 +11014,14 @@
         <v>72</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>72</v>
       </c>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11">
       <c r="A23" s="7" t="s">
         <v>278</v>
       </c>
@@ -11042,44 +11038,44 @@
         <v>72</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>59</v>
       </c>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11">
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11">
       <c r="A25" s="10" t="s">
         <v>288</v>
       </c>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11">
       <c r="A26" s="21" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>171</v>
       </c>
       <c r="C26" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>478</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="E26" s="13" t="s">
         <v>479</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="F26" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="F26" s="13" t="s">
-        <v>481</v>
-      </c>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
         <v>72</v>
       </c>
@@ -11093,7 +11089,7 @@
         <v>325</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>72</v>
@@ -11103,36 +11099,36 @@
       <c r="J27" s="4"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11">
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="4"/>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11">
       <c r="A29" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11">
       <c r="A30" s="21" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>144</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F30" s="20"/>
       <c r="H30" s="7"/>
@@ -11140,7 +11136,7 @@
       <c r="J30" s="4"/>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11">
       <c r="A31" s="7" t="s">
         <v>72</v>
       </c>
@@ -11154,12 +11150,12 @@
         <v>52</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11">
       <c r="A32" s="7" t="s">
         <v>293</v>
       </c>
@@ -11173,12 +11169,12 @@
         <v>49</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11">
       <c r="A33" s="7" t="s">
         <v>252</v>
       </c>
@@ -11186,13 +11182,13 @@
         <v>72</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>48</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
@@ -11201,7 +11197,7 @@
       <c r="J33" s="4"/>
       <c r="K33" s="7"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11">
       <c r="A34" s="7" t="s">
         <v>253</v>
       </c>
@@ -11215,7 +11211,7 @@
         <v>48</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
@@ -11224,7 +11220,7 @@
       <c r="J34" s="4"/>
       <c r="K34" s="7"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11">
       <c r="A35" s="7" t="s">
         <v>254</v>
       </c>
@@ -11232,13 +11228,13 @@
         <v>72</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D35" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>492</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
@@ -11247,27 +11243,27 @@
       <c r="J35" s="4"/>
       <c r="K35" s="7"/>
     </row>
-    <row r="36" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" s="6" customFormat="1">
       <c r="H36" s="28"/>
       <c r="I36" s="27"/>
       <c r="J36" s="28"/>
       <c r="K36" s="28"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11">
       <c r="A37" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="27"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11">
       <c r="A38" s="13" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>109</v>
@@ -11279,17 +11275,17 @@
         <v>152</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11">
       <c r="A39" s="7" t="s">
         <v>72</v>
       </c>
@@ -11303,20 +11299,20 @@
         <v>59</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11">
       <c r="A40" s="7" t="s">
         <v>293</v>
       </c>
@@ -11333,17 +11329,17 @@
         <v>44</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11">
       <c r="A41" s="7" t="s">
         <v>252</v>
       </c>
@@ -11360,17 +11356,17 @@
         <v>72</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11">
       <c r="A42" s="7" t="s">
         <v>253</v>
       </c>
@@ -11387,17 +11383,17 @@
         <v>72</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11">
       <c r="A43" s="7" t="s">
         <v>254</v>
       </c>
@@ -11414,17 +11410,17 @@
         <v>72</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:11">
       <c r="A44" s="7" t="s">
         <v>255</v>
       </c>
@@ -11441,13 +11437,13 @@
         <v>72</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="7" t="s">
         <v>256</v>
       </c>
@@ -11464,13 +11460,13 @@
         <v>72</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="7" t="s">
         <v>257</v>
       </c>
@@ -11487,13 +11483,13 @@
         <v>72</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="7" t="s">
         <v>259</v>
       </c>
@@ -11510,30 +11506,30 @@
         <v>72</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6">
       <c r="A49" s="10" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="21" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B50" s="21" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
         <v>72</v>
       </c>
@@ -11541,7 +11537,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
         <v>72</v>
       </c>
@@ -11549,7 +11545,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
         <v>72</v>
       </c>
@@ -11557,26 +11553,26 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6">
       <c r="A55" s="10" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="21" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C56" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="D56" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="D56" s="13" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
         <v>72</v>
       </c>
@@ -11590,12 +11586,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6">
       <c r="A58" s="16"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6">
       <c r="A59" s="24" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
@@ -11603,22 +11599,22 @@
       <c r="E59" s="20"/>
       <c r="F59" s="20"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6">
       <c r="A60" s="13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D60" s="26" t="s">
         <v>170</v>
       </c>
       <c r="F60" s="20"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:6">
       <c r="A61" s="7" t="s">
         <v>72</v>
       </c>
@@ -11629,12 +11625,12 @@
         <v>44</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E61" s="20"/>
       <c r="F61" s="20"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:6">
       <c r="A62" s="7" t="s">
         <v>73</v>
       </c>
@@ -11645,12 +11641,12 @@
         <v>43</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E62" s="20"/>
       <c r="F62" s="20"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:6">
       <c r="A63" s="33"/>
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
@@ -11658,17 +11654,17 @@
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6">
       <c r="A64" s="10" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="13" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>109</v>
@@ -11679,8 +11675,14 @@
       <c r="E65" s="13" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F65" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
         <v>72</v>
       </c>
@@ -11696,8 +11698,14 @@
       <c r="E66" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F66" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
         <v>73</v>
       </c>
@@ -11713,8 +11721,14 @@
       <c r="E67" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F67" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
         <v>44</v>
       </c>
@@ -11730,51 +11744,57 @@
       <c r="E68" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F68" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="10" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="B71" s="13" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A71" s="13" t="s">
-        <v>468</v>
-      </c>
-      <c r="B71" s="13" t="s">
+      <c r="C71" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="C71" s="13" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="10" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="B75" s="15" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A75" s="15" t="s">
-        <v>468</v>
-      </c>
-      <c r="B75" s="15" t="s">
-        <v>537</v>
-      </c>
       <c r="C75" s="15" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
         <v>72</v>
       </c>

--- a/docs/우럭아왜우럭 데이터 설계.xlsx
+++ b/docs/우럭아왜우럭 데이터 설계.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\바탕 화면\jinha\우럭아왜우럭\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\UrukGame\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8CAB18-1700-4C6B-BED9-C518A0D0F132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBF4D21-779A-432E-B515-5BDBFE7E2A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="210" windowWidth="28770" windowHeight="15300" activeTab="3" xr2:uid="{EF12513C-7545-404A-BD8A-71B5E4507A34}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EF12513C-7545-404A-BD8A-71B5E4507A34}"/>
   </bookViews>
   <sheets>
     <sheet name="기획데이터_스키마" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2321" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2328" uniqueCount="537">
   <si>
     <t>얕은 연안</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -761,14 +761,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>최소 시세율(?)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 시세율(?)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>change_range</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -781,10 +773,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>경매 판매가격 추가율(?)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>min_sell_rate</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1739,10 +1727,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>골드로 구매 가능하다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>정상 풍량을 넘어서는 경우 풍량에 따라 이동거리가 디버프된다</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1954,10 +1938,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>null</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>shop</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2021,10 +2001,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>실시간 배의 좌표를 표현할 position을 넣을까</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>max_inventory_space</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2040,10 +2016,6 @@
     <t>user_id</t>
   </si>
   <si>
-    <t>&lt; 여기에 있는게 맞나?.?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>auc_id</t>
   </si>
   <si>
@@ -2083,10 +2055,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>awefawe</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>비밀번호</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2123,6 +2091,30 @@
   </si>
   <si>
     <t>level_data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>찌를 던진 깊이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 상태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경매 판매가격 버프률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소 시세율</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 시세율</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>asdf1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2206,7 +2198,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2228,12 +2220,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2281,7 +2267,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2378,12 +2364,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2704,8 +2684,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L152"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -2714,7 +2694,7 @@
     <col min="2" max="2" width="26.625" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.625" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="64.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="99.875" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.125" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.125" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.625" style="7" bestFit="1" customWidth="1"/>
@@ -2747,13 +2727,13 @@
         <v>96</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -2778,16 +2758,16 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="10" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -2796,13 +2776,13 @@
     </row>
     <row r="7" spans="1:9">
       <c r="B7" s="14" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>106</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -2818,7 +2798,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="9" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>109</v>
@@ -2871,7 +2851,7 @@
         <v>56</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2886,7 +2866,7 @@
         <v>57</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2905,7 +2885,7 @@
     <row r="16" spans="1:9">
       <c r="A16" s="4"/>
       <c r="B16" s="14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>108</v>
@@ -2947,7 +2927,7 @@
         <v>123</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2976,7 +2956,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="B22" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>108</v>
@@ -3029,24 +3009,24 @@
         <v>54</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="B27" s="15" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5">
       <c r="B28" s="15" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>108</v>
@@ -3058,7 +3038,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="B29" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>108</v>
@@ -3089,7 +3069,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="B32" s="15" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>106</v>
@@ -3156,7 +3136,7 @@
     <row r="38" spans="1:10">
       <c r="A38" s="4"/>
       <c r="B38" s="15" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>108</v>
@@ -3170,13 +3150,13 @@
     <row r="39" spans="1:10">
       <c r="A39" s="4"/>
       <c r="B39" s="15" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
@@ -3191,29 +3171,29 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="10" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F41" s="4"/>
       <c r="J41" s="4"/>
     </row>
     <row r="42" spans="1:10">
       <c r="B42" s="15" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>106</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -3224,22 +3204,22 @@
         <v>108</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E43" s="11"/>
     </row>
     <row r="44" spans="1:10">
       <c r="B44" s="15" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F44" s="11"/>
     </row>
@@ -3251,7 +3231,7 @@
         <v>108</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
@@ -3264,16 +3244,16 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
@@ -3281,13 +3261,13 @@
     </row>
     <row r="48" spans="1:10">
       <c r="B48" s="15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>106</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -3298,7 +3278,7 @@
         <v>108</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
@@ -3306,13 +3286,13 @@
     </row>
     <row r="50" spans="1:9">
       <c r="B50" s="15" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
@@ -3320,7 +3300,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="B51" s="15" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>108</v>
@@ -3340,7 +3320,7 @@
         <v>108</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
@@ -3358,13 +3338,13 @@
         <v>173</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
@@ -3372,13 +3352,13 @@
     </row>
     <row r="55" spans="1:9">
       <c r="B55" s="15" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>106</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
@@ -3393,19 +3373,19 @@
         <v>108</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="4"/>
       <c r="B57" s="15" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E57" s="19"/>
       <c r="F57" s="11"/>
@@ -3414,7 +3394,7 @@
     <row r="58" spans="1:9">
       <c r="A58" s="4"/>
       <c r="B58" s="14" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>108</v>
@@ -3423,7 +3403,7 @@
         <v>71</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
@@ -3431,13 +3411,13 @@
     <row r="59" spans="1:9">
       <c r="A59" s="4"/>
       <c r="B59" s="14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E59" s="19"/>
       <c r="F59" s="11"/>
@@ -3446,7 +3426,7 @@
     <row r="60" spans="1:9">
       <c r="A60" s="4"/>
       <c r="B60" s="15" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>108</v>
@@ -3455,7 +3435,7 @@
         <v>74</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
@@ -3469,7 +3449,7 @@
         <v>108</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
@@ -3485,16 +3465,16 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
@@ -3503,13 +3483,13 @@
     <row r="64" spans="1:9">
       <c r="A64" s="4"/>
       <c r="B64" s="15" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>106</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G64" s="11"/>
       <c r="H64" s="11"/>
@@ -3524,7 +3504,7 @@
         <v>108</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G65" s="11"/>
       <c r="H65" s="11"/>
@@ -3533,13 +3513,13 @@
     <row r="66" spans="1:10">
       <c r="A66" s="4"/>
       <c r="B66" s="14" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
@@ -3553,7 +3533,7 @@
         <v>108</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
@@ -3562,7 +3542,7 @@
     <row r="68" spans="1:10">
       <c r="A68" s="4"/>
       <c r="B68" s="14" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>108</v>
@@ -3577,7 +3557,7 @@
     <row r="69" spans="1:10">
       <c r="A69" s="4"/>
       <c r="B69" s="15" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>108</v>
@@ -3599,16 +3579,16 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="10" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
@@ -3618,13 +3598,13 @@
     </row>
     <row r="72" spans="1:10">
       <c r="B72" s="15" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>106</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="J72" s="4"/>
     </row>
@@ -3637,7 +3617,7 @@
         <v>108</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E73" s="11"/>
       <c r="F73" s="11"/>
@@ -3648,13 +3628,13 @@
     <row r="74" spans="1:10">
       <c r="A74" s="4"/>
       <c r="B74" s="14" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E74" s="11"/>
       <c r="F74" s="11"/>
@@ -3670,7 +3650,7 @@
         <v>108</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
@@ -3681,7 +3661,7 @@
     <row r="76" spans="1:10">
       <c r="A76" s="4"/>
       <c r="B76" s="14" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>108</v>
@@ -3697,7 +3677,7 @@
     <row r="77" spans="1:10">
       <c r="A77" s="4"/>
       <c r="B77" s="15" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>108</v>
@@ -3713,7 +3693,7 @@
     <row r="78" spans="1:10">
       <c r="A78" s="4"/>
       <c r="B78" s="15" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>108</v>
@@ -3736,27 +3716,27 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="10" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="81" spans="1:12">
       <c r="B81" s="15" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>106</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3767,23 +3747,23 @@
         <v>108</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="B83" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D83" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="84" spans="1:12">
       <c r="B84" s="14" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>108</v>
@@ -3794,7 +3774,7 @@
     </row>
     <row r="85" spans="1:12">
       <c r="B85" s="14" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>108</v>
@@ -3803,7 +3783,7 @@
         <v>64</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -3814,13 +3794,13 @@
         <v>108</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="4"/>
       <c r="B87" s="14" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>108</v>
@@ -3840,7 +3820,7 @@
     <row r="88" spans="1:12">
       <c r="A88" s="4"/>
       <c r="B88" s="14" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>108</v>
@@ -3860,13 +3840,13 @@
     <row r="89" spans="1:12">
       <c r="A89" s="4"/>
       <c r="B89" s="14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
@@ -3893,7 +3873,7 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B91" s="14" t="s">
         <v>109</v>
@@ -3916,13 +3896,13 @@
     <row r="92" spans="1:12">
       <c r="A92" s="4"/>
       <c r="B92" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D92" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
@@ -3936,7 +3916,7 @@
     <row r="93" spans="1:12">
       <c r="A93" s="4"/>
       <c r="B93" s="14" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>108</v>
@@ -4009,10 +3989,10 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>108</v>
@@ -4052,13 +4032,13 @@
     <row r="99" spans="1:12">
       <c r="A99" s="4"/>
       <c r="B99" s="14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
@@ -4072,7 +4052,7 @@
     <row r="100" spans="1:12">
       <c r="A100" s="4"/>
       <c r="B100" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>108</v>
@@ -4081,7 +4061,7 @@
         <v>77</v>
       </c>
       <c r="E100" s="20" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
@@ -4094,13 +4074,13 @@
     <row r="101" spans="1:12">
       <c r="A101" s="4"/>
       <c r="B101" s="14" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
@@ -4114,7 +4094,7 @@
     <row r="102" spans="1:12">
       <c r="A102" s="4"/>
       <c r="B102" s="14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>108</v>
@@ -4123,7 +4103,7 @@
         <v>76</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
@@ -4136,13 +4116,13 @@
     <row r="103" spans="1:12">
       <c r="A103" s="4"/>
       <c r="B103" s="14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
@@ -4315,7 +4295,7 @@
         <v>156</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -4362,7 +4342,7 @@
         <v>164</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -4398,7 +4378,7 @@
         <v>169</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -4418,7 +4398,7 @@
     </row>
     <row r="122" spans="1:12">
       <c r="A122" s="8" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B122" s="14" t="s">
         <v>133</v>
@@ -4427,7 +4407,7 @@
         <v>108</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -4512,13 +4492,13 @@
     <row r="129" spans="1:12">
       <c r="A129" s="4"/>
       <c r="B129" s="14" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>181</v>
+        <v>534</v>
       </c>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
@@ -4532,13 +4512,13 @@
     <row r="130" spans="1:12">
       <c r="A130" s="4"/>
       <c r="B130" s="14" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>182</v>
+        <v>535</v>
       </c>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
@@ -4552,7 +4532,7 @@
     <row r="131" spans="1:12">
       <c r="A131" s="4"/>
       <c r="B131" s="14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>108</v>
@@ -4575,16 +4555,16 @@
     </row>
     <row r="133" spans="1:12">
       <c r="A133" s="10" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -4617,7 +4597,7 @@
     </row>
     <row r="137" spans="1:12">
       <c r="A137" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B137" s="15" t="s">
         <v>113</v>
@@ -4631,7 +4611,7 @@
     </row>
     <row r="138" spans="1:12">
       <c r="B138" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>108</v>
@@ -4642,7 +4622,7 @@
     </row>
     <row r="139" spans="1:12">
       <c r="B139" s="15" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>108</v>
@@ -4653,29 +4633,29 @@
     </row>
     <row r="140" spans="1:12">
       <c r="B140" s="15" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>186</v>
+        <v>533</v>
       </c>
     </row>
     <row r="141" spans="1:12">
       <c r="B141" s="15" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="143" spans="1:12">
       <c r="A143" s="10" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B143" s="15" t="s">
         <v>174</v>
@@ -4759,7 +4739,7 @@
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="8" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="B149" s="14" t="s">
         <v>109</v>
@@ -4771,7 +4751,7 @@
         <v>158</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -4814,8 +4794,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A2:J310"/>
   <sheetViews>
-    <sheetView topLeftCell="A277" workbookViewId="0">
-      <selection activeCell="D287" sqref="D287"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B135" sqref="B135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -4845,7 +4825,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="13" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>105</v>
@@ -4880,7 +4860,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="10" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -4888,10 +4868,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="13" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -4932,10 +4912,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="4" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -4953,7 +4933,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="9" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -4982,7 +4962,7 @@
         <v>72</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -4996,7 +4976,7 @@
         <v>73</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -5007,50 +4987,50 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -5058,7 +5038,7 @@
         <v>81</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -5066,7 +5046,7 @@
         <v>42</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -5091,7 +5071,7 @@
         <v>118</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -5130,7 +5110,7 @@
         <v>118</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -5138,7 +5118,7 @@
         <v>41</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>84</v>
@@ -5169,10 +5149,10 @@
         <v>118</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -5208,7 +5188,7 @@
         <v>133</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>134</v>
@@ -5226,10 +5206,10 @@
         <v>140</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="J41" s="2"/>
     </row>
@@ -5250,7 +5230,7 @@
         <v>59</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>47</v>
@@ -5279,7 +5259,7 @@
         <v>73</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>49</v>
@@ -5308,7 +5288,7 @@
         <v>66</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>49</v>
@@ -5337,7 +5317,7 @@
         <v>60</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>50</v>
@@ -5354,21 +5334,21 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="10" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="13" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>109</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E48" s="13" t="s">
         <v>170</v>
@@ -5379,7 +5359,7 @@
         <v>72</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>43</v>
@@ -5398,7 +5378,7 @@
         <v>73</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>43</v>
@@ -5417,7 +5397,7 @@
         <v>44</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>43</v>
@@ -5436,24 +5416,24 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="13" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>109</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="E54" s="35" t="s">
-        <v>210</v>
+        <v>189</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>207</v>
       </c>
       <c r="F54" s="13" t="s">
         <v>170</v>
@@ -5464,7 +5444,7 @@
         <v>72</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>67</v>
@@ -5484,7 +5464,7 @@
         <v>73</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>67</v>
@@ -5504,7 +5484,7 @@
         <v>44</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>67</v>
@@ -5524,7 +5504,7 @@
         <v>66</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>67</v>
@@ -5544,7 +5524,7 @@
         <v>43</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>67</v>
@@ -5570,25 +5550,25 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="13" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C62" s="13" t="s">
         <v>109</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H62" s="13" t="s">
         <v>170</v>
@@ -5617,12 +5597,12 @@
         <v>48</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>9</v>
@@ -5643,12 +5623,12 @@
         <v>49</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>9</v>
@@ -5666,15 +5646,15 @@
         <v>58</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>9</v>
@@ -5695,12 +5675,12 @@
         <v>50</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>9</v>
@@ -5715,18 +5695,18 @@
         <v>73</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>63</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>9</v>
@@ -5741,18 +5721,18 @@
         <v>44</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>91</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>9</v>
@@ -5767,18 +5747,18 @@
         <v>72</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>46</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>9</v>
@@ -5793,18 +5773,18 @@
         <v>73</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>9</v>
@@ -5825,7 +5805,7 @@
         <v>92</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -5833,16 +5813,16 @@
         <v>42</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>60</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>42</v>
@@ -5851,7 +5831,7 @@
         <v>50</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -5859,30 +5839,30 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="13" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C75" s="13" t="s">
         <v>109</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E75" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="F75" s="35" t="s">
-        <v>224</v>
-      </c>
-      <c r="G75" s="35" t="s">
-        <v>316</v>
+      <c r="F75" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="G75" s="13" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -5899,18 +5879,18 @@
         <v>72</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>68</v>
@@ -5922,18 +5902,18 @@
         <v>72</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>68</v>
@@ -5945,18 +5925,18 @@
         <v>72</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>68</v>
@@ -5968,18 +5948,18 @@
         <v>73</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>63</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>68</v>
@@ -5991,18 +5971,18 @@
         <v>73</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>68</v>
@@ -6014,18 +5994,18 @@
         <v>73</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>68</v>
@@ -6037,10 +6017,10 @@
         <v>44</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>91</v>
@@ -6048,7 +6028,7 @@
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>68</v>
@@ -6060,18 +6040,18 @@
         <v>44</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>68</v>
@@ -6083,13 +6063,13 @@
         <v>44</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -6097,7 +6077,7 @@
         <v>42</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>45</v>
@@ -6106,7 +6086,7 @@
         <v>44</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>91</v>
@@ -6120,33 +6100,33 @@
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="10" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B88" s="13" t="s">
         <v>227</v>
-      </c>
-      <c r="B88" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="C88" s="13" t="s">
         <v>109</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E88" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="F88" s="35" t="s">
-        <v>224</v>
-      </c>
-      <c r="G88" s="35" t="s">
-        <v>233</v>
+      <c r="F88" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="G88" s="13" t="s">
+        <v>230</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -6154,7 +6134,7 @@
         <v>72</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>81</v>
@@ -6163,10 +6143,10 @@
         <v>72</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>48</v>
@@ -6180,7 +6160,7 @@
         <v>73</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>81</v>
@@ -6189,7 +6169,7 @@
         <v>73</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>63</v>
@@ -6206,7 +6186,7 @@
         <v>44</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>81</v>
@@ -6215,10 +6195,10 @@
         <v>44</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>42</v>
@@ -6232,7 +6212,7 @@
         <v>66</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>81</v>
@@ -6241,10 +6221,10 @@
         <v>44</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>42</v>
@@ -6259,39 +6239,39 @@
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="10" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="B95" s="13" t="s">
         <v>236</v>
-      </c>
-      <c r="B95" s="13" t="s">
-        <v>239</v>
       </c>
       <c r="C95" s="13" t="s">
         <v>109</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F95" s="13" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G95" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="H95" s="35" t="s">
-        <v>224</v>
-      </c>
-      <c r="I95" s="35" t="s">
-        <v>233</v>
+      <c r="H95" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="I95" s="13" t="s">
+        <v>230</v>
       </c>
       <c r="J95" s="13" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -6314,10 +6294,10 @@
         <v>44</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>48</v>
@@ -6328,7 +6308,7 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>10</v>
@@ -6346,10 +6326,10 @@
         <v>44</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>48</v>
@@ -6360,7 +6340,7 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>10</v>
@@ -6378,10 +6358,10 @@
         <v>66</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>48</v>
@@ -6392,7 +6372,7 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>10</v>
@@ -6410,7 +6390,7 @@
         <v>66</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>63</v>
@@ -6424,7 +6404,7 @@
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>10</v>
@@ -6442,10 +6422,10 @@
         <v>43</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>47</v>
@@ -6456,7 +6436,7 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>10</v>
@@ -6474,10 +6454,10 @@
         <v>67</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>47</v>
@@ -6488,7 +6468,7 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>10</v>
@@ -6509,18 +6489,18 @@
         <v>75</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>10</v>
@@ -6541,18 +6521,18 @@
         <v>86</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>10</v>
@@ -6570,16 +6550,16 @@
         <v>81</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="105" spans="1:10" s="7" customFormat="1">
@@ -6587,13 +6567,13 @@
         <v>46</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>66</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E105" s="7" t="s">
         <v>46</v>
@@ -6602,10 +6582,10 @@
         <v>42</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I105" s="7" t="s">
         <v>48</v>
@@ -6616,16 +6596,16 @@
     </row>
     <row r="106" spans="1:10" s="7" customFormat="1">
       <c r="A106" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>66</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E106" s="7" t="s">
         <v>46</v>
@@ -6634,7 +6614,7 @@
         <v>42</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H106" s="7" t="s">
         <v>46</v>
@@ -6651,7 +6631,7 @@
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -6659,10 +6639,10 @@
         <v>109</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D109" s="13" t="s">
         <v>180</v>
@@ -6674,360 +6654,360 @@
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="I110" s="2"/>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -7035,12 +7015,12 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="13" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="B133" s="13" t="s">
         <v>148</v>
@@ -7052,7 +7032,7 @@
         <v>149</v>
       </c>
       <c r="E133" s="13" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -7066,7 +7046,7 @@
         <v>72</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>59</v>
@@ -7077,13 +7057,13 @@
         <v>73</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>42</v>
@@ -7094,13 +7074,13 @@
         <v>44</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>47</v>
@@ -7117,7 +7097,7 @@
         <v>72</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>48</v>
@@ -7134,7 +7114,7 @@
         <v>72</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>49</v>
@@ -7161,8 +7141,8 @@
       <c r="B140" s="4"/>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="34" t="s">
-        <v>530</v>
+      <c r="A141" s="10" t="s">
+        <v>522</v>
       </c>
       <c r="B141" s="4"/>
     </row>
@@ -7171,19 +7151,19 @@
         <v>171</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D142" s="13" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E142" s="13" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F142" s="13" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -7194,7 +7174,7 @@
         <v>72</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>51</v>
@@ -7214,13 +7194,13 @@
         <v>73</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>73</v>
@@ -7234,13 +7214,13 @@
         <v>44</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>44</v>
@@ -7254,13 +7234,13 @@
         <v>66</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>66</v>
@@ -7274,13 +7254,13 @@
         <v>43</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>43</v>
@@ -7294,13 +7274,13 @@
         <v>67</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>67</v>
@@ -7339,7 +7319,7 @@
         <v>72</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E152" s="4"/>
     </row>
@@ -7354,7 +7334,7 @@
         <v>72</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E153" s="4"/>
     </row>
@@ -7369,7 +7349,7 @@
         <v>72</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E154" s="4"/>
     </row>
@@ -7424,10 +7404,10 @@
         <v>46</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G158" s="4" t="s">
         <v>63</v>
@@ -7435,7 +7415,7 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>20</v>
@@ -7447,10 +7427,10 @@
         <v>49</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G159" s="4" t="s">
         <v>50</v>
@@ -7458,7 +7438,7 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>21</v>
@@ -7473,7 +7453,7 @@
         <v>85</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G160" s="4" t="s">
         <v>50</v>
@@ -7481,10 +7461,10 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>60</v>
@@ -7493,10 +7473,10 @@
         <v>84</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G161" s="4" t="s">
         <v>50</v>
@@ -7504,7 +7484,7 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>22</v>
@@ -7527,7 +7507,7 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>23</v>
@@ -7542,7 +7522,7 @@
         <v>92</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G163" s="4" t="s">
         <v>52</v>
@@ -7550,7 +7530,7 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>24</v>
@@ -7573,7 +7553,7 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>25</v>
@@ -7588,7 +7568,7 @@
         <v>49</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G165" s="4" t="s">
         <v>51</v>
@@ -7596,7 +7576,7 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>26</v>
@@ -7608,10 +7588,10 @@
         <v>82</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G166" s="4" t="s">
         <v>49</v>
@@ -7619,10 +7599,10 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C167" s="1">
         <v>4</v>
@@ -7631,10 +7611,10 @@
         <v>51</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G167" s="4" t="s">
         <v>49</v>
@@ -7642,7 +7622,7 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>27</v>
@@ -7657,7 +7637,7 @@
         <v>52</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G168" s="4" t="s">
         <v>49</v>
@@ -7665,10 +7645,10 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C169" s="1">
         <v>4</v>
@@ -7680,7 +7660,7 @@
         <v>63</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G169" s="4" t="s">
         <v>49</v>
@@ -7688,7 +7668,7 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>35</v>
@@ -7703,7 +7683,7 @@
         <v>51</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>49</v>
@@ -7711,7 +7691,7 @@
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>28</v>
@@ -7726,7 +7706,7 @@
         <v>48</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G171" s="1" t="s">
         <v>49</v>
@@ -7734,7 +7714,7 @@
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>29</v>
@@ -7749,7 +7729,7 @@
         <v>83</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G172" s="1" t="s">
         <v>48</v>
@@ -7757,7 +7737,7 @@
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>30</v>
@@ -7769,10 +7749,10 @@
         <v>91</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G173" s="1" t="s">
         <v>48</v>
@@ -7780,7 +7760,7 @@
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>31</v>
@@ -7795,7 +7775,7 @@
         <v>46</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G174" s="1" t="s">
         <v>48</v>
@@ -7803,10 +7783,10 @@
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C175" s="1">
         <v>4</v>
@@ -7826,7 +7806,7 @@
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>32</v>
@@ -7841,7 +7821,7 @@
         <v>51</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G176" s="1" t="s">
         <v>48</v>
@@ -7849,7 +7829,7 @@
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>33</v>
@@ -7864,7 +7844,7 @@
         <v>63</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G177" s="1" t="s">
         <v>48</v>
@@ -7872,7 +7852,7 @@
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>34</v>
@@ -7887,7 +7867,7 @@
         <v>46</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G178" s="1" t="s">
         <v>47</v>
@@ -7895,7 +7875,7 @@
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>35</v>
@@ -7910,7 +7890,7 @@
         <v>51</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G179" s="1" t="s">
         <v>47</v>
@@ -7918,7 +7898,7 @@
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>36</v>
@@ -7933,7 +7913,7 @@
         <v>51</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G180" s="1" t="s">
         <v>47</v>
@@ -7947,7 +7927,7 @@
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="8" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -7972,7 +7952,7 @@
         <v>72</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>47</v>
@@ -7986,7 +7966,7 @@
         <v>72</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>47</v>
@@ -8000,7 +7980,7 @@
         <v>72</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>47</v>
@@ -8014,7 +7994,7 @@
         <v>72</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C187" s="4" t="s">
         <v>47</v>
@@ -8028,7 +8008,7 @@
         <v>72</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>47</v>
@@ -8042,7 +8022,7 @@
         <v>72</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>42</v>
@@ -8056,7 +8036,7 @@
         <v>72</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>42</v>
@@ -8070,7 +8050,7 @@
         <v>72</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>59</v>
@@ -8084,7 +8064,7 @@
         <v>72</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>59</v>
@@ -8098,7 +8078,7 @@
         <v>72</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>59</v>
@@ -8112,7 +8092,7 @@
         <v>72</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>59</v>
@@ -8126,7 +8106,7 @@
         <v>73</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>51</v>
@@ -8140,7 +8120,7 @@
         <v>73</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>51</v>
@@ -8154,7 +8134,7 @@
         <v>73</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>51</v>
@@ -8168,7 +8148,7 @@
         <v>73</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>49</v>
@@ -8182,7 +8162,7 @@
         <v>73</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>49</v>
@@ -8196,7 +8176,7 @@
         <v>73</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>48</v>
@@ -8210,7 +8190,7 @@
         <v>73</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>48</v>
@@ -8224,7 +8204,7 @@
         <v>73</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>47</v>
@@ -8238,13 +8218,13 @@
         <v>73</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -8252,7 +8232,7 @@
         <v>73</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>42</v>
@@ -8266,7 +8246,7 @@
         <v>73</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>42</v>
@@ -8280,7 +8260,7 @@
         <v>73</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>42</v>
@@ -8294,7 +8274,7 @@
         <v>73</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>59</v>
@@ -8308,7 +8288,7 @@
         <v>73</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>59</v>
@@ -8322,7 +8302,7 @@
         <v>73</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>59</v>
@@ -8336,7 +8316,7 @@
         <v>44</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>49</v>
@@ -8350,7 +8330,7 @@
         <v>44</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>49</v>
@@ -8364,7 +8344,7 @@
         <v>44</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>49</v>
@@ -8378,7 +8358,7 @@
         <v>44</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>48</v>
@@ -8392,7 +8372,7 @@
         <v>44</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>48</v>
@@ -8406,7 +8386,7 @@
         <v>44</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>48</v>
@@ -8420,7 +8400,7 @@
         <v>44</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>47</v>
@@ -8434,7 +8414,7 @@
         <v>44</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>47</v>
@@ -8448,7 +8428,7 @@
         <v>44</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>47</v>
@@ -8462,7 +8442,7 @@
         <v>44</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>47</v>
@@ -8476,7 +8456,7 @@
         <v>44</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>42</v>
@@ -8490,7 +8470,7 @@
         <v>44</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>42</v>
@@ -8505,7 +8485,7 @@
         <v>44</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>59</v>
@@ -8519,7 +8499,7 @@
         <v>44</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>59</v>
@@ -8533,7 +8513,7 @@
         <v>44</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>59</v>
@@ -8561,7 +8541,7 @@
         <v>66</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>50</v>
@@ -8575,13 +8555,13 @@
         <v>66</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D227" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -8589,7 +8569,7 @@
         <v>66</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>52</v>
@@ -8603,7 +8583,7 @@
         <v>66</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>52</v>
@@ -8617,7 +8597,7 @@
         <v>66</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>51</v>
@@ -8631,7 +8611,7 @@
         <v>66</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>51</v>
@@ -8645,7 +8625,7 @@
         <v>66</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>49</v>
@@ -8659,7 +8639,7 @@
         <v>66</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>48</v>
@@ -8673,7 +8653,7 @@
         <v>66</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>47</v>
@@ -8687,7 +8667,7 @@
         <v>66</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>42</v>
@@ -8701,7 +8681,7 @@
         <v>66</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>59</v>
@@ -8715,7 +8695,7 @@
         <v>66</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C237" s="4" t="s">
         <v>59</v>
@@ -8729,7 +8709,7 @@
         <v>66</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>59</v>
@@ -8756,13 +8736,13 @@
         <v>118</v>
       </c>
       <c r="C241" s="13" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D241" s="13" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E241" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -8776,7 +8756,7 @@
         <v>63</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E242" s="4" t="s">
         <v>42</v>
@@ -8793,7 +8773,7 @@
         <v>63</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E243" s="4" t="s">
         <v>42</v>
@@ -8810,7 +8790,7 @@
         <v>63</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E244" s="4" t="s">
         <v>42</v>
@@ -8818,7 +8798,7 @@
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B245" s="4" t="s">
         <v>52</v>
@@ -8827,7 +8807,7 @@
         <v>63</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E245" s="4" t="s">
         <v>42</v>
@@ -8835,7 +8815,7 @@
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B246" s="4" t="s">
         <v>52</v>
@@ -8844,7 +8824,7 @@
         <v>63</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E246" s="4" t="s">
         <v>47</v>
@@ -8852,7 +8832,7 @@
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B247" s="4" t="s">
         <v>52</v>
@@ -8861,7 +8841,7 @@
         <v>63</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E247" s="4" t="s">
         <v>47</v>
@@ -8869,7 +8849,7 @@
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B248" s="4" t="s">
         <v>52</v>
@@ -8878,7 +8858,7 @@
         <v>50</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E248" s="4" t="s">
         <v>47</v>
@@ -8886,7 +8866,7 @@
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B249" s="4" t="s">
         <v>52</v>
@@ -8895,7 +8875,7 @@
         <v>50</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E249" s="4" t="s">
         <v>47</v>
@@ -8903,7 +8883,7 @@
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B250" s="4" t="s">
         <v>52</v>
@@ -8912,7 +8892,7 @@
         <v>50</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E250" s="4" t="s">
         <v>47</v>
@@ -8920,7 +8900,7 @@
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B251" s="4" t="s">
         <v>52</v>
@@ -8929,7 +8909,7 @@
         <v>50</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E251" s="4" t="s">
         <v>47</v>
@@ -8937,7 +8917,7 @@
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B252" s="4" t="s">
         <v>52</v>
@@ -8946,7 +8926,7 @@
         <v>50</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E252" s="4" t="s">
         <v>48</v>
@@ -8954,7 +8934,7 @@
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B253" s="4" t="s">
         <v>52</v>
@@ -8963,7 +8943,7 @@
         <v>51</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E253" s="4" t="s">
         <v>48</v>
@@ -8971,7 +8951,7 @@
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B254" s="4" t="s">
         <v>52</v>
@@ -8980,7 +8960,7 @@
         <v>51</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E254" s="4" t="s">
         <v>48</v>
@@ -8988,7 +8968,7 @@
     </row>
     <row r="255" spans="1:5">
       <c r="A255" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B255" s="4" t="s">
         <v>52</v>
@@ -8997,7 +8977,7 @@
         <v>52</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E255" s="4" t="s">
         <v>48</v>
@@ -9005,7 +8985,7 @@
     </row>
     <row r="256" spans="1:5">
       <c r="A256" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B256" s="4" t="s">
         <v>49</v>
@@ -9014,7 +8994,7 @@
         <v>52</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E256" s="4" t="s">
         <v>48</v>
@@ -9022,7 +9002,7 @@
     </row>
     <row r="257" spans="1:5">
       <c r="A257" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B257" s="4" t="s">
         <v>49</v>
@@ -9031,7 +9011,7 @@
         <v>52</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E257" s="4" t="s">
         <v>48</v>
@@ -9039,7 +9019,7 @@
     </row>
     <row r="258" spans="1:5">
       <c r="A258" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B258" s="4" t="s">
         <v>49</v>
@@ -9048,7 +9028,7 @@
         <v>52</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E258" s="4" t="s">
         <v>49</v>
@@ -9056,7 +9036,7 @@
     </row>
     <row r="259" spans="1:5">
       <c r="A259" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B259" s="4" t="s">
         <v>49</v>
@@ -9065,7 +9045,7 @@
         <v>51</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E259" s="4" t="s">
         <v>49</v>
@@ -9073,7 +9053,7 @@
     </row>
     <row r="260" spans="1:5">
       <c r="A260" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B260" s="4" t="s">
         <v>49</v>
@@ -9082,7 +9062,7 @@
         <v>51</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E260" s="4" t="s">
         <v>49</v>
@@ -9090,7 +9070,7 @@
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B261" s="4" t="s">
         <v>49</v>
@@ -9099,7 +9079,7 @@
         <v>51</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E261" s="4" t="s">
         <v>49</v>
@@ -9107,7 +9087,7 @@
     </row>
     <row r="262" spans="1:5">
       <c r="A262" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B262" s="4" t="s">
         <v>49</v>
@@ -9116,7 +9096,7 @@
         <v>51</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E262" s="4" t="s">
         <v>49</v>
@@ -9124,7 +9104,7 @@
     </row>
     <row r="263" spans="1:5">
       <c r="A263" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B263" s="4" t="s">
         <v>48</v>
@@ -9133,7 +9113,7 @@
         <v>51</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E263" s="4" t="s">
         <v>49</v>
@@ -9141,7 +9121,7 @@
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B264" s="4" t="s">
         <v>48</v>
@@ -9150,7 +9130,7 @@
         <v>51</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E264" s="4" t="s">
         <v>49</v>
@@ -9165,12 +9145,12 @@
     </row>
     <row r="266" spans="1:5">
       <c r="A266" s="10" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" s="13" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B267" s="13" t="s">
         <v>157</v>
@@ -9225,7 +9205,7 @@
     </row>
     <row r="273" spans="1:10">
       <c r="A273" s="10" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="274" spans="1:10">
@@ -9233,16 +9213,16 @@
         <v>113</v>
       </c>
       <c r="B274" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C274" s="13" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D274" s="13" t="s">
-        <v>512</v>
-      </c>
-      <c r="E274" s="35" t="s">
-        <v>189</v>
+        <v>506</v>
+      </c>
+      <c r="E274" s="13" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="275" spans="1:10">
@@ -9276,7 +9256,7 @@
         <v>49</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="277" spans="1:10">
@@ -9284,7 +9264,7 @@
         <v>44</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>82</v>
@@ -9293,7 +9273,7 @@
         <v>51</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="278" spans="1:10">
@@ -9301,7 +9281,7 @@
         <v>66</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>47</v>
@@ -9310,7 +9290,7 @@
         <v>52</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="279" spans="1:10">
@@ -9318,7 +9298,7 @@
         <v>43</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>83</v>
@@ -9327,7 +9307,7 @@
         <v>50</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="280" spans="1:10">
@@ -9335,7 +9315,7 @@
         <v>67</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>48</v>
@@ -9344,7 +9324,7 @@
         <v>63</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="281" spans="1:10">
@@ -9352,7 +9332,7 @@
         <v>60</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>84</v>
@@ -9361,7 +9341,7 @@
         <v>91</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H281" s="2"/>
       <c r="I281" s="2"/>
@@ -9372,7 +9352,7 @@
         <v>45</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>49</v>
@@ -9381,7 +9361,7 @@
         <v>46</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F282" s="2"/>
       <c r="G282" s="2"/>
@@ -9394,13 +9374,13 @@
         <v>81</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E283" s="2" t="s">
         <v>92</v>
@@ -9416,7 +9396,7 @@
         <v>42</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>51</v>
@@ -9425,7 +9405,7 @@
         <v>92</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F284" s="2"/>
       <c r="G284" s="2"/>
@@ -9444,7 +9424,7 @@
     </row>
     <row r="286" spans="1:10">
       <c r="A286" s="10" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C286" s="4"/>
       <c r="D286" s="7"/>
@@ -9471,7 +9451,7 @@
         <v>66</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>72</v>
@@ -9497,7 +9477,7 @@
         <v>72</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -9565,7 +9545,7 @@
         <v>72</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -9650,7 +9630,7 @@
         <v>72</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -9684,7 +9664,7 @@
         <v>72</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -9701,7 +9681,7 @@
         <v>72</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -9709,7 +9689,7 @@
     </row>
     <row r="303" spans="1:5">
       <c r="A303" s="8" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -9820,10 +9800,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938946F6-BDA6-473C-A293-30E2F737EEDB}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A2:J67"/>
+  <dimension ref="A2:J71"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -9841,7 +9821,7 @@
   <sheetData>
     <row r="2" spans="1:10">
       <c r="A2" s="31" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>102</v>
@@ -9859,16 +9839,16 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="10" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F3" s="29"/>
       <c r="I3" s="4"/>
@@ -9876,37 +9856,37 @@
     </row>
     <row r="4" spans="1:10">
       <c r="B4" s="23" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>106</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="14" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>106</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="14" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>106</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="I6" s="4"/>
     </row>
@@ -9918,7 +9898,7 @@
         <v>106</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="I7" s="7"/>
     </row>
@@ -9927,28 +9907,28 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="10" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="14" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>106</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="I10" s="4"/>
     </row>
@@ -9986,17 +9966,15 @@
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="14" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>437</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="7"/>
@@ -10004,13 +9982,13 @@
     </row>
     <row r="14" spans="1:10">
       <c r="B14" s="14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -10020,13 +9998,13 @@
     </row>
     <row r="15" spans="1:10">
       <c r="B15" s="14" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -10045,27 +10023,27 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="10" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="B18" s="22" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10073,10 +10051,10 @@
         <v>109</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -10084,10 +10062,10 @@
         <v>174</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="J20" s="4"/>
     </row>
@@ -10096,37 +10074,34 @@
         <v>152</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10">
       <c r="B22" s="14" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>516</v>
+        <v>438</v>
       </c>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10">
       <c r="B23" s="14" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="J23" s="4"/>
     </row>
@@ -10136,20 +10111,18 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="10" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="E25" t="s">
-        <v>511</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="E25"/>
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10">
@@ -10157,34 +10130,34 @@
         <v>171</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10">
       <c r="B27" s="14" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:10">
       <c r="B28" s="23" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>108</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="J28" s="4"/>
     </row>
@@ -10193,10 +10166,10 @@
         <v>140</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J29" s="4"/>
     </row>
@@ -10208,7 +10181,7 @@
         <v>108</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="J30" s="4"/>
     </row>
@@ -10218,28 +10191,28 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="10" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:10">
       <c r="B33" s="22" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="J33" s="4"/>
     </row>
@@ -10248,33 +10221,33 @@
         <v>144</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:10" s="6" customFormat="1">
       <c r="B35" s="14" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="6" customFormat="1">
       <c r="B36" s="14" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="6" customFormat="1">
@@ -10282,27 +10255,27 @@
     </row>
     <row r="38" spans="1:10" s="6" customFormat="1">
       <c r="A38" s="10" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>108</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="6" customFormat="1">
       <c r="B39" s="22" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="6" customFormat="1">
@@ -10311,10 +10284,10 @@
         <v>109</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="6" customFormat="1">
@@ -10322,10 +10295,10 @@
         <v>174</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1">
@@ -10333,35 +10306,35 @@
         <v>152</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="B43" s="14" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="B44" s="14" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -10369,16 +10342,16 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="10" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -10389,10 +10362,10 @@
         <v>108</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -10400,44 +10373,44 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="10" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="B50" s="14" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="16"/>
       <c r="B51" s="14" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="B52" s="14" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>108</v>
@@ -10448,43 +10421,43 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="20"/>
       <c r="B55" s="23" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="C55" s="20" t="s">
         <v>108</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="20"/>
       <c r="B56" s="25" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="C56" s="20" t="s">
         <v>108</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -10496,10 +10469,10 @@
         <v>108</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -10509,27 +10482,27 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="10" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="B60" s="23" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -10551,7 +10524,7 @@
         <v>108</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -10562,46 +10535,82 @@
         <v>108</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="10" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="B66" s="15" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="B67" s="15" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="B70" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="B71" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -10616,8 +10625,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -10638,22 +10647,22 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="10" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="21" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>114</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>143</v>
@@ -10668,7 +10677,7 @@
         <v>87</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>88</v>
@@ -10683,16 +10692,16 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="10" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="21" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>113</v>
@@ -10701,13 +10710,13 @@
         <v>112</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -10715,7 +10724,7 @@
         <v>72</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>43</v>
@@ -10724,7 +10733,7 @@
         <v>48</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>86</v>
@@ -10735,15 +10744,15 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="10" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="13" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>109</v>
@@ -10755,10 +10764,10 @@
         <v>152</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -10786,7 +10795,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>72</v>
@@ -10810,7 +10819,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>72</v>
@@ -10825,7 +10834,7 @@
         <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>494</v>
+        <v>59</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>59</v>
@@ -10833,7 +10842,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>72</v>
@@ -10848,7 +10857,7 @@
         <v>72</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>494</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>72</v>
@@ -10856,7 +10865,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>72</v>
@@ -10871,7 +10880,7 @@
         <v>72</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>494</v>
+        <v>59</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>59</v>
@@ -10879,7 +10888,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>72</v>
@@ -10894,7 +10903,7 @@
         <v>72</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>494</v>
+        <v>59</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>72</v>
@@ -10903,7 +10912,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>72</v>
@@ -10927,7 +10936,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>72</v>
@@ -10951,7 +10960,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>72</v>
@@ -10966,7 +10975,7 @@
         <v>72</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>494</v>
+        <v>59</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>72</v>
@@ -10975,7 +10984,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>72</v>
@@ -10990,7 +10999,7 @@
         <v>72</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>494</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>59</v>
@@ -10999,7 +11008,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>72</v>
@@ -11014,7 +11023,7 @@
         <v>72</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>494</v>
+        <v>59</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>72</v>
@@ -11023,7 +11032,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>72</v>
@@ -11038,7 +11047,7 @@
         <v>72</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>494</v>
+        <v>59</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>59</v>
@@ -11050,28 +11059,28 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="10" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="21" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>171</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="J26" s="4"/>
     </row>
@@ -11083,13 +11092,13 @@
         <v>66</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>72</v>
@@ -11107,7 +11116,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="10" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="4"/>
@@ -11116,19 +11125,19 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="21" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>144</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F30" s="20"/>
       <c r="H30" s="7"/>
@@ -11150,14 +11159,14 @@
         <v>52</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>72</v>
@@ -11169,26 +11178,26 @@
         <v>49</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>48</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
@@ -11199,19 +11208,19 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>48</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
@@ -11222,19 +11231,19 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
@@ -11251,7 +11260,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="10" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="27"/>
@@ -11260,10 +11269,10 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="13" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>109</v>
@@ -11275,10 +11284,10 @@
         <v>152</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
@@ -11299,13 +11308,13 @@
         <v>59</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -11314,7 +11323,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>72</v>
@@ -11329,10 +11338,10 @@
         <v>44</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
@@ -11341,7 +11350,7 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>72</v>
@@ -11356,10 +11365,10 @@
         <v>72</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
@@ -11368,7 +11377,7 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>72</v>
@@ -11383,10 +11392,10 @@
         <v>72</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
@@ -11395,7 +11404,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>72</v>
@@ -11410,10 +11419,10 @@
         <v>72</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
@@ -11422,7 +11431,7 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>72</v>
@@ -11437,15 +11446,15 @@
         <v>72</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>72</v>
@@ -11460,15 +11469,15 @@
         <v>72</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>72</v>
@@ -11483,15 +11492,15 @@
         <v>72</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>72</v>
@@ -11506,10 +11515,10 @@
         <v>72</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -11518,12 +11527,12 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="10" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="21" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B50" s="21" t="s">
         <v>144</v>
@@ -11555,21 +11564,21 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="10" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="21" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -11591,7 +11600,7 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
@@ -11601,13 +11610,13 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="13" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="D60" s="26" t="s">
         <v>170</v>
@@ -11625,7 +11634,7 @@
         <v>44</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E61" s="20"/>
       <c r="F61" s="20"/>
@@ -11641,7 +11650,7 @@
         <v>43</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="E62" s="20"/>
       <c r="F62" s="20"/>
@@ -11656,15 +11665,15 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="10" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="13" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>109</v>
@@ -11725,7 +11734,7 @@
         <v>72</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -11753,18 +11762,18 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="10" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="13" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -11772,26 +11781,26 @@
         <v>72</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="10" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="15" t="s">
-        <v>467</v>
-      </c>
-      <c r="B75" s="15" t="s">
-        <v>536</v>
-      </c>
-      <c r="C75" s="15" t="s">
-        <v>533</v>
+      <c r="A75" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="76" spans="1:7">
